--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="135">
   <si>
     <t>Lab. #</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Ch. Bl. 230</t>
   </si>
   <si>
-    <t>Sp. Bl. 230</t>
-  </si>
-  <si>
     <t>230Th1</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>(ng/g)</t>
   </si>
   <si>
-    <t>(fg/g)</t>
-  </si>
-  <si>
     <t>(dpmg/g)</t>
   </si>
   <si>
@@ -372,13 +366,13 @@
     <t>(ka)</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Akt. Ver. initial</t>
+  </si>
+  <si>
     <t>Out of range</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Akt. Ver. initial</t>
   </si>
   <si>
     <t>Taylor 1. Ord.</t>
@@ -1887,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG13"/>
+  <dimension ref="A1:BF13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1910,7 +1904,7 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
     <col min="20" max="20" width="23.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
@@ -1921,40 +1915,39 @@
     <col min="26" max="26" width="23.7109375" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.7109375" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" customWidth="1"/>
     <col min="31" max="31" width="22.7109375" customWidth="1"/>
     <col min="32" max="32" width="22.7109375" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" customWidth="1"/>
     <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
     <col min="36" max="36" width="20.7109375" customWidth="1"/>
-    <col min="37" max="37" width="20.7109375" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.7109375" customWidth="1"/>
-    <col min="41" max="41" width="23.7109375" customWidth="1"/>
-    <col min="42" max="42" width="16.7109375" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" customWidth="1"/>
+    <col min="38" max="38" width="23.7109375" customWidth="1"/>
+    <col min="39" max="39" width="22.7109375" customWidth="1"/>
+    <col min="40" max="40" width="23.7109375" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" customWidth="1"/>
+    <col min="44" max="44" width="23.7109375" customWidth="1"/>
     <col min="45" max="45" width="23.7109375" customWidth="1"/>
-    <col min="46" max="46" width="23.7109375" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
-    <col min="48" max="48" width="9.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" customWidth="1"/>
-    <col min="51" max="51" width="22.7109375" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" customWidth="1"/>
-    <col min="53" max="53" width="12.7109375" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" customWidth="1"/>
-    <col min="55" max="55" width="19.7109375" customWidth="1"/>
-    <col min="56" max="56" width="20.7109375" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" customWidth="1"/>
+    <col min="50" max="50" width="22.7109375" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="52" max="52" width="12.7109375" customWidth="1"/>
+    <col min="53" max="53" width="6.7109375" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" customWidth="1"/>
+    <col min="56" max="56" width="18.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
-    <col min="59" max="59" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1">
+    <row r="1" spans="1:58" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,61 +1958,61 @@
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>67</v>
@@ -2028,100 +2021,100 @@
         <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="BC1" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>100</v>
@@ -2129,178 +2122,172 @@
       <c r="BF1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" s="3" customFormat="1">
+    <row r="2" spans="1:58" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1">
+    <row r="3" spans="1:58" s="4" customFormat="1">
       <c r="A3" s="4">
         <v>10815</v>
       </c>
@@ -2350,10 +2337,10 @@
         <v>0.001458381816529189</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.40023165849734</v>
+        <v>10.2229084183414</v>
       </c>
       <c r="R3" s="4">
-        <v>0.06620424170825219</v>
+        <v>0.001088158080050232</v>
       </c>
       <c r="S3" s="4">
         <v>1.000114366734304</v>
@@ -2371,112 +2358,109 @@
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>0.9308953049971663</v>
+        <v>0.9284286765323656</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.004344705994292121</v>
+        <v>0.004333193662648399</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002273033307682513</v>
+        <v>0.0002267010365437481</v>
       </c>
       <c r="AA3" s="4">
-        <v>1.06087777906925E-06</v>
+        <v>1.058066731131335E-06</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>0.85</v>
+        <v>224.1086737872328</v>
       </c>
       <c r="AD3" s="4">
-        <v>224.6961553523945</v>
+        <v>0.7639864796420964</v>
       </c>
       <c r="AE3" s="4">
-        <v>0.7659892043257855</v>
+        <v>10.2170232939209</v>
       </c>
       <c r="AF3" s="4">
-        <v>10.24380633955038</v>
+        <v>0.0348298328968497</v>
       </c>
       <c r="AG3" s="4">
-        <v>0.03492113630067952</v>
+        <v>45068.26898406901</v>
       </c>
       <c r="AH3" s="4">
-        <v>45066.6794231648</v>
+        <v>260.4788137042241</v>
       </c>
       <c r="AI3" s="4">
-        <v>260.4696265987955</v>
+        <v>0.1143667343042054</v>
       </c>
       <c r="AJ3" s="4">
-        <v>0.1143667343042054</v>
+        <v>1.672089322806292</v>
       </c>
       <c r="AK3" s="4">
-        <v>1.672089322806292</v>
+        <v>0.9994243199508722</v>
       </c>
       <c r="AL3" s="4">
-        <v>1.002044224632932</v>
+        <v>0.003408697990423883</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.003417633598299904</v>
+        <v>0.9994243199508722</v>
       </c>
       <c r="AN3" s="4">
-        <v>1.002044224632932</v>
+        <v>0.003408697990423883</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.003417633598299903</v>
+        <v>787.196</v>
       </c>
       <c r="AP3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>2.217578670048665E-05</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>1.035264937069868E-07</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>2.223470283275118E-05</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>1.038015405713216E-07</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>0.375</v>
-      </c>
       <c r="AW3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AX3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="BE3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:58">
       <c r="A4">
         <v>10989</v>
       </c>
@@ -2526,10 +2510,10 @@
         <v>0.0001619437037934368</v>
       </c>
       <c r="Q4">
-        <v>2.494533049558064</v>
+        <v>2.151004382936691</v>
       </c>
       <c r="R4">
-        <v>0.006844932384407318</v>
+        <v>0.0001208327941275882</v>
       </c>
       <c r="S4">
         <v>1.146015048919254</v>
@@ -2547,115 +2531,112 @@
         <v>0.003</v>
       </c>
       <c r="X4">
-        <v>0.1648649603714585</v>
+        <v>0.164348706667991</v>
       </c>
       <c r="Y4">
-        <v>0.0003275915424590783</v>
+        <v>0.0003265657311123974</v>
       </c>
       <c r="Z4">
-        <v>4.025625053455646E-05</v>
+        <v>4.013019319417705E-05</v>
       </c>
       <c r="AA4">
-        <v>7.999035802708682E-08</v>
+        <v>7.973987837100867E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.85</v>
+        <v>0.06097318120314129</v>
       </c>
       <c r="AD4">
-        <v>0.06025788678615855</v>
+        <v>0.001291801527102739</v>
       </c>
       <c r="AE4">
-        <v>0.001276647021433962</v>
+        <v>0.002779742533519217</v>
       </c>
       <c r="AF4">
-        <v>0.002747132551956153</v>
+        <v>5.889270625045821E-05</v>
       </c>
       <c r="AG4">
-        <v>5.820181850029131E-05</v>
+        <v>69.26810743394481</v>
       </c>
       <c r="AH4">
-        <v>68.24114306418033</v>
+        <v>1.473981315707428</v>
       </c>
       <c r="AI4">
-        <v>1.452128166415402</v>
+        <v>145.9064109889343</v>
       </c>
       <c r="AJ4">
-        <v>145.9064109889343</v>
+        <v>0.5483315951927344</v>
       </c>
       <c r="AK4">
-        <v>0.5483315951927344</v>
+        <v>0.001292299799837754</v>
       </c>
       <c r="AL4">
-        <v>0.001277139448784195</v>
+        <v>2.737926232677275E-05</v>
       </c>
       <c r="AM4">
-        <v>2.705806810503453E-05</v>
+        <v>0.001293671958225894</v>
       </c>
       <c r="AN4">
-        <v>0.001275152828087398</v>
+        <v>2.740833351015257E-05</v>
       </c>
       <c r="AO4">
-        <v>2.701597863848178E-05</v>
+        <v>0.1232</v>
       </c>
       <c r="AP4">
-        <v>0.1218</v>
+        <v>0.0041</v>
       </c>
       <c r="AQ4">
-        <v>0.0032</v>
+        <v>3.327922077922078</v>
       </c>
       <c r="AR4">
-        <v>2.627257799671593</v>
+        <v>1.865649066664787E-05</v>
       </c>
       <c r="AS4">
-        <v>1.871509461063766E-05</v>
+        <v>3.708580901895586E-08</v>
       </c>
       <c r="AT4">
-        <v>3.720230331112454E-08</v>
+        <v>8</v>
       </c>
       <c r="AU4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV4">
-        <v>0.375</v>
+        <v>0.1091</v>
       </c>
       <c r="AW4">
-        <v>0.1202</v>
+        <v>0.0076270048</v>
       </c>
       <c r="AX4">
-        <v>0.0026814172</v>
+        <v>0.007577624118811419</v>
       </c>
       <c r="AY4">
-        <v>0.002663187902121503</v>
-      </c>
-      <c r="AZ4">
-        <v>2.230796339434276</v>
-      </c>
-      <c r="BA4" t="s">
+        <v>6.990838496791933</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>26</v>
       </c>
+      <c r="BA4">
+        <v>30</v>
+      </c>
       <c r="BB4">
-        <v>30</v>
+        <v>145.9514080700588</v>
       </c>
       <c r="BC4">
-        <v>145.9559869192395</v>
+        <v>0.5485097219309453</v>
       </c>
       <c r="BD4">
-        <v>0.5485190220285382</v>
+        <v>51.10000000000001</v>
       </c>
       <c r="BE4">
-        <v>62.2</v>
+        <v>3.788812059405709</v>
       </c>
       <c r="BF4">
-        <v>1.331593951060752</v>
-      </c>
-      <c r="BG4">
-        <v>1107.815267105451</v>
+        <v>6.945576644190118</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1">
+    <row r="5" spans="1:58" s="4" customFormat="1">
       <c r="A5" s="4">
         <v>10815</v>
       </c>
@@ -2705,10 +2686,10 @@
         <v>0.001718799455033931</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.34489129641446</v>
+        <v>10.22317599622057</v>
       </c>
       <c r="R5" s="4">
-        <v>0.08830543895282254</v>
+        <v>0.001282466288171574</v>
       </c>
       <c r="S5" s="4">
         <v>1.00007524374222</v>
@@ -2726,112 +2707,109 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.9350241754877243</v>
+        <v>0.9325466065987698</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.003866776386707385</v>
+        <v>0.003856530443204103</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002283115064565124</v>
+        <v>0.0002277065408307927</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.441783058915393E-07</v>
+        <v>9.416764809573525E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0.85</v>
+        <v>223.8970280920027</v>
       </c>
       <c r="AD5" s="4">
-        <v>224.4839473616327</v>
+        <v>0.6387388207707742</v>
       </c>
       <c r="AE5" s="4">
-        <v>0.640413198163658</v>
+        <v>10.20737445275075</v>
       </c>
       <c r="AF5" s="4">
-        <v>10.23413186355563</v>
+        <v>0.02911984306659327</v>
       </c>
       <c r="AG5" s="4">
-        <v>0.02919617725097272</v>
+        <v>44826.88294990959</v>
       </c>
       <c r="AH5" s="4">
-        <v>44825.30040817269</v>
+        <v>225.2113611056301</v>
       </c>
       <c r="AI5" s="4">
-        <v>225.203410377069</v>
+        <v>0.07524374222045438</v>
       </c>
       <c r="AJ5" s="4">
-        <v>0.07524374222045438</v>
+        <v>1.847658475256469</v>
       </c>
       <c r="AK5" s="4">
-        <v>1.847658475256469</v>
+        <v>0.9984543410506036</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.002851167071869993</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.002858641065203783</v>
+        <v>0.9984543410506036</v>
       </c>
       <c r="AN5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.002851167071869993</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.002858641065203783</v>
+        <v>699.4166</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>2.227356165197333E-05</v>
       </c>
       <c r="AS5" s="4">
-        <v>2.233273755053395E-05</v>
+        <v>9.215430044876766E-08</v>
       </c>
       <c r="AT5" s="4">
-        <v>9.239913392535709E-08</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="4">
-        <v>0.375</v>
+        <v>699.3971</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>256.5464924142581</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="BB5" s="4">
+        <v>0.5431789176196203</v>
+      </c>
       <c r="BC5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>699339.1</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>128273.2462071291</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>36.68109181668871</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:58">
       <c r="A6">
         <v>10990</v>
       </c>
@@ -2881,10 +2859,10 @@
         <v>0.0001723385360822908</v>
       </c>
       <c r="Q6">
-        <v>2.498781508865185</v>
+        <v>2.159505325145284</v>
       </c>
       <c r="R6">
-        <v>0.007131896276153311</v>
+        <v>0.0001285888019286201</v>
       </c>
       <c r="S6">
         <v>1.145956643442365</v>
@@ -2902,115 +2880,112 @@
         <v>0.003</v>
       </c>
       <c r="X6">
-        <v>0.08206535589386277</v>
+        <v>0.08175910603621016</v>
       </c>
       <c r="Y6">
-        <v>0.0002542747168099036</v>
+        <v>0.0002533258194953242</v>
       </c>
       <c r="Z6">
-        <v>2.003848191651771E-05</v>
+        <v>1.996370270953486E-05</v>
       </c>
       <c r="AA6">
-        <v>6.208806699397941E-08</v>
+        <v>6.185636798443117E-08</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.85</v>
+        <v>0.05779578540821469</v>
       </c>
       <c r="AD6">
-        <v>0.05697928276837074</v>
+        <v>0.001154479715308004</v>
       </c>
       <c r="AE6">
-        <v>0.001138169949318366</v>
+        <v>0.002634886351461793</v>
       </c>
       <c r="AF6">
-        <v>0.002597662328179437</v>
+        <v>5.263226069892974E-05</v>
       </c>
       <c r="AG6">
-        <v>5.188870510057422E-05</v>
+        <v>131.9838503807886</v>
       </c>
       <c r="AH6">
-        <v>129.6336887695163</v>
+        <v>2.667925870214171</v>
       </c>
       <c r="AI6">
-        <v>2.620419626504751</v>
+        <v>144.4746150985909</v>
       </c>
       <c r="AJ6">
-        <v>144.4746150985909</v>
+        <v>0.4966198109484972</v>
       </c>
       <c r="AK6">
-        <v>0.4966198109484972</v>
+        <v>0.001220134222769062</v>
       </c>
       <c r="AL6">
-        <v>0.001202896931038906</v>
+        <v>2.437247731538343E-05</v>
       </c>
       <c r="AM6">
-        <v>2.402815822832558E-05</v>
+        <v>0.001222639286764136</v>
       </c>
       <c r="AN6">
-        <v>0.001202215160090243</v>
+        <v>2.442251657684677E-05</v>
       </c>
       <c r="AO6">
-        <v>2.40145396881105E-05</v>
+        <v>0.1163</v>
       </c>
       <c r="AP6">
-        <v>0.1147</v>
+        <v>0.0044</v>
       </c>
       <c r="AQ6">
-        <v>0.0052</v>
+        <v>3.783319002579536</v>
       </c>
       <c r="AR6">
-        <v>4.533565823888405</v>
+        <v>9.244572114306674E-06</v>
       </c>
       <c r="AS6">
-        <v>9.279200047895037E-06</v>
+        <v>2.864905625561545E-08</v>
       </c>
       <c r="AT6">
-        <v>2.875636869854111E-08</v>
+        <v>8</v>
       </c>
       <c r="AU6">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV6">
-        <v>0.375</v>
+        <v>0.1097</v>
       </c>
       <c r="AW6">
-        <v>0.1141</v>
+        <v>0.0042628134</v>
       </c>
       <c r="AX6">
-        <v>0.0023327735</v>
+        <v>0.0042299295372283</v>
       </c>
       <c r="AY6">
-        <v>0.002318047539323532</v>
-      </c>
-      <c r="AZ6">
-        <v>2.044499123575811</v>
-      </c>
-      <c r="BA6" t="s">
+        <v>3.885882771194166</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>27</v>
       </c>
+      <c r="BA6">
+        <v>47.5</v>
+      </c>
       <c r="BB6">
-        <v>47.5</v>
+        <v>144.5194156912648</v>
       </c>
       <c r="BC6">
-        <v>144.5212129054278</v>
+        <v>0.4967768607109589</v>
       </c>
       <c r="BD6">
-        <v>0.4967809009411691</v>
+        <v>51.7</v>
       </c>
       <c r="BE6">
-        <v>56.09999999999999</v>
+        <v>2.11496476861415</v>
       </c>
       <c r="BF6">
-        <v>1.159023769661766</v>
-      </c>
-      <c r="BG6">
-        <v>1015.796467714081</v>
+        <v>3.855906597291066</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1">
+    <row r="7" spans="1:58" s="4" customFormat="1">
       <c r="A7" s="4">
         <v>10815</v>
       </c>
@@ -3060,10 +3035,10 @@
         <v>0.001771577620583448</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.51311112792597</v>
+        <v>10.22472872482657</v>
       </c>
       <c r="R7" s="4">
-        <v>0.07231692961550673</v>
+        <v>0.00132184622739052</v>
       </c>
       <c r="S7" s="4">
         <v>1.002514640426851</v>
@@ -3081,112 +3056,109 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.9446978553457307</v>
+        <v>0.9421946537417234</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.00359360536525734</v>
+        <v>0.003584083253331734</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002306735977042681</v>
+        <v>0.0002300623731561144</v>
       </c>
       <c r="AA7" s="4">
-        <v>8.77476193729582E-07</v>
+        <v>8.751511119024211E-07</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.85</v>
+        <v>223.7053034071008</v>
       </c>
       <c r="AD7" s="4">
-        <v>224.2917133068922</v>
+        <v>0.4943297527625418</v>
       </c>
       <c r="AE7" s="4">
-        <v>0.4956255640659236</v>
+        <v>10.19863380233968</v>
       </c>
       <c r="AF7" s="4">
-        <v>10.22536799118078</v>
+        <v>0.02253629238664822</v>
       </c>
       <c r="AG7" s="4">
-        <v>0.02259536789696849</v>
+        <v>44329.86438603393</v>
       </c>
       <c r="AH7" s="4">
-        <v>44328.29804948058</v>
+        <v>195.0168804580674</v>
       </c>
       <c r="AI7" s="4">
-        <v>195.0099897970511</v>
+        <v>2.514640426850789</v>
       </c>
       <c r="AJ7" s="4">
-        <v>2.514640426850789</v>
+        <v>1.802158364614082</v>
       </c>
       <c r="AK7" s="4">
-        <v>1.802158364614082</v>
+        <v>0.9974478616314266</v>
       </c>
       <c r="AL7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.002207865684017097</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.002213653272754594</v>
+        <v>0.9974478616314266</v>
       </c>
       <c r="AN7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.002207865684017097</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.002213653272754594</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>617.4591</v>
+        <v>557.1646</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>2.250058454827287E-05</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.256036359616776E-05</v>
+        <v>8.564103664792728E-08</v>
       </c>
       <c r="AT7" s="4">
-        <v>8.586856583147189E-08</v>
+        <v>8</v>
       </c>
       <c r="AU7" s="4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="AW7" s="4">
-        <v>617.4573</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY7" s="4">
-        <v>103.9089916358842</v>
+        <v>557.1452</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>59.5616806850411</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BC7" s="4">
-        <v>14.40030502845515</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>119</v>
+      <c r="BB7" s="4">
+        <v>12.14344236039566</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>557087.2000000001</v>
       </c>
       <c r="BE7" s="4">
-        <v>617399.3</v>
+        <v>29780.84034252055</v>
       </c>
       <c r="BF7" s="4">
-        <v>51954.49581794211</v>
-      </c>
-      <c r="BG7" s="4">
-        <v>8414.265378017573</v>
+        <v>10.69051311669581</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:58">
       <c r="A8">
         <v>10991</v>
       </c>
@@ -3236,10 +3208,10 @@
         <v>0.0001972308851365691</v>
       </c>
       <c r="Q8">
-        <v>2.391626369770513</v>
+        <v>2.056093993624354</v>
       </c>
       <c r="R8">
-        <v>0.008333495916921346</v>
+        <v>0.000147161997540252</v>
       </c>
       <c r="S8">
         <v>1.146358704091157</v>
@@ -3257,115 +3229,112 @@
         <v>0.003</v>
       </c>
       <c r="X8">
-        <v>0.06829703125084907</v>
+        <v>0.06804359221735705</v>
       </c>
       <c r="Y8">
-        <v>0.0002631033824980844</v>
+        <v>0.0002621270491824548</v>
       </c>
       <c r="Z8">
-        <v>1.667657211457157E-05</v>
+        <v>1.661468810231995E-05</v>
       </c>
       <c r="AA8">
-        <v>6.424382511886218E-08</v>
+        <v>6.400542686570602E-08</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.85</v>
+        <v>0.06191767674622532</v>
       </c>
       <c r="AD8">
-        <v>0.06128399097454247</v>
+        <v>0.001198934509509678</v>
       </c>
       <c r="AE8">
-        <v>0.001186664221285368</v>
+        <v>0.00282280170120612</v>
       </c>
       <c r="AF8">
-        <v>0.002793912224592392</v>
+        <v>5.465893668700942E-05</v>
       </c>
       <c r="AG8">
-        <v>5.409953923713687E-05</v>
+        <v>169.8979652113942</v>
       </c>
       <c r="AH8">
-        <v>167.5351628258868</v>
+        <v>3.354271162584406</v>
       </c>
       <c r="AI8">
-        <v>3.307622693930106</v>
+        <v>144.5202595351331</v>
       </c>
       <c r="AJ8">
-        <v>144.5202595351331</v>
+        <v>0.5464885728009569</v>
       </c>
       <c r="AK8">
-        <v>0.5464885728009569</v>
+        <v>0.001372895261578126</v>
       </c>
       <c r="AL8">
-        <v>0.001358844602073594</v>
+        <v>2.658405221541558E-05</v>
       </c>
       <c r="AM8">
-        <v>2.631198232313543E-05</v>
+        <v>0.00137769211062768</v>
       </c>
       <c r="AN8">
-        <v>0.001360027298009095</v>
+        <v>2.667693598388037E-05</v>
       </c>
       <c r="AO8">
-        <v>2.633488345141829E-05</v>
+        <v>0.1309</v>
       </c>
       <c r="AP8">
-        <v>0.1295</v>
+        <v>0.0026</v>
       </c>
       <c r="AQ8">
-        <v>0.0026</v>
+        <v>1.986249045072574</v>
       </c>
       <c r="AR8">
-        <v>2.007722007722008</v>
+        <v>8.080704556231217E-06</v>
       </c>
       <c r="AS8">
-        <v>8.110802408004294E-06</v>
+        <v>3.113499337914811E-08</v>
       </c>
       <c r="AT8">
-        <v>3.125096054626335E-08</v>
+        <v>8</v>
       </c>
       <c r="AU8">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV8">
-        <v>0.375</v>
+        <v>0.1254</v>
       </c>
       <c r="AW8">
-        <v>0.1293</v>
+        <v>0.0040577034</v>
       </c>
       <c r="AX8">
-        <v>0.0025250226</v>
+        <v>0.004000928025806783</v>
       </c>
       <c r="AY8">
-        <v>0.002532899142229332</v>
-      </c>
-      <c r="AZ8">
-        <v>1.952840371229698</v>
-      </c>
-      <c r="BA8" t="s">
+        <v>3.235808133971292</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>28</v>
       </c>
+      <c r="BA8">
+        <v>70</v>
+      </c>
       <c r="BB8">
-        <v>70</v>
+        <v>144.5714891971889</v>
       </c>
       <c r="BC8">
-        <v>144.5730827553311</v>
+        <v>0.5466848067060551</v>
       </c>
       <c r="BD8">
-        <v>0.5466892919830495</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="BE8">
-        <v>71.30000000000001</v>
+        <v>2.000464012903391</v>
       </c>
       <c r="BF8">
-        <v>1.266449571114666</v>
-      </c>
-      <c r="BG8">
-        <v>979.4660256107239</v>
+        <v>3.190532715954372</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1">
+    <row r="9" spans="1:58" s="4" customFormat="1">
       <c r="A9" s="4">
         <v>10815</v>
       </c>
@@ -3415,10 +3384,10 @@
         <v>0.001644691398066958</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.43349082855542</v>
+        <v>10.22386654656593</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0889522643630432</v>
+        <v>0.001227171248099452</v>
       </c>
       <c r="S9" s="4">
         <v>1.000697962479403</v>
@@ -3436,112 +3405,109 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0.9488419428341529</v>
+        <v>0.9463277604849375</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.004077997428984894</v>
+        <v>0.004067191805104615</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002316854890351801</v>
+        <v>0.0002310715832403312</v>
       </c>
       <c r="AA9" s="4">
-        <v>9.957536508098015E-07</v>
+        <v>9.9311516473534E-07</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.85</v>
+        <v>223.2694701586305</v>
       </c>
       <c r="AD9" s="4">
-        <v>223.8547221464317</v>
+        <v>0.5191415766427769</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.5205023925190567</v>
+        <v>10.17876434179344</v>
       </c>
       <c r="AF9" s="4">
-        <v>10.20544574189782</v>
+        <v>0.0236674533464855</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.0237294923888471</v>
+        <v>44050.2644204709</v>
       </c>
       <c r="AH9" s="4">
-        <v>44048.70492492595</v>
+        <v>215.2527280272866</v>
       </c>
       <c r="AI9" s="4">
-        <v>215.2451075129761</v>
+        <v>0.6979624794027917</v>
       </c>
       <c r="AJ9" s="4">
-        <v>0.6979624794027917</v>
+        <v>1.333396989833812</v>
       </c>
       <c r="AK9" s="4">
-        <v>1.333396989833812</v>
+        <v>0.9955885374122334</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.002318004343065792</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.002324080483473825</v>
+        <v>0.9955885374122334</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.002318004343065791</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.002324080483473824</v>
-      </c>
-      <c r="AP9" s="4">
-        <v>642.115</v>
+        <v>570.2877</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>2.26011932166647E-05</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.266123955941114E-05</v>
+        <v>9.717481944127452E-08</v>
       </c>
       <c r="AT9" s="4">
-        <v>9.743299132001371E-08</v>
+        <v>8</v>
       </c>
       <c r="AU9" s="4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="AW9" s="4">
-        <v>642.1132</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY9" s="4">
-        <v>116.7139883912944</v>
+        <v>570.268</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>60.16809910079359</v>
+      </c>
+      <c r="AY9" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BC9" s="4">
-        <v>4.285403036094117</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>119</v>
+      <c r="BB9" s="4">
+        <v>3.497885056565243</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>570210</v>
       </c>
       <c r="BE9" s="4">
-        <v>642055.2</v>
+        <v>30084.04955039679</v>
       </c>
       <c r="BF9" s="4">
-        <v>58356.99419564722</v>
-      </c>
-      <c r="BG9" s="4">
-        <v>9088.272004943556</v>
+        <v>10.5508461110905</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:58">
       <c r="A10">
         <v>10992</v>
       </c>
@@ -3591,10 +3557,10 @@
         <v>0.0001451909346112916</v>
       </c>
       <c r="Q10">
-        <v>2.46877500107601</v>
+        <v>2.12944078040521</v>
       </c>
       <c r="R10">
-        <v>0.008079781575073844</v>
+        <v>0.0001083328706218545</v>
       </c>
       <c r="S10">
         <v>1.145993042881479</v>
@@ -3612,115 +3578,112 @@
         <v>0.003</v>
       </c>
       <c r="X10">
-        <v>0.1295900854374632</v>
+        <v>0.1291711212722189</v>
       </c>
       <c r="Y10">
-        <v>0.0003235275340622288</v>
+        <v>0.0003224815709950363</v>
       </c>
       <c r="Z10">
-        <v>3.164293330984982E-05</v>
+        <v>3.154063184831989E-05</v>
       </c>
       <c r="AA10">
-        <v>7.899802017779792E-08</v>
+        <v>7.874261993272505E-08</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>0.85</v>
+        <v>0.05616627403722003</v>
       </c>
       <c r="AD10">
-        <v>0.05548268026115982</v>
+        <v>0.001199923066243893</v>
       </c>
       <c r="AE10">
-        <v>0.001185318929617492</v>
+        <v>0.00256059759077345</v>
       </c>
       <c r="AF10">
-        <v>0.002529432828537529</v>
+        <v>5.470400458648045E-05</v>
       </c>
       <c r="AG10">
-        <v>5.403820793712274E-05</v>
+        <v>81.18409304821357</v>
       </c>
       <c r="AH10">
-        <v>79.93673670418434</v>
+        <v>1.746200174896844</v>
       </c>
       <c r="AI10">
-        <v>1.719370610331665</v>
+        <v>145.1899155599503</v>
       </c>
       <c r="AJ10">
-        <v>145.1899155599503</v>
+        <v>0.3791130483964922</v>
       </c>
       <c r="AK10">
-        <v>0.3791130483964922</v>
+        <v>0.001202474196200091</v>
       </c>
       <c r="AL10">
-        <v>0.001187839010041033</v>
+        <v>2.56894487010916E-05</v>
       </c>
       <c r="AM10">
-        <v>2.537678514020011E-05</v>
+        <v>0.001208645218730392</v>
       </c>
       <c r="AN10">
-        <v>0.001190813506301221</v>
+        <v>2.582128534858592E-05</v>
       </c>
       <c r="AO10">
-        <v>2.544033175877136E-05</v>
+        <v>0.1146</v>
       </c>
       <c r="AP10">
-        <v>0.1132</v>
+        <v>0.0053</v>
       </c>
       <c r="AQ10">
-        <v>0.0041</v>
+        <v>4.62478184991274</v>
       </c>
       <c r="AR10">
-        <v>3.621908127208481</v>
+        <v>1.481169710778153E-05</v>
       </c>
       <c r="AS10">
-        <v>1.485973857597886E-05</v>
+        <v>3.698575134213195E-08</v>
       </c>
       <c r="AT10">
-        <v>3.710571394897759E-08</v>
+        <v>8</v>
       </c>
       <c r="AU10">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV10">
-        <v>0.375</v>
+        <v>0.104</v>
       </c>
       <c r="AW10">
-        <v>0.1125</v>
+        <v>0.0060902994</v>
       </c>
       <c r="AX10">
-        <v>0.0024970861</v>
+        <v>0.006164045001151234</v>
       </c>
       <c r="AY10">
-        <v>0.002485978377922835</v>
-      </c>
-      <c r="AZ10">
-        <v>2.219632088888889</v>
-      </c>
-      <c r="BA10" t="s">
+        <v>5.856057115384615</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>29</v>
       </c>
+      <c r="BA10">
+        <v>83.5</v>
+      </c>
       <c r="BB10">
-        <v>83.5</v>
+        <v>145.232598259485</v>
       </c>
       <c r="BC10">
-        <v>145.2360873039804</v>
+        <v>0.3792327391359274</v>
       </c>
       <c r="BD10">
-        <v>0.3792349950813442</v>
+        <v>46</v>
       </c>
       <c r="BE10">
-        <v>54.5</v>
+        <v>3.082022500575617</v>
       </c>
       <c r="BF10">
-        <v>1.242989188961417</v>
-      </c>
-      <c r="BG10">
-        <v>1104.879279076815</v>
+        <v>5.926966347260803</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1">
+    <row r="11" spans="1:58" s="4" customFormat="1">
       <c r="A11" s="4">
         <v>10815</v>
       </c>
@@ -3770,10 +3733,10 @@
         <v>0.001369559056425418</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.54823824316198</v>
+        <v>10.22012575559913</v>
       </c>
       <c r="R11" s="4">
-        <v>0.09718124234229489</v>
+        <v>0.001021883800568808</v>
       </c>
       <c r="S11" s="4">
         <v>1.00070464735957</v>
@@ -3791,112 +3754,109 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0.9495096631476283</v>
+        <v>0.9469937115146677</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.003940845703745954</v>
+        <v>0.003930403495974505</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002318485310555446</v>
+        <v>0.0002312341932420937</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.622643381018397E-07</v>
+        <v>9.597145899247003E-07</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.85</v>
+        <v>222.8764989630502</v>
       </c>
       <c r="AD11" s="4">
-        <v>223.4607069138011</v>
+        <v>0.5469314400165655</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.5483650666988755</v>
+        <v>10.16084894480664</v>
       </c>
       <c r="AF11" s="4">
-        <v>10.1874827476865</v>
+        <v>0.02493438191567796</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.02499974037307463</v>
+        <v>43941.80982640664</v>
       </c>
       <c r="AH11" s="4">
-        <v>43940.25142754022</v>
+        <v>211.8696100379835</v>
       </c>
       <c r="AI11" s="4">
-        <v>211.8620960698193</v>
+        <v>0.7046473595699876</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0.7046473595699876</v>
+        <v>1.929450337261307</v>
       </c>
       <c r="AK11" s="4">
-        <v>1.929450337261307</v>
+        <v>0.9941999920343429</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.00244175772607275</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.002448158106032126</v>
+        <v>0.9941999920343429</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.00244175772607275</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.002448158106032126</v>
-      </c>
-      <c r="AP11" s="4">
-        <v>597.8621000000001</v>
+        <v>545.198</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>2.262537651412079E-05</v>
       </c>
       <c r="AS11" s="4">
-        <v>2.268548710650899E-05</v>
+        <v>9.39316277310498E-08</v>
       </c>
       <c r="AT11" s="4">
-        <v>9.418118317086215E-08</v>
+        <v>8</v>
       </c>
       <c r="AU11" s="4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="AW11" s="4">
-        <v>597.8603000000001</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY11" s="4">
-        <v>95.15065789542476</v>
+        <v>545.1783</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>58.40674049930108</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BC11" s="4">
-        <v>3.817801622193539</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>119</v>
+      <c r="BB11" s="4">
+        <v>3.289644909756741</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>545120.3</v>
       </c>
       <c r="BE11" s="4">
-        <v>597802.3</v>
+        <v>29203.37024965054</v>
       </c>
       <c r="BF11" s="4">
-        <v>47575.32894771238</v>
-      </c>
-      <c r="BG11" s="4">
-        <v>7957.599617789035</v>
+        <v>10.71332818993366</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:58">
       <c r="A12">
         <v>10993</v>
       </c>
@@ -3946,10 +3906,10 @@
         <v>0.000175883451104777</v>
       </c>
       <c r="Q12">
-        <v>2.359596720214717</v>
+        <v>2.040633351441099</v>
       </c>
       <c r="R12">
-        <v>0.00844232571715587</v>
+        <v>0.0001312338074279276</v>
       </c>
       <c r="S12">
         <v>1.146960467703163</v>
@@ -3967,115 +3927,112 @@
         <v>0.003</v>
       </c>
       <c r="X12">
-        <v>0.06670335028671695</v>
+        <v>0.06643871873194153</v>
       </c>
       <c r="Y12">
-        <v>0.0002422363215640647</v>
+        <v>0.0002412752997544699</v>
       </c>
       <c r="Z12">
-        <v>1.628743169310356E-05</v>
+        <v>1.622281472328544E-05</v>
       </c>
       <c r="AA12">
-        <v>5.914856636292595E-08</v>
+        <v>5.891390682915326E-08</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
       </c>
       <c r="AC12">
-        <v>0.85</v>
+        <v>0.06867324615603854</v>
       </c>
       <c r="AD12">
-        <v>0.0679031344882874</v>
+        <v>0.001554011354629662</v>
       </c>
       <c r="AE12">
-        <v>0.001536584447602451</v>
+        <v>0.003130785363138321</v>
       </c>
       <c r="AF12">
-        <v>0.003095676285406668</v>
+        <v>7.084674564779532E-05</v>
       </c>
       <c r="AG12">
-        <v>7.005226004387333E-05</v>
+        <v>192.9865696268197</v>
       </c>
       <c r="AH12">
-        <v>190.0653426357847</v>
+        <v>4.422984055694778</v>
       </c>
       <c r="AI12">
-        <v>4.356033591580113</v>
+        <v>145.9144393217995</v>
       </c>
       <c r="AJ12">
-        <v>145.9144393217995</v>
+        <v>0.4876883458809652</v>
       </c>
       <c r="AK12">
-        <v>0.4876883458809652</v>
+        <v>0.001534222382931924</v>
       </c>
       <c r="AL12">
-        <v>0.001517017392281909</v>
+        <v>3.471815830972342E-05</v>
       </c>
       <c r="AM12">
-        <v>3.432882388483839E-05</v>
+        <v>0.001543690821823429</v>
       </c>
       <c r="AN12">
-        <v>0.001522389152914374</v>
+        <v>3.493242109459623E-05</v>
       </c>
       <c r="AO12">
-        <v>3.445038229652278E-05</v>
+        <v>0.1462</v>
       </c>
       <c r="AP12">
-        <v>0.1445</v>
+        <v>0.0051</v>
       </c>
       <c r="AQ12">
-        <v>0.0056</v>
+        <v>3.488372093023257</v>
       </c>
       <c r="AR12">
-        <v>3.875432525951557</v>
+        <v>7.949891984186606E-06</v>
       </c>
       <c r="AS12">
-        <v>7.981557138425357E-06</v>
+        <v>2.887492935027594E-08</v>
       </c>
       <c r="AT12">
-        <v>2.898994086154279E-08</v>
+        <v>8</v>
       </c>
       <c r="AU12">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV12">
-        <v>0.375</v>
+        <v>0.1411</v>
       </c>
       <c r="AW12">
-        <v>0.1446</v>
+        <v>0.004549425</v>
       </c>
       <c r="AX12">
-        <v>0.0033411831</v>
+        <v>0.004505119180382099</v>
       </c>
       <c r="AY12">
-        <v>0.003300004180780491</v>
-      </c>
-      <c r="AZ12">
-        <v>2.310638381742739</v>
-      </c>
-      <c r="BA12" t="s">
+        <v>3.22425584691708</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>30</v>
       </c>
+      <c r="BA12">
+        <v>100</v>
+      </c>
       <c r="BB12">
-        <v>100</v>
+        <v>145.9726402809931</v>
       </c>
       <c r="BC12">
-        <v>145.9740842567913</v>
+        <v>0.4878864806713097</v>
       </c>
       <c r="BD12">
-        <v>0.4878896438627063</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="BE12">
-        <v>86.59999999999999</v>
+        <v>2.25255959019105</v>
       </c>
       <c r="BF12">
-        <v>1.650002090390246</v>
-      </c>
-      <c r="BG12">
-        <v>1141.080283810682</v>
+        <v>3.192855549526647</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1">
+    <row r="13" spans="1:58" s="4" customFormat="1">
       <c r="A13" s="4">
         <v>10815</v>
       </c>
@@ -4125,10 +4082,10 @@
         <v>0.001565780238667443</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.39473298708381</v>
+        <v>10.22078071855752</v>
       </c>
       <c r="R13" s="4">
-        <v>0.08797657437095568</v>
+        <v>0.001168292417649501</v>
       </c>
       <c r="S13" s="4">
         <v>1.00112101840651</v>
@@ -4146,109 +4103,106 @@
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.9460097571967889</v>
+        <v>0.9435030793968748</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.003905245893711661</v>
+        <v>0.003894898016102048</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002309939341145881</v>
+        <v>0.0002303818607589436</v>
       </c>
       <c r="AA13" s="4">
-        <v>9.535716791614916E-07</v>
+        <v>9.510449642512102E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>0.85</v>
+        <v>222.7411888959962</v>
       </c>
       <c r="AD13" s="4">
-        <v>223.3250373579986</v>
+        <v>0.5821115409793647</v>
       </c>
       <c r="AE13" s="4">
-        <v>0.5836373698105709</v>
+        <v>10.15468021387967</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.18129762781369</v>
+        <v>0.02653822841097538</v>
       </c>
       <c r="AG13" s="4">
-        <v>0.02660779032684201</v>
+        <v>44077.60307355473</v>
       </c>
       <c r="AH13" s="4">
-        <v>44076.03890915638</v>
+        <v>215.3553534630865</v>
       </c>
       <c r="AI13" s="4">
-        <v>215.3477112331694</v>
+        <v>1.121018406509577</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.121018406509577</v>
+        <v>1.506192629674534</v>
       </c>
       <c r="AK13" s="4">
-        <v>1.506192629674534</v>
+        <v>0.9935327342892867</v>
       </c>
       <c r="AL13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.00259897960194146</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.002605792038612424</v>
+        <v>0.9935327342892867</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.00259897960194146</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.002605792038612424</v>
-      </c>
-      <c r="AP13" s="4">
-        <v>569.3471</v>
+        <v>526.8188</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>2.254053453476868E-05</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.260041972089083E-05</v>
+        <v>9.308579324971961E-08</v>
       </c>
       <c r="AT13" s="4">
-        <v>9.333310149547077E-08</v>
+        <v>8</v>
       </c>
       <c r="AU13" s="4">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="4">
-        <v>0.375</v>
+        <v>526.7992</v>
       </c>
       <c r="AW13" s="4">
-        <v>569.3452</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>119</v>
+        <v>48.3631223366</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>45.21647771575007</v>
       </c>
       <c r="AY13" s="4">
-        <v>67.04159439869828</v>
+        <v>9.180561082211209</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA13" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="BB13" s="4">
+        <v>4.968560412105498</v>
+      </c>
       <c r="BC13" s="4">
-        <v>5.603424352859182</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>119</v>
+        <v>6.710180727175612</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>526741.2000000001</v>
       </c>
       <c r="BE13" s="4">
-        <v>569287.2</v>
+        <v>22608.23885787503</v>
       </c>
       <c r="BF13" s="4">
-        <v>33520.79719934914</v>
-      </c>
-      <c r="BG13" s="4">
-        <v>5887.605129427478</v>
+        <v>8.58324722508122</v>
       </c>
     </row>
   </sheetData>
@@ -4272,15 +4226,15 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
@@ -4293,52 +4247,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -4346,55 +4300,55 @@
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1">
@@ -4411,22 +4365,22 @@
         <v>0.001458381816529189</v>
       </c>
       <c r="E3" s="4">
-        <v>0.9308953049971663</v>
+        <v>0.9284286765323656</v>
       </c>
       <c r="F3" s="4">
-        <v>0.004344705994292121</v>
+        <v>0.004333193662648399</v>
       </c>
       <c r="G3" s="4">
-        <v>1.002044224632932</v>
+        <v>0.9994243199508722</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003417633598299903</v>
+        <v>0.003408697990423883</v>
       </c>
       <c r="I3" s="4">
-        <v>45066.6794231648</v>
+        <v>45068.26898406901</v>
       </c>
       <c r="J3" s="4">
-        <v>260.4696265987955</v>
+        <v>260.4788137042241</v>
       </c>
       <c r="K3" s="4">
         <v>0.1143667343042054</v>
@@ -4434,23 +4388,23 @@
       <c r="L3" s="4">
         <v>1.672089322806292</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>118</v>
+      <c r="M3" s="4">
+        <v>787.196</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>118</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.1143667343042054</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1.672089322806292</v>
+        <v>116</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4467,22 +4421,22 @@
         <v>0.0001619437037934368</v>
       </c>
       <c r="E4">
-        <v>0.1648649603714585</v>
+        <v>0.164348706667991</v>
       </c>
       <c r="F4">
-        <v>0.0003275915424590783</v>
+        <v>0.0003265657311123974</v>
       </c>
       <c r="G4">
-        <v>0.001275152828087398</v>
+        <v>0.001293671958225894</v>
       </c>
       <c r="H4">
-        <v>2.701597863848178E-05</v>
+        <v>2.740833351015257E-05</v>
       </c>
       <c r="I4">
-        <v>0.001518292136678262</v>
+        <v>69.26810743394481</v>
       </c>
       <c r="J4">
-        <v>3.230829199979801E-05</v>
+        <v>1.473981315707428</v>
       </c>
       <c r="K4">
         <v>145.9064109889343</v>
@@ -4491,22 +4445,22 @@
         <v>0.5483315951927344</v>
       </c>
       <c r="M4">
-        <v>0.1218</v>
+        <v>0.1232</v>
       </c>
       <c r="N4">
-        <v>0.0032</v>
+        <v>0.0041</v>
       </c>
       <c r="O4">
-        <v>0.1202</v>
+        <v>0.1091</v>
       </c>
       <c r="P4">
-        <v>0.0026814172</v>
+        <v>0.0076270048</v>
       </c>
       <c r="Q4">
-        <v>145.9064109889343</v>
+        <v>145.9514080700588</v>
       </c>
       <c r="R4">
-        <v>0.5483315951927344</v>
+        <v>0.5485097219309453</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -4526,22 +4480,22 @@
         <v>0.001718799455033931</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9350241754877243</v>
+        <v>0.9325466065987698</v>
       </c>
       <c r="F5" s="4">
-        <v>0.003866776386707385</v>
+        <v>0.003856530443204103</v>
       </c>
       <c r="G5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.9984543410506036</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002858641065203783</v>
+        <v>0.002851167071869993</v>
       </c>
       <c r="I5" s="4">
-        <v>44825.30040817269</v>
+        <v>44826.88294990959</v>
       </c>
       <c r="J5" s="4">
-        <v>225.203410377069</v>
+        <v>225.2113611056301</v>
       </c>
       <c r="K5" s="4">
         <v>0.07524374222045438</v>
@@ -4549,23 +4503,23 @@
       <c r="L5" s="4">
         <v>1.847658475256469</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>118</v>
+      <c r="M5" s="4">
+        <v>699.4166</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="O5" s="4">
+        <v>699.3971</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.07524374222045438</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1.847658475256469</v>
+        <v>0.5431789176196203</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4582,22 +4536,22 @@
         <v>0.0001723385360822908</v>
       </c>
       <c r="E6">
-        <v>0.08206535589386277</v>
+        <v>0.08175910603621016</v>
       </c>
       <c r="F6">
-        <v>0.0002542747168099036</v>
+        <v>0.0002533258194953242</v>
       </c>
       <c r="G6">
-        <v>0.001202215160090243</v>
+        <v>0.001222639286764136</v>
       </c>
       <c r="H6">
-        <v>2.40145396881105E-05</v>
+        <v>2.442251657684677E-05</v>
       </c>
       <c r="I6">
-        <v>0.002908097732725629</v>
+        <v>131.9838503807886</v>
       </c>
       <c r="J6">
-        <v>5.878438272459443E-05</v>
+        <v>2.667925870214171</v>
       </c>
       <c r="K6">
         <v>144.4746150985909</v>
@@ -4606,22 +4560,22 @@
         <v>0.4966198109484972</v>
       </c>
       <c r="M6">
-        <v>0.1147</v>
+        <v>0.1163</v>
       </c>
       <c r="N6">
-        <v>0.0052</v>
+        <v>0.0044</v>
       </c>
       <c r="O6">
-        <v>0.1141</v>
+        <v>0.1097</v>
       </c>
       <c r="P6">
-        <v>0.0023327735</v>
+        <v>0.0042628134</v>
       </c>
       <c r="Q6">
-        <v>144.4746150985909</v>
+        <v>144.5194156912648</v>
       </c>
       <c r="R6">
-        <v>0.4966198109484972</v>
+        <v>0.4967768607109589</v>
       </c>
       <c r="S6">
         <v>47.5</v>
@@ -4641,22 +4595,22 @@
         <v>0.001771577620583448</v>
       </c>
       <c r="E7" s="4">
-        <v>0.9446978553457307</v>
+        <v>0.9421946537417234</v>
       </c>
       <c r="F7" s="4">
-        <v>0.00359360536525734</v>
+        <v>0.003584083253331734</v>
       </c>
       <c r="G7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.9974478616314266</v>
       </c>
       <c r="H7" s="4">
-        <v>0.002213653272754594</v>
+        <v>0.002207865684017097</v>
       </c>
       <c r="I7" s="4">
-        <v>44328.29804948058</v>
+        <v>44329.86438603393</v>
       </c>
       <c r="J7" s="4">
-        <v>195.0099897970511</v>
+        <v>195.0168804580674</v>
       </c>
       <c r="K7" s="4">
         <v>2.514640426850789</v>
@@ -4665,22 +4619,22 @@
         <v>1.802158364614082</v>
       </c>
       <c r="M7" s="4">
-        <v>617.4591</v>
+        <v>557.1646</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O7" s="4">
-        <v>617.4573</v>
+        <v>557.1452</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="4">
-        <v>2.514640426850789</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1.802158364614082</v>
+        <v>12.14344236039566</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4697,22 +4651,22 @@
         <v>0.0001972308851365691</v>
       </c>
       <c r="E8">
-        <v>0.06829703125084907</v>
+        <v>0.06804359221735705</v>
       </c>
       <c r="F8">
-        <v>0.0002631033824980844</v>
+        <v>0.0002621270491824548</v>
       </c>
       <c r="G8">
-        <v>0.001360027298009095</v>
+        <v>0.00137769211062768</v>
       </c>
       <c r="H8">
-        <v>2.633488345141829E-05</v>
+        <v>2.667693598388037E-05</v>
       </c>
       <c r="I8">
-        <v>0.003791374615280947</v>
+        <v>169.8979652113942</v>
       </c>
       <c r="J8">
-        <v>7.485256531923752E-05</v>
+        <v>3.354271162584406</v>
       </c>
       <c r="K8">
         <v>144.5202595351331</v>
@@ -4721,22 +4675,22 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="M8">
-        <v>0.1295</v>
+        <v>0.1309</v>
       </c>
       <c r="N8">
         <v>0.0026</v>
       </c>
       <c r="O8">
-        <v>0.1293</v>
+        <v>0.1254</v>
       </c>
       <c r="P8">
-        <v>0.0025250226</v>
+        <v>0.0040577034</v>
       </c>
       <c r="Q8">
-        <v>144.5202595351331</v>
+        <v>144.5714891971889</v>
       </c>
       <c r="R8">
-        <v>0.5464885728009569</v>
+        <v>0.5466848067060551</v>
       </c>
       <c r="S8">
         <v>70</v>
@@ -4756,22 +4710,22 @@
         <v>0.001644691398066958</v>
       </c>
       <c r="E9" s="4">
-        <v>0.9488419428341529</v>
+        <v>0.9463277604849375</v>
       </c>
       <c r="F9" s="4">
-        <v>0.004077997428984894</v>
+        <v>0.004067191805104615</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.9955885374122334</v>
       </c>
       <c r="H9" s="4">
-        <v>0.002324080483473824</v>
+        <v>0.002318004343065791</v>
       </c>
       <c r="I9" s="4">
-        <v>44048.70492492595</v>
+        <v>44050.2644204709</v>
       </c>
       <c r="J9" s="4">
-        <v>215.2451075129761</v>
+        <v>215.2527280272866</v>
       </c>
       <c r="K9" s="4">
         <v>0.6979624794027917</v>
@@ -4780,22 +4734,22 @@
         <v>1.333396989833812</v>
       </c>
       <c r="M9" s="4">
-        <v>642.115</v>
+        <v>570.2877</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O9" s="4">
-        <v>642.1132</v>
+        <v>570.268</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.6979624794027917</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1.333396989833812</v>
+        <v>3.497885056565243</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4812,22 +4766,22 @@
         <v>0.0001451909346112916</v>
       </c>
       <c r="E10">
-        <v>0.1295900854374632</v>
+        <v>0.1291711212722189</v>
       </c>
       <c r="F10">
-        <v>0.0003235275340622288</v>
+        <v>0.0003224815709950363</v>
       </c>
       <c r="G10">
-        <v>0.001190813506301221</v>
+        <v>0.001208645218730392</v>
       </c>
       <c r="H10">
-        <v>2.544033175877136E-05</v>
+        <v>2.582128534858592E-05</v>
       </c>
       <c r="I10">
-        <v>0.001816972038717535</v>
+        <v>81.18409304821357</v>
       </c>
       <c r="J10">
-        <v>3.908150935315588E-05</v>
+        <v>1.746200174896844</v>
       </c>
       <c r="K10">
         <v>145.1899155599503</v>
@@ -4836,22 +4790,22 @@
         <v>0.3791130483964922</v>
       </c>
       <c r="M10">
-        <v>0.1132</v>
+        <v>0.1146</v>
       </c>
       <c r="N10">
-        <v>0.0041</v>
+        <v>0.0053</v>
       </c>
       <c r="O10">
-        <v>0.1125</v>
+        <v>0.104</v>
       </c>
       <c r="P10">
-        <v>0.0024970861</v>
+        <v>0.0060902994</v>
       </c>
       <c r="Q10">
-        <v>145.1899155599503</v>
+        <v>145.232598259485</v>
       </c>
       <c r="R10">
-        <v>0.3791130483964922</v>
+        <v>0.3792327391359274</v>
       </c>
       <c r="S10">
         <v>83.5</v>
@@ -4871,22 +4825,22 @@
         <v>0.001369559056425418</v>
       </c>
       <c r="E11" s="4">
-        <v>0.9495096631476283</v>
+        <v>0.9469937115146677</v>
       </c>
       <c r="F11" s="4">
-        <v>0.003940845703745954</v>
+        <v>0.003930403495974505</v>
       </c>
       <c r="G11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.9941999920343429</v>
       </c>
       <c r="H11" s="4">
-        <v>0.002448158106032126</v>
+        <v>0.00244175772607275</v>
       </c>
       <c r="I11" s="4">
-        <v>43940.25142754022</v>
+        <v>43941.80982640664</v>
       </c>
       <c r="J11" s="4">
-        <v>211.8620960698193</v>
+        <v>211.8696100379835</v>
       </c>
       <c r="K11" s="4">
         <v>0.7046473595699876</v>
@@ -4895,22 +4849,22 @@
         <v>1.929450337261307</v>
       </c>
       <c r="M11" s="4">
-        <v>597.8621000000001</v>
+        <v>545.198</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O11" s="4">
-        <v>597.8603000000001</v>
+        <v>545.1783</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7046473595699876</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1.929450337261307</v>
+        <v>3.289644909756741</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4927,22 +4881,22 @@
         <v>0.000175883451104777</v>
       </c>
       <c r="E12">
-        <v>0.06670335028671695</v>
+        <v>0.06643871873194153</v>
       </c>
       <c r="F12">
-        <v>0.0002422363215640647</v>
+        <v>0.0002412752997544699</v>
       </c>
       <c r="G12">
-        <v>0.001522389152914374</v>
+        <v>0.001543690821823429</v>
       </c>
       <c r="H12">
-        <v>3.445038229652278E-05</v>
+        <v>3.493242109459623E-05</v>
       </c>
       <c r="I12">
-        <v>0.004318867380315865</v>
+        <v>192.9865696268197</v>
       </c>
       <c r="J12">
-        <v>9.898244006686914E-05</v>
+        <v>4.422984055694778</v>
       </c>
       <c r="K12">
         <v>145.9144393217995</v>
@@ -4951,22 +4905,22 @@
         <v>0.4876883458809652</v>
       </c>
       <c r="M12">
-        <v>0.1445</v>
+        <v>0.1462</v>
       </c>
       <c r="N12">
-        <v>0.0056</v>
+        <v>0.0051</v>
       </c>
       <c r="O12">
-        <v>0.1446</v>
+        <v>0.1411</v>
       </c>
       <c r="P12">
-        <v>0.0033411831</v>
+        <v>0.004549425</v>
       </c>
       <c r="Q12">
-        <v>145.9144393217995</v>
+        <v>145.9726402809931</v>
       </c>
       <c r="R12">
-        <v>0.4876883458809652</v>
+        <v>0.4878864806713097</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4986,22 +4940,22 @@
         <v>0.001565780238667443</v>
       </c>
       <c r="E13" s="4">
-        <v>0.9460097571967889</v>
+        <v>0.9435030793968748</v>
       </c>
       <c r="F13" s="4">
-        <v>0.003905245893711661</v>
+        <v>0.003894898016102048</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.9935327342892867</v>
       </c>
       <c r="H13" s="4">
-        <v>0.002605792038612424</v>
+        <v>0.00259897960194146</v>
       </c>
       <c r="I13" s="4">
-        <v>44076.03890915638</v>
+        <v>44077.60307355473</v>
       </c>
       <c r="J13" s="4">
-        <v>215.3477112331694</v>
+        <v>215.3553534630865</v>
       </c>
       <c r="K13" s="4">
         <v>1.121018406509577</v>
@@ -5010,22 +4964,22 @@
         <v>1.506192629674534</v>
       </c>
       <c r="M13" s="4">
-        <v>569.3471</v>
+        <v>526.8188</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O13" s="4">
-        <v>569.3452</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>119</v>
+        <v>526.7992</v>
+      </c>
+      <c r="P13" s="4">
+        <v>48.3631223366</v>
       </c>
       <c r="Q13" s="4">
-        <v>1.121018406509577</v>
+        <v>4.968560412105498</v>
       </c>
       <c r="R13" s="4">
-        <v>1.506192629674534</v>
+        <v>6.710180727175612</v>
       </c>
     </row>
   </sheetData>

--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="135">
   <si>
     <t>Lab. #</t>
   </si>
@@ -366,13 +366,13 @@
     <t>(ka)</t>
   </si>
   <si>
+    <t>Out of range</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
     <t>Akt. Ver. initial</t>
-  </si>
-  <si>
-    <t>Out of range</t>
   </si>
   <si>
     <t>Taylor 1. Ord.</t>
@@ -1890,9 +1890,9 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
@@ -1906,7 +1906,7 @@
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
     <col min="22" max="22" width="23.7109375" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
@@ -1935,14 +1935,14 @@
     <col min="46" max="46" width="18.7109375" customWidth="1"/>
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
-    <col min="49" max="49" width="14.7109375" customWidth="1"/>
-    <col min="50" max="50" width="22.7109375" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="21.7109375" customWidth="1"/>
+    <col min="51" max="51" width="18.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
-    <col min="55" max="55" width="20.7109375" customWidth="1"/>
-    <col min="56" max="56" width="18.7109375" customWidth="1"/>
+    <col min="54" max="54" width="20.7109375" customWidth="1"/>
+    <col min="55" max="55" width="19.7109375" customWidth="1"/>
+    <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
   </cols>
@@ -2251,7 +2251,7 @@
         <v>102</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AU2" s="3" t="s">
         <v>102</v>
@@ -2298,19 +2298,19 @@
         <v>2.082960841733835</v>
       </c>
       <c r="D3" s="4">
-        <v>0.6365650677998222</v>
+        <v>0.01325940109442673</v>
       </c>
       <c r="E3" s="4">
         <v>2.732204386789063</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01064431016615503</v>
+        <v>0.000290824309303122</v>
       </c>
       <c r="G3" s="4">
         <v>376.7190730548629</v>
       </c>
       <c r="H3" s="4">
-        <v>0.04009914659102377</v>
+        <v>0.02654546839750248</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -2322,37 +2322,37 @@
         <v>4.78714158866439</v>
       </c>
       <c r="L3" s="4">
-        <v>10.40023165849734</v>
+        <v>10.38281220180268</v>
       </c>
       <c r="M3" s="4">
-        <v>0.06620424170825219</v>
+        <v>0.06609335553193348</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>13.70104585233061</v>
+        <v>13.70097500561748</v>
       </c>
       <c r="P3" s="4">
-        <v>0.001458381816529189</v>
+        <v>0.001458374275385301</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.2229084183414</v>
+        <v>10.2228217082537</v>
       </c>
       <c r="R3" s="4">
-        <v>0.001088158080050232</v>
+        <v>0.001088148850359553</v>
       </c>
       <c r="S3" s="4">
-        <v>1.000114366734304</v>
+        <v>0.9986140005612321</v>
       </c>
       <c r="T3" s="4">
-        <v>0.001672089322806292</v>
+        <v>0.001669580863432305</v>
       </c>
       <c r="U3" s="4">
-        <v>1.000114366734304</v>
+        <v>0.9986140005612321</v>
       </c>
       <c r="V3" s="4">
-        <v>0.001672089322806292</v>
+        <v>0.001669580863432305</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>0.004333193662648399</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002267010365437481</v>
+        <v>0.0002266647728155078</v>
       </c>
       <c r="AA3" s="4">
-        <v>1.058066731131335E-06</v>
+        <v>1.057897479834637E-06</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
@@ -2379,49 +2379,49 @@
         <v>0.7639864796420964</v>
       </c>
       <c r="AE3" s="4">
-        <v>10.2170232939209</v>
+        <v>10.22983023344805</v>
       </c>
       <c r="AF3" s="4">
-        <v>0.0348298328968497</v>
+        <v>0.03487349175430933</v>
       </c>
       <c r="AG3" s="4">
-        <v>45068.26898406901</v>
+        <v>45131.98105898243</v>
       </c>
       <c r="AH3" s="4">
-        <v>260.4788137042241</v>
+        <v>260.8470471879186</v>
       </c>
       <c r="AI3" s="4">
-        <v>0.1143667343042054</v>
+        <v>-1.385999438767938</v>
       </c>
       <c r="AJ3" s="4">
-        <v>1.672089322806292</v>
+        <v>1.669580863432305</v>
       </c>
       <c r="AK3" s="4">
-        <v>0.9994243199508722</v>
+        <v>1.000685576389217</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.003408697990423883</v>
+        <v>0.00341299970912431</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.9994243199508722</v>
+        <v>1.000685576389217</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.003408697990423883</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>787.196</v>
+        <v>0.00341299970912431</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR3" s="4">
-        <v>2.217578670048665E-05</v>
+        <v>2.217242746515897E-05</v>
       </c>
       <c r="AS3" s="4">
-        <v>1.035264937069868E-07</v>
+        <v>1.035108112935641E-07</v>
       </c>
       <c r="AT3" s="4">
         <v>8</v>
@@ -2430,34 +2430,34 @@
         <v>4</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BC3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="BE3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:58">
@@ -2471,19 +2471,19 @@
         <v>4.506651131411997</v>
       </c>
       <c r="D4">
-        <v>0.2743973420444351</v>
+        <v>0.01236613091980998</v>
       </c>
       <c r="E4">
         <v>5.1856942063239</v>
       </c>
       <c r="F4">
-        <v>0.005617505714359325</v>
+        <v>0.0002913066683694455</v>
       </c>
       <c r="G4">
         <v>715.0087028621457</v>
       </c>
       <c r="H4">
-        <v>0.04016565474144752</v>
+        <v>0.02503029404223766</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -2495,34 +2495,34 @@
         <v>0.4949480523225687</v>
       </c>
       <c r="L4">
-        <v>2.494533049558064</v>
+        <v>2.490354930083709</v>
       </c>
       <c r="M4">
-        <v>0.006844932384407318</v>
+        <v>0.006833467735622248</v>
       </c>
       <c r="N4">
         <v>0.005</v>
       </c>
       <c r="O4">
-        <v>2.882840036628364</v>
+        <v>2.88282512949779</v>
       </c>
       <c r="P4">
-        <v>0.0001619437037934368</v>
+        <v>0.000161942866384525</v>
       </c>
       <c r="Q4">
-        <v>2.151004382936691</v>
+        <v>2.15098613805559</v>
       </c>
       <c r="R4">
-        <v>0.0001208327941275882</v>
+        <v>0.0001208317692203497</v>
       </c>
       <c r="S4">
-        <v>1.146015048919254</v>
+        <v>1.144295803330528</v>
       </c>
       <c r="T4">
-        <v>0.0005483835799002634</v>
+        <v>0.0005475608978145764</v>
       </c>
       <c r="U4">
-        <v>1.145906410988934</v>
+        <v>1.145906410988935</v>
       </c>
       <c r="V4">
         <v>0.0005483315951927344</v>
@@ -2537,10 +2537,10 @@
         <v>0.0003265657311123974</v>
       </c>
       <c r="Z4">
-        <v>4.013019319417705E-05</v>
+        <v>4.012377385687534E-05</v>
       </c>
       <c r="AA4">
-        <v>7.973987837100867E-08</v>
+        <v>7.972712295831519E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
@@ -2552,34 +2552,34 @@
         <v>0.001291801527102739</v>
       </c>
       <c r="AE4">
-        <v>0.002779742533519217</v>
+        <v>0.002783226913803348</v>
       </c>
       <c r="AF4">
-        <v>5.889270625045821E-05</v>
+        <v>5.896652768609975E-05</v>
       </c>
       <c r="AG4">
-        <v>69.26810743394481</v>
+        <v>69.36603031737089</v>
       </c>
       <c r="AH4">
-        <v>1.473981315707428</v>
+        <v>1.476065052450025</v>
       </c>
       <c r="AI4">
-        <v>145.9064109889343</v>
+        <v>145.9064109889345</v>
       </c>
       <c r="AJ4">
         <v>0.5483315951927344</v>
       </c>
       <c r="AK4">
-        <v>0.001292299799837754</v>
+        <v>0.001293930660250224</v>
       </c>
       <c r="AL4">
-        <v>2.737926232677275E-05</v>
+        <v>2.741381449110565E-05</v>
       </c>
       <c r="AM4">
-        <v>0.001293671958225894</v>
+        <v>0.001293671958341789</v>
       </c>
       <c r="AN4">
-        <v>2.740833351015257E-05</v>
+        <v>2.740833351260798E-05</v>
       </c>
       <c r="AO4">
         <v>0.1232</v>
@@ -2591,10 +2591,10 @@
         <v>3.327922077922078</v>
       </c>
       <c r="AR4">
-        <v>1.865649066664787E-05</v>
+        <v>1.865366454343853E-05</v>
       </c>
       <c r="AS4">
-        <v>3.708580901895586E-08</v>
+        <v>3.70801911850621E-08</v>
       </c>
       <c r="AT4">
         <v>8</v>
@@ -2603,16 +2603,16 @@
         <v>4</v>
       </c>
       <c r="AV4">
-        <v>0.1091</v>
+        <v>0.109</v>
       </c>
       <c r="AW4">
-        <v>0.0076270048</v>
+        <v>0.0075606808</v>
       </c>
       <c r="AX4">
-        <v>0.007577624118811419</v>
+        <v>0.007566038866011442</v>
       </c>
       <c r="AY4">
-        <v>6.990838496791933</v>
+        <v>6.936404403669724</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2621,19 +2621,19 @@
         <v>30</v>
       </c>
       <c r="BB4">
-        <v>145.9514080700588</v>
+        <v>145.9512993669503</v>
       </c>
       <c r="BC4">
-        <v>0.5485097219309453</v>
+        <v>0.5485091305799562</v>
       </c>
       <c r="BD4">
-        <v>51.10000000000001</v>
+        <v>51</v>
       </c>
       <c r="BE4">
-        <v>3.788812059405709</v>
+        <v>3.783019433005721</v>
       </c>
       <c r="BF4">
-        <v>6.945576644190118</v>
+        <v>6.941320060560956</v>
       </c>
     </row>
     <row r="5" spans="1:58" s="4" customFormat="1">
@@ -2647,19 +2647,19 @@
         <v>2.071877261004955</v>
       </c>
       <c r="D5" s="4">
-        <v>0.8536139860979418</v>
+        <v>0.01768583407472125</v>
       </c>
       <c r="E5" s="4">
         <v>2.732275900435217</v>
       </c>
       <c r="F5" s="4">
-        <v>0.01254469539256384</v>
+        <v>0.0003427556889940289</v>
       </c>
       <c r="G5" s="4">
         <v>376.7289334279081</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0472594971541857</v>
+        <v>0.02478399300500646</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -2671,37 +2671,37 @@
         <v>6.385250074749045</v>
       </c>
       <c r="L5" s="4">
-        <v>10.34489129641446</v>
+        <v>10.3275645298706</v>
       </c>
       <c r="M5" s="4">
-        <v>0.08830543895282254</v>
+        <v>0.0881575352502656</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>13.70140446816101</v>
+        <v>13.70133361959352</v>
       </c>
       <c r="P5" s="4">
-        <v>0.001718799455033931</v>
+        <v>0.001718790567296949</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.22317599622057</v>
+        <v>10.2230892838633</v>
       </c>
       <c r="R5" s="4">
-        <v>0.001282466288171574</v>
+        <v>0.001282455410370487</v>
       </c>
       <c r="S5" s="4">
-        <v>1.00007524374222</v>
+        <v>0.9985749362612498</v>
       </c>
       <c r="T5" s="4">
-        <v>0.001847658475256469</v>
+        <v>0.001844886627987924</v>
       </c>
       <c r="U5" s="4">
-        <v>1.00007524374222</v>
+        <v>0.9985749362612498</v>
       </c>
       <c r="V5" s="4">
-        <v>0.001847658475256469</v>
+        <v>0.001844886627987924</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0.003856530443204103</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002277065408307927</v>
+        <v>0.0002276701162592905</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.416764809573525E-07</v>
+        <v>9.415258477687429E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -2728,49 +2728,49 @@
         <v>0.6387388207707742</v>
       </c>
       <c r="AE5" s="4">
-        <v>10.20737445275075</v>
+        <v>10.22016929754916</v>
       </c>
       <c r="AF5" s="4">
-        <v>0.02911984306659327</v>
+        <v>0.02915634450722481</v>
       </c>
       <c r="AG5" s="4">
-        <v>44826.88294990959</v>
+        <v>44890.25378240482</v>
       </c>
       <c r="AH5" s="4">
-        <v>225.2113611056301</v>
+        <v>225.5297377247805</v>
       </c>
       <c r="AI5" s="4">
-        <v>0.07524374222045438</v>
+        <v>-1.425063738750176</v>
       </c>
       <c r="AJ5" s="4">
-        <v>1.847658475256469</v>
+        <v>1.844886627987925</v>
       </c>
       <c r="AK5" s="4">
-        <v>0.9984543410506036</v>
+        <v>0.9997143733921263</v>
       </c>
       <c r="AL5" s="4">
-        <v>0.002851167071869993</v>
+        <v>0.002854765196064496</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.9984543410506036</v>
+        <v>0.9997143733921263</v>
       </c>
       <c r="AN5" s="4">
-        <v>0.002851167071869993</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>699.4166</v>
+        <v>0.002854765196064496</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR5" s="4">
-        <v>2.227356165197333E-05</v>
+        <v>2.227018760548808E-05</v>
       </c>
       <c r="AS5" s="4">
-        <v>9.215430044876766E-08</v>
+        <v>9.214034071936344E-08</v>
       </c>
       <c r="AT5" s="4">
         <v>8</v>
@@ -2778,35 +2778,35 @@
       <c r="AU5" s="4">
         <v>4</v>
       </c>
-      <c r="AV5" s="4">
-        <v>699.3971</v>
+      <c r="AV5" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX5" s="4">
-        <v>256.5464924142581</v>
+        <v>117</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BB5" s="4">
-        <v>0.5431789176196203</v>
+      <c r="BB5" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="BC5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BD5" s="4">
-        <v>699339.1</v>
-      </c>
-      <c r="BE5" s="4">
-        <v>128273.2462071291</v>
-      </c>
-      <c r="BF5" s="4">
-        <v>36.68109181668871</v>
+      <c r="BE5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:58">
@@ -2820,19 +2820,19 @@
         <v>4.082557419361147</v>
       </c>
       <c r="D6">
-        <v>0.2854149612861608</v>
+        <v>0.0116522296779549</v>
       </c>
       <c r="E6">
         <v>4.708247072845213</v>
       </c>
       <c r="F6">
-        <v>0.005954548962270751</v>
+        <v>0.0002803548772172477</v>
       </c>
       <c r="G6">
         <v>649.1778146509708</v>
       </c>
       <c r="H6">
-        <v>0.03865561082559132</v>
+        <v>0.01676848724370356</v>
       </c>
       <c r="I6">
         <v>0.3</v>
@@ -2844,37 +2844,37 @@
         <v>0.515698033670833</v>
       </c>
       <c r="L6">
-        <v>2.498781508865185</v>
+        <v>2.494596273601937</v>
       </c>
       <c r="M6">
-        <v>0.007131896276153311</v>
+        <v>0.007119950988546977</v>
       </c>
       <c r="N6">
         <v>0.005</v>
       </c>
       <c r="O6">
-        <v>2.894233252161722</v>
+        <v>2.89421828608744</v>
       </c>
       <c r="P6">
-        <v>0.0001723385360822908</v>
+        <v>0.00017233764492007</v>
       </c>
       <c r="Q6">
-        <v>2.159505325145284</v>
+        <v>2.159487008136913</v>
       </c>
       <c r="R6">
-        <v>0.0001285888019286201</v>
+        <v>0.0001285877112333883</v>
       </c>
       <c r="S6">
-        <v>1.145956643442365</v>
+        <v>1.144237485473219</v>
       </c>
       <c r="T6">
-        <v>0.0004972629048417086</v>
+        <v>0.0004965169137167292</v>
       </c>
       <c r="U6">
         <v>1.144474615098591</v>
       </c>
       <c r="V6">
-        <v>0.0004966198109484972</v>
+        <v>0.0004966198109484973</v>
       </c>
       <c r="W6">
         <v>0.003</v>
@@ -2886,10 +2886,10 @@
         <v>0.0002533258194953242</v>
       </c>
       <c r="Z6">
-        <v>1.996370270953486E-05</v>
+        <v>1.996050926013222E-05</v>
       </c>
       <c r="AA6">
-        <v>6.185636798443117E-08</v>
+        <v>6.184647326779148E-08</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
@@ -2901,49 +2901,49 @@
         <v>0.001154479715308004</v>
       </c>
       <c r="AE6">
-        <v>0.002634886351461793</v>
+        <v>0.002638189155927764</v>
       </c>
       <c r="AF6">
-        <v>5.263226069892974E-05</v>
+        <v>5.269823472683958E-05</v>
       </c>
       <c r="AG6">
-        <v>131.9838503807886</v>
+        <v>132.1704332061861</v>
       </c>
       <c r="AH6">
-        <v>2.667925870214171</v>
+        <v>2.671697461551896</v>
       </c>
       <c r="AI6">
-        <v>144.4746150985909</v>
+        <v>144.4746150985912</v>
       </c>
       <c r="AJ6">
-        <v>0.4966198109484972</v>
+        <v>0.4966198109484973</v>
       </c>
       <c r="AK6">
-        <v>0.001220134222769062</v>
+        <v>0.001221674011460643</v>
       </c>
       <c r="AL6">
-        <v>2.437247731538343E-05</v>
+        <v>2.440323496831678E-05</v>
       </c>
       <c r="AM6">
-        <v>0.001222639286764136</v>
+        <v>0.001222639286886141</v>
       </c>
       <c r="AN6">
-        <v>2.442251657684677E-05</v>
+        <v>2.442251657928386E-05</v>
       </c>
       <c r="AO6">
-        <v>0.1163</v>
+        <v>0.1166</v>
       </c>
       <c r="AP6">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="AQ6">
-        <v>3.783319002579536</v>
+        <v>3.602058319039451</v>
       </c>
       <c r="AR6">
-        <v>9.244572114306674E-06</v>
+        <v>9.243171727785967E-06</v>
       </c>
       <c r="AS6">
-        <v>2.864905625561545E-08</v>
+        <v>2.864471643850815E-08</v>
       </c>
       <c r="AT6">
         <v>8</v>
@@ -2952,16 +2952,16 @@
         <v>4</v>
       </c>
       <c r="AV6">
-        <v>0.1097</v>
+        <v>0.1095</v>
       </c>
       <c r="AW6">
-        <v>0.0042628134</v>
+        <v>0.0042488404</v>
       </c>
       <c r="AX6">
-        <v>0.0042299295372283</v>
+        <v>0.004223580025872897</v>
       </c>
       <c r="AY6">
-        <v>3.885882771194166</v>
+        <v>3.880219543378996</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -2970,19 +2970,19 @@
         <v>47.5</v>
       </c>
       <c r="BB6">
-        <v>144.5194156912648</v>
+        <v>144.5192669028224</v>
       </c>
       <c r="BC6">
-        <v>0.4967768607109589</v>
+        <v>0.4967763202000841</v>
       </c>
       <c r="BD6">
-        <v>51.7</v>
+        <v>51.5</v>
       </c>
       <c r="BE6">
-        <v>2.11496476861415</v>
+        <v>2.111790012936448</v>
       </c>
       <c r="BF6">
-        <v>3.855906597291066</v>
+        <v>3.857150708559724</v>
       </c>
     </row>
     <row r="7" spans="1:58" s="4" customFormat="1">
@@ -2996,19 +2996,19 @@
         <v>2.105568368409784</v>
       </c>
       <c r="D7" s="4">
-        <v>0.6878737296271061</v>
+        <v>0.01448365166562899</v>
       </c>
       <c r="E7" s="4">
         <v>2.732690887221285</v>
       </c>
       <c r="F7" s="4">
-        <v>0.01292793445151222</v>
+        <v>0.0003532804866624155</v>
       </c>
       <c r="G7" s="4">
         <v>376.7861522209579</v>
       </c>
       <c r="H7" s="4">
-        <v>0.04871066678150052</v>
+        <v>0.02559830182731184</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -3020,37 +3020,37 @@
         <v>5.229142006527293</v>
       </c>
       <c r="L7" s="4">
-        <v>10.51311112792597</v>
+        <v>10.4955026082283</v>
       </c>
       <c r="M7" s="4">
-        <v>0.07231692961550673</v>
+        <v>0.0721958052343302</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>13.70348548121096</v>
+        <v>13.70341462188276</v>
       </c>
       <c r="P7" s="4">
-        <v>0.001771577620583448</v>
+        <v>0.001771568459935945</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.22472872482657</v>
+        <v>10.22464199929914</v>
       </c>
       <c r="R7" s="4">
-        <v>0.00132184622739052</v>
+        <v>0.001321835015571183</v>
       </c>
       <c r="S7" s="4">
-        <v>1.002514640426851</v>
+        <v>1.001010673376145</v>
       </c>
       <c r="T7" s="4">
-        <v>0.001802158364614082</v>
+        <v>0.001799454776365855</v>
       </c>
       <c r="U7" s="4">
-        <v>1.002514640426851</v>
+        <v>1.001010673376145</v>
       </c>
       <c r="V7" s="4">
-        <v>0.001802158364614082</v>
+        <v>0.001799454776365855</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>0.003584083253331734</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002300623731561144</v>
+        <v>0.000230025571739122</v>
       </c>
       <c r="AA7" s="4">
-        <v>8.751511119024211E-07</v>
+        <v>8.750111202968463E-07</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
@@ -3077,49 +3077,49 @@
         <v>0.4943297527625418</v>
       </c>
       <c r="AE7" s="4">
-        <v>10.19863380233968</v>
+        <v>10.21141769081764</v>
       </c>
       <c r="AF7" s="4">
-        <v>0.02253629238664822</v>
+        <v>0.02256454141040585</v>
       </c>
       <c r="AG7" s="4">
-        <v>44329.86438603393</v>
+        <v>44392.53259371821</v>
       </c>
       <c r="AH7" s="4">
-        <v>195.0168804580674</v>
+        <v>195.2925717676564</v>
       </c>
       <c r="AI7" s="4">
-        <v>2.514640426850789</v>
+        <v>1.010673376144799</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1.802158364614082</v>
+        <v>1.799454776365855</v>
       </c>
       <c r="AK7" s="4">
-        <v>0.9974478616314266</v>
+        <v>0.9987066238130967</v>
       </c>
       <c r="AL7" s="4">
-        <v>0.002207865684017097</v>
+        <v>0.002210651972836948</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.9974478616314266</v>
+        <v>0.9987066238130967</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.002207865684017097</v>
+        <v>0.002210651972836948</v>
       </c>
       <c r="AO7" s="4">
-        <v>557.1646</v>
+        <v>643.7914</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR7" s="4">
-        <v>2.250058454827287E-05</v>
+        <v>2.249717611187651E-05</v>
       </c>
       <c r="AS7" s="4">
-        <v>8.564103664792728E-08</v>
+        <v>8.56280635615745E-08</v>
       </c>
       <c r="AT7" s="4">
         <v>8</v>
@@ -3128,34 +3128,34 @@
         <v>4</v>
       </c>
       <c r="AV7" s="4">
-        <v>557.1452</v>
+        <v>643.7719</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX7" s="4">
-        <v>59.5616806850411</v>
+        <v>134.1990647908214</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB7" s="4">
-        <v>12.14344236039566</v>
+        <v>6.217573672677411</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BD7" s="4">
-        <v>557087.2000000001</v>
+        <v>643713.8999999999</v>
       </c>
       <c r="BE7" s="4">
-        <v>29780.84034252055</v>
+        <v>67099.53239541067</v>
       </c>
       <c r="BF7" s="4">
-        <v>10.69051311669581</v>
+        <v>20.84574750634835</v>
       </c>
     </row>
     <row r="8" spans="1:58">
@@ -3169,19 +3169,19 @@
         <v>4.748892358965405</v>
       </c>
       <c r="D8">
-        <v>0.3484447245712958</v>
+        <v>0.01654726490038431</v>
       </c>
       <c r="E8">
         <v>5.448072697317903</v>
       </c>
       <c r="F8">
-        <v>0.007157357494189458</v>
+        <v>0.0003899380394903727</v>
       </c>
       <c r="G8">
         <v>751.1857115788897</v>
       </c>
       <c r="H8">
-        <v>0.05376504682297207</v>
+        <v>0.02175360636925496</v>
       </c>
       <c r="I8">
         <v>0.3</v>
@@ -3193,31 +3193,31 @@
         <v>0.602584122308381</v>
       </c>
       <c r="L8">
-        <v>2.391626369770513</v>
+        <v>2.387620609769582</v>
       </c>
       <c r="M8">
-        <v>0.008333495916921346</v>
+        <v>0.008319538057519112</v>
       </c>
       <c r="N8">
         <v>0.005</v>
       </c>
       <c r="O8">
-        <v>2.755638310601177</v>
+        <v>2.755624061240332</v>
       </c>
       <c r="P8">
-        <v>0.0001972308851365691</v>
+        <v>0.0001972298652588728</v>
       </c>
       <c r="Q8">
-        <v>2.056093993624354</v>
+        <v>2.056076553784234</v>
       </c>
       <c r="R8">
-        <v>0.000147161997540252</v>
+        <v>0.0001471607493085482</v>
       </c>
       <c r="S8">
-        <v>1.146358704091157</v>
+        <v>1.144638942952797</v>
       </c>
       <c r="T8">
-        <v>0.0005473663981895642</v>
+        <v>0.0005465452420743875</v>
       </c>
       <c r="U8">
         <v>1.144520259535133</v>
@@ -3235,10 +3235,10 @@
         <v>0.0002621270491824548</v>
       </c>
       <c r="Z8">
-        <v>1.661468810231995E-05</v>
+        <v>1.661203037060718E-05</v>
       </c>
       <c r="AA8">
-        <v>6.400542686570602E-08</v>
+        <v>6.399518837963136E-08</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
@@ -3250,16 +3250,16 @@
         <v>0.001198934509509678</v>
       </c>
       <c r="AE8">
-        <v>0.00282280170120612</v>
+        <v>0.002826340055738992</v>
       </c>
       <c r="AF8">
-        <v>5.465893668700942E-05</v>
+        <v>5.472745113359834E-05</v>
       </c>
       <c r="AG8">
-        <v>169.8979652113942</v>
+        <v>170.1381464327101</v>
       </c>
       <c r="AH8">
-        <v>3.354271162584406</v>
+        <v>3.35901302599314</v>
       </c>
       <c r="AI8">
         <v>144.5202595351331</v>
@@ -3268,31 +3268,31 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="AK8">
-        <v>0.001372895261578126</v>
+        <v>0.001374627832089753</v>
       </c>
       <c r="AL8">
-        <v>2.658405221541558E-05</v>
+        <v>2.661760083797769E-05</v>
       </c>
       <c r="AM8">
-        <v>0.00137769211062768</v>
+        <v>0.001377692110745523</v>
       </c>
       <c r="AN8">
-        <v>2.667693598388037E-05</v>
+        <v>2.667693598616221E-05</v>
       </c>
       <c r="AO8">
-        <v>0.1309</v>
+        <v>0.1313</v>
       </c>
       <c r="AP8">
-        <v>0.0026</v>
+        <v>0.0029</v>
       </c>
       <c r="AQ8">
-        <v>1.986249045072574</v>
+        <v>2.208682406702208</v>
       </c>
       <c r="AR8">
-        <v>8.080704556231217E-06</v>
+        <v>8.079480474611969E-06</v>
       </c>
       <c r="AS8">
-        <v>3.113499337914811E-08</v>
+        <v>3.113027698680315E-08</v>
       </c>
       <c r="AT8">
         <v>8</v>
@@ -3301,16 +3301,16 @@
         <v>4</v>
       </c>
       <c r="AV8">
-        <v>0.1254</v>
+        <v>0.1252</v>
       </c>
       <c r="AW8">
-        <v>0.0040577034</v>
+        <v>0.0039730637</v>
       </c>
       <c r="AX8">
-        <v>0.004000928025806783</v>
+        <v>0.003994984004543229</v>
       </c>
       <c r="AY8">
-        <v>3.235808133971292</v>
+        <v>3.173373562300319</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3319,19 +3319,19 @@
         <v>70</v>
       </c>
       <c r="BB8">
-        <v>144.5714891971889</v>
+        <v>144.5713307313099</v>
       </c>
       <c r="BC8">
-        <v>0.5466848067060551</v>
+        <v>0.5466840964617444</v>
       </c>
       <c r="BD8">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="BE8">
-        <v>2.000464012903391</v>
+        <v>1.997492002271614</v>
       </c>
       <c r="BF8">
-        <v>3.190532715954372</v>
+        <v>3.190881792766157</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1">
@@ -3345,19 +3345,19 @@
         <v>2.089621996132539</v>
       </c>
       <c r="D9" s="4">
-        <v>0.8525647439070897</v>
+        <v>0.01781538041995359</v>
       </c>
       <c r="E9" s="4">
         <v>2.732460458939089</v>
       </c>
       <c r="F9" s="4">
-        <v>0.01200300534548393</v>
+        <v>0.0003279773749496935</v>
       </c>
       <c r="G9" s="4">
         <v>376.7543805389805</v>
       </c>
       <c r="H9" s="4">
-        <v>0.04522184843543869</v>
+        <v>0.03302670253059361</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3369,37 +3369,37 @@
         <v>6.432021168896118</v>
       </c>
       <c r="L9" s="4">
-        <v>10.43349082855542</v>
+        <v>10.41601566572925</v>
       </c>
       <c r="M9" s="4">
-        <v>0.0889522643630432</v>
+        <v>0.0888032772858469</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>13.70232996426819</v>
+        <v>13.70225911091505</v>
       </c>
       <c r="P9" s="4">
-        <v>0.001644691398066958</v>
+        <v>0.001644682893535193</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.22386654656593</v>
+        <v>10.22377982835146</v>
       </c>
       <c r="R9" s="4">
-        <v>0.001227171248099452</v>
+        <v>0.001227160839307534</v>
       </c>
       <c r="S9" s="4">
-        <v>1.000697962479403</v>
+        <v>0.999196720799145</v>
       </c>
       <c r="T9" s="4">
-        <v>0.001333396989833812</v>
+        <v>0.001331396634869054</v>
       </c>
       <c r="U9" s="4">
-        <v>1.000697962479403</v>
+        <v>0.999196720799145</v>
       </c>
       <c r="V9" s="4">
-        <v>0.001333396989833812</v>
+        <v>0.001331396634869054</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0.004067191805104615</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002310715832403312</v>
+        <v>0.0002310346203872872</v>
       </c>
       <c r="AA9" s="4">
-        <v>9.9311516473534E-07</v>
+        <v>9.929563032718267E-07</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -3426,49 +3426,49 @@
         <v>0.5191415766427769</v>
       </c>
       <c r="AE9" s="4">
-        <v>10.17876434179344</v>
+        <v>10.19152332409547</v>
       </c>
       <c r="AF9" s="4">
-        <v>0.0236674533464855</v>
+        <v>0.02369712026952664</v>
       </c>
       <c r="AG9" s="4">
-        <v>44050.2644204709</v>
+        <v>44112.53736349662</v>
       </c>
       <c r="AH9" s="4">
-        <v>215.2527280272866</v>
+        <v>215.5570263338899</v>
       </c>
       <c r="AI9" s="4">
-        <v>0.6979624794027917</v>
+        <v>-0.8032792008549894</v>
       </c>
       <c r="AJ9" s="4">
-        <v>1.333396989833812</v>
+        <v>1.331396634869054</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.9955885374122334</v>
+        <v>0.9968449531584644</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.002318004343065792</v>
+        <v>0.002320929624994037</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.9955885374122334</v>
+        <v>0.9968449531584644</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.002318004343065791</v>
+        <v>0.002320929624994037</v>
       </c>
       <c r="AO9" s="4">
-        <v>570.2877</v>
+        <v>677.1053000000001</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR9" s="4">
-        <v>2.26011932166647E-05</v>
+        <v>2.25977695398533E-05</v>
       </c>
       <c r="AS9" s="4">
-        <v>9.717481944127452E-08</v>
+        <v>9.71600991929768E-08</v>
       </c>
       <c r="AT9" s="4">
         <v>8</v>
@@ -3477,34 +3477,34 @@
         <v>4</v>
       </c>
       <c r="AV9" s="4">
-        <v>570.268</v>
+        <v>677.0855</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX9" s="4">
-        <v>60.16809910079359</v>
+        <v>163.4756845041817</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB9" s="4">
-        <v>3.497885056565243</v>
+        <v>-5.428826399332455</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BD9" s="4">
-        <v>570210</v>
+        <v>677027.5</v>
       </c>
       <c r="BE9" s="4">
-        <v>30084.04955039679</v>
+        <v>81737.84225209084</v>
       </c>
       <c r="BF9" s="4">
-        <v>10.5508461110905</v>
+        <v>24.14402383512594</v>
       </c>
     </row>
     <row r="10" spans="1:58">
@@ -3518,19 +3518,19 @@
         <v>4.698260018102006</v>
       </c>
       <c r="D10">
-        <v>0.3272789772884239</v>
+        <v>0.01537641733759517</v>
       </c>
       <c r="E10">
         <v>5.407817424515519</v>
       </c>
       <c r="F10">
-        <v>0.005087385928677475</v>
+        <v>0.0002751165427033712</v>
       </c>
       <c r="G10">
         <v>745.6352743096243</v>
       </c>
       <c r="H10">
-        <v>0.03793334402448352</v>
+        <v>0.0168475464326438</v>
       </c>
       <c r="I10">
         <v>0.3</v>
@@ -3542,31 +3542,31 @@
         <v>0.5842383721546202</v>
       </c>
       <c r="L10">
-        <v>2.46877500107601</v>
+        <v>2.464640024026248</v>
       </c>
       <c r="M10">
-        <v>0.008079781575073844</v>
+        <v>0.008066248664474269</v>
       </c>
       <c r="N10">
         <v>0.005</v>
       </c>
       <c r="O10">
-        <v>2.853939855296876</v>
+        <v>2.853925097618624</v>
       </c>
       <c r="P10">
-        <v>0.0001451909346112916</v>
+        <v>0.0001451901838312448</v>
       </c>
       <c r="Q10">
-        <v>2.12944078040521</v>
+        <v>2.129422718434546</v>
       </c>
       <c r="R10">
-        <v>0.0001083328706218545</v>
+        <v>0.0001083319517397004</v>
       </c>
       <c r="S10">
-        <v>1.145993042881479</v>
+        <v>1.144273830306091</v>
       </c>
       <c r="T10">
-        <v>0.0003793789222423742</v>
+        <v>0.0003788097800316013</v>
       </c>
       <c r="U10">
         <v>1.14518991555995</v>
@@ -3584,10 +3584,10 @@
         <v>0.0003224815709950363</v>
       </c>
       <c r="Z10">
-        <v>3.154063184831989E-05</v>
+        <v>3.153558652113783E-05</v>
       </c>
       <c r="AA10">
-        <v>7.874261993272505E-08</v>
+        <v>7.873002404426463E-08</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
@@ -3599,16 +3599,16 @@
         <v>0.001199923066243893</v>
       </c>
       <c r="AE10">
-        <v>0.00256059759077345</v>
+        <v>0.002563807274998985</v>
       </c>
       <c r="AF10">
-        <v>5.470400458648045E-05</v>
+        <v>5.477257552524392E-05</v>
       </c>
       <c r="AG10">
-        <v>81.18409304821357</v>
+        <v>81.29886131277448</v>
       </c>
       <c r="AH10">
-        <v>1.746200174896844</v>
+        <v>1.748668741781368</v>
       </c>
       <c r="AI10">
         <v>145.1899155599503</v>
@@ -3617,31 +3617,31 @@
         <v>0.3791130483964922</v>
       </c>
       <c r="AK10">
-        <v>0.001202474196200091</v>
+        <v>0.001203991698221281</v>
       </c>
       <c r="AL10">
-        <v>2.56894487010916E-05</v>
+        <v>2.572186834922238E-05</v>
       </c>
       <c r="AM10">
-        <v>0.001208645218730392</v>
+        <v>0.001208645218834504</v>
       </c>
       <c r="AN10">
-        <v>2.582128534858592E-05</v>
+        <v>2.582128535081016E-05</v>
       </c>
       <c r="AO10">
-        <v>0.1146</v>
+        <v>0.1151</v>
       </c>
       <c r="AP10">
-        <v>0.0053</v>
+        <v>0.0055</v>
       </c>
       <c r="AQ10">
-        <v>4.62478184991274</v>
+        <v>4.778453518679409</v>
       </c>
       <c r="AR10">
-        <v>1.481169710778153E-05</v>
+        <v>1.480945340168126E-05</v>
       </c>
       <c r="AS10">
-        <v>3.698575134213195E-08</v>
+        <v>3.698014866505144E-08</v>
       </c>
       <c r="AT10">
         <v>8</v>
@@ -3650,16 +3650,16 @@
         <v>4</v>
       </c>
       <c r="AV10">
-        <v>0.104</v>
+        <v>0.1039</v>
       </c>
       <c r="AW10">
-        <v>0.0060902994</v>
+        <v>0.0061021755</v>
       </c>
       <c r="AX10">
-        <v>0.006164045001151234</v>
+        <v>0.006154658983700317</v>
       </c>
       <c r="AY10">
-        <v>5.856057115384615</v>
+        <v>5.873123676612127</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -3668,19 +3668,19 @@
         <v>83.5</v>
       </c>
       <c r="BB10">
-        <v>145.232598259485</v>
+        <v>145.2324932322458</v>
       </c>
       <c r="BC10">
-        <v>0.3792327391359274</v>
+        <v>0.3792324722537137</v>
       </c>
       <c r="BD10">
-        <v>46</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="BE10">
-        <v>3.082022500575617</v>
+        <v>3.077329491850159</v>
       </c>
       <c r="BF10">
-        <v>5.926966347260803</v>
+        <v>5.923637135418977</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="4" customFormat="1">
@@ -3694,19 +3694,19 @@
         <v>2.112603635307891</v>
       </c>
       <c r="D11" s="4">
-        <v>0.9213030659910797</v>
+        <v>0.01946348206433061</v>
       </c>
       <c r="E11" s="4">
         <v>2.731460684210479</v>
       </c>
       <c r="F11" s="4">
-        <v>0.009998739986237109</v>
+        <v>0.0002731116516404989</v>
       </c>
       <c r="G11" s="4">
         <v>376.616530599625</v>
       </c>
       <c r="H11" s="4">
-        <v>0.03765690763984363</v>
+        <v>0.02256545571591701</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3718,37 +3718,37 @@
         <v>7.027047736684282</v>
       </c>
       <c r="L11" s="4">
-        <v>10.54823824316198</v>
+        <v>10.53057088869189</v>
       </c>
       <c r="M11" s="4">
-        <v>0.09718124234229489</v>
+        <v>0.09701847246388244</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>13.69731644497772</v>
+        <v>13.69724561754897</v>
       </c>
       <c r="P11" s="4">
-        <v>0.001369559056425418</v>
+        <v>0.001369551974574979</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.22012575559913</v>
+        <v>10.22003906911382</v>
       </c>
       <c r="R11" s="4">
-        <v>0.001021883800568808</v>
+        <v>0.001021875133012538</v>
       </c>
       <c r="S11" s="4">
-        <v>1.00070464735957</v>
+        <v>0.9992033956506909</v>
       </c>
       <c r="T11" s="4">
-        <v>0.001929450337261307</v>
+        <v>0.001926555786283</v>
       </c>
       <c r="U11" s="4">
-        <v>1.00070464735957</v>
+        <v>0.9992033956506909</v>
       </c>
       <c r="V11" s="4">
-        <v>0.001929450337261307</v>
+        <v>0.001926555786283</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         <v>0.003930403495974505</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002312341932420937</v>
+        <v>0.0002311972043775016</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.597145899247003E-07</v>
+        <v>9.595610713100177E-07</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -3775,49 +3775,49 @@
         <v>0.5469314400165655</v>
       </c>
       <c r="AE11" s="4">
-        <v>10.16084894480664</v>
+        <v>10.17358547033244</v>
       </c>
       <c r="AF11" s="4">
-        <v>0.02493438191567796</v>
+        <v>0.0249656369213831</v>
       </c>
       <c r="AG11" s="4">
-        <v>43941.80982640664</v>
+        <v>44003.92944942747</v>
       </c>
       <c r="AH11" s="4">
-        <v>211.8696100379835</v>
+        <v>212.1691257010188</v>
       </c>
       <c r="AI11" s="4">
-        <v>0.7046473595699876</v>
+        <v>-0.7966043493090602</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1.929450337261307</v>
+        <v>1.926555786283</v>
       </c>
       <c r="AK11" s="4">
-        <v>0.9941999920343429</v>
+        <v>0.9954546554600007</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.00244175772607275</v>
+        <v>0.002444839182658715</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.9941999920343429</v>
+        <v>0.9954546554600007</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.00244175772607275</v>
+        <v>0.002444839182658714</v>
       </c>
       <c r="AO11" s="4">
-        <v>545.198</v>
+        <v>619.261</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR11" s="4">
-        <v>2.262537651412079E-05</v>
+        <v>2.262194917397206E-05</v>
       </c>
       <c r="AS11" s="4">
-        <v>9.39316277310498E-08</v>
+        <v>9.391739876832926E-08</v>
       </c>
       <c r="AT11" s="4">
         <v>8</v>
@@ -3826,34 +3826,34 @@
         <v>4</v>
       </c>
       <c r="AV11" s="4">
-        <v>545.1783</v>
+        <v>619.2412</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX11" s="4">
-        <v>58.40674049930108</v>
+        <v>117.4417698172055</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB11" s="4">
-        <v>3.289644909756741</v>
+        <v>-4.572859280836142</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BD11" s="4">
-        <v>545120.3</v>
+        <v>619183.2000000001</v>
       </c>
       <c r="BE11" s="4">
-        <v>29203.37024965054</v>
+        <v>58720.88490860275</v>
       </c>
       <c r="BF11" s="4">
-        <v>10.71332818993366</v>
+        <v>18.96543218009485</v>
       </c>
     </row>
     <row r="12" spans="1:58">
@@ -3867,19 +3867,19 @@
         <v>3.925903402007213</v>
       </c>
       <c r="D12">
-        <v>0.3577868050430094</v>
+        <v>0.01404636435111642</v>
       </c>
       <c r="E12">
         <v>4.530725630443185</v>
       </c>
       <c r="F12">
-        <v>0.006431033156213491</v>
+        <v>0.000291372467510864</v>
       </c>
       <c r="G12">
         <v>624.7009806511368</v>
       </c>
       <c r="H12">
-        <v>0.04017472719286543</v>
+        <v>0.02151084603301317</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -3891,37 +3891,37 @@
         <v>0.6104534619359627</v>
       </c>
       <c r="L12">
-        <v>2.359596720214717</v>
+        <v>2.35564460700856</v>
       </c>
       <c r="M12">
-        <v>0.00844232571715587</v>
+        <v>0.00842818557758388</v>
       </c>
       <c r="N12">
         <v>0.005</v>
       </c>
       <c r="O12">
-        <v>2.734917498207005</v>
+        <v>2.734903355941235</v>
       </c>
       <c r="P12">
-        <v>0.000175883451104777</v>
+        <v>0.0001758825416109763</v>
       </c>
       <c r="Q12">
-        <v>2.040633351441099</v>
+        <v>2.040616042699797</v>
       </c>
       <c r="R12">
-        <v>0.0001312338074279276</v>
+        <v>0.0001312326942970356</v>
       </c>
       <c r="S12">
-        <v>1.146960467703163</v>
+        <v>1.145239803802281</v>
       </c>
       <c r="T12">
-        <v>0.0004881335238397607</v>
+        <v>0.0004874012285628684</v>
       </c>
       <c r="U12">
-        <v>1.145914439321799</v>
+        <v>1.1459144393218</v>
       </c>
       <c r="V12">
-        <v>0.0004876883458809652</v>
+        <v>0.0004876883458809653</v>
       </c>
       <c r="W12">
         <v>0.003</v>
@@ -3933,10 +3933,10 @@
         <v>0.0002412752997544699</v>
       </c>
       <c r="Z12">
-        <v>1.622281472328544E-05</v>
+        <v>1.622021967672814E-05</v>
       </c>
       <c r="AA12">
-        <v>5.891390682915326E-08</v>
+        <v>5.890448279678269E-08</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
@@ -3948,49 +3948,49 @@
         <v>0.001554011354629662</v>
       </c>
       <c r="AE12">
-        <v>0.003130785363138321</v>
+        <v>0.003134709772201975</v>
       </c>
       <c r="AF12">
-        <v>7.084674564779532E-05</v>
+        <v>7.093555135578926E-05</v>
       </c>
       <c r="AG12">
-        <v>192.9865696268197</v>
+        <v>193.2593907281958</v>
       </c>
       <c r="AH12">
-        <v>4.422984055694778</v>
+        <v>4.429236736302435</v>
       </c>
       <c r="AI12">
-        <v>145.9144393217995</v>
+        <v>145.9144393217997</v>
       </c>
       <c r="AJ12">
-        <v>0.4876883458809652</v>
+        <v>0.4876883458809653</v>
       </c>
       <c r="AK12">
-        <v>0.001534222382931924</v>
+        <v>0.001536158545560908</v>
       </c>
       <c r="AL12">
-        <v>3.471815830972342E-05</v>
+        <v>3.476197203673864E-05</v>
       </c>
       <c r="AM12">
-        <v>0.001543690821823429</v>
+        <v>0.001543690821984769</v>
       </c>
       <c r="AN12">
-        <v>3.493242109459623E-05</v>
+        <v>3.493242109824723E-05</v>
       </c>
       <c r="AO12">
-        <v>0.1462</v>
+        <v>0.147</v>
       </c>
       <c r="AP12">
-        <v>0.0051</v>
+        <v>0.0045</v>
       </c>
       <c r="AQ12">
-        <v>3.488372093023257</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="AR12">
-        <v>7.949891984186606E-06</v>
+        <v>7.948687718473634E-06</v>
       </c>
       <c r="AS12">
-        <v>2.887492935027594E-08</v>
+        <v>2.887055531759094E-08</v>
       </c>
       <c r="AT12">
         <v>8</v>
@@ -3999,16 +3999,16 @@
         <v>4</v>
       </c>
       <c r="AV12">
-        <v>0.1411</v>
+        <v>0.1409</v>
       </c>
       <c r="AW12">
-        <v>0.004549425</v>
+        <v>0.0044322208</v>
       </c>
       <c r="AX12">
-        <v>0.004505119180382099</v>
+        <v>0.004498523248781138</v>
       </c>
       <c r="AY12">
-        <v>3.22425584691708</v>
+        <v>3.14564996451384</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4017,19 +4017,19 @@
         <v>100</v>
       </c>
       <c r="BB12">
-        <v>145.9726402809931</v>
+        <v>145.9724705622064</v>
       </c>
       <c r="BC12">
-        <v>0.4878864806713097</v>
+        <v>0.4878857195201304</v>
       </c>
       <c r="BD12">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="BE12">
-        <v>2.25255959019105</v>
+        <v>2.249261624390569</v>
       </c>
       <c r="BF12">
-        <v>3.192855549526647</v>
+        <v>3.192706351157657</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="4" customFormat="1">
@@ -4043,19 +4043,19 @@
         <v>2.081859566530355</v>
       </c>
       <c r="D13" s="4">
-        <v>0.8463572318815002</v>
+        <v>0.01761996899894651</v>
       </c>
       <c r="E13" s="4">
         <v>2.731635731525279</v>
       </c>
       <c r="F13" s="4">
-        <v>0.01143055946331255</v>
+        <v>0.0003122412466130899</v>
       </c>
       <c r="G13" s="4">
         <v>376.640666298437</v>
       </c>
       <c r="H13" s="4">
-        <v>0.04305213532425944</v>
+        <v>0.02370283806126167</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -4067,37 +4067,37 @@
         <v>6.361470309642285</v>
       </c>
       <c r="L13" s="4">
-        <v>10.39473298708381</v>
+        <v>10.37732274017136</v>
       </c>
       <c r="M13" s="4">
-        <v>0.08797657437095568</v>
+        <v>0.0878292214871238</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>13.69819424581063</v>
+        <v>13.69812341384287</v>
       </c>
       <c r="P13" s="4">
-        <v>0.001565780238667443</v>
+        <v>0.001565772142177248</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.22078071855752</v>
+        <v>10.22069402651685</v>
       </c>
       <c r="R13" s="4">
-        <v>0.001168292417649501</v>
+        <v>0.001168282508264243</v>
       </c>
       <c r="S13" s="4">
-        <v>1.00112101840651</v>
+        <v>0.9996191420600341</v>
       </c>
       <c r="T13" s="4">
-        <v>0.001506192629674534</v>
+        <v>0.00150393304762386</v>
       </c>
       <c r="U13" s="4">
-        <v>1.00112101840651</v>
+        <v>0.9996191420600341</v>
       </c>
       <c r="V13" s="4">
-        <v>0.001506192629674534</v>
+        <v>0.00150393304762386</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0.003894898016102048</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002303818607589436</v>
+        <v>0.0002303450082358258</v>
       </c>
       <c r="AA13" s="4">
-        <v>9.510449642512102E-07</v>
+        <v>9.508928324539598E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
@@ -4124,49 +4124,49 @@
         <v>0.5821115409793647</v>
       </c>
       <c r="AE13" s="4">
-        <v>10.15468021387967</v>
+        <v>10.16740900696113</v>
       </c>
       <c r="AF13" s="4">
-        <v>0.02653822841097538</v>
+        <v>0.02657149382269462</v>
       </c>
       <c r="AG13" s="4">
-        <v>44077.60307355473</v>
+        <v>44139.91466466598</v>
       </c>
       <c r="AH13" s="4">
-        <v>215.3553534630865</v>
+        <v>215.6597968491349</v>
       </c>
       <c r="AI13" s="4">
-        <v>1.121018406509577</v>
+        <v>-0.3808579399658951</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.506192629674534</v>
+        <v>1.503933047623859</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.9935327342892867</v>
+        <v>0.9947865556470556</v>
       </c>
       <c r="AL13" s="4">
-        <v>0.00259897960194146</v>
+        <v>0.002602259469852054</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.9935327342892867</v>
+        <v>0.9947865556470556</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.00259897960194146</v>
+        <v>0.002602259469852054</v>
       </c>
       <c r="AO13" s="4">
-        <v>526.8188</v>
+        <v>585.0459</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.254053453476868E-05</v>
+        <v>2.253712004666341E-05</v>
       </c>
       <c r="AS13" s="4">
-        <v>9.308579324971961E-08</v>
+        <v>9.3071692415805E-08</v>
       </c>
       <c r="AT13" s="4">
         <v>8</v>
@@ -4175,34 +4175,34 @@
         <v>4</v>
       </c>
       <c r="AV13" s="4">
-        <v>526.7992</v>
-      </c>
-      <c r="AW13" s="4">
-        <v>48.3631223366</v>
+        <v>585.0262</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="AX13" s="4">
-        <v>45.21647771575007</v>
-      </c>
-      <c r="AY13" s="4">
-        <v>9.180561082211209</v>
+        <v>78.41128433161153</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="AZ13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB13" s="4">
-        <v>4.968560412105498</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>6.710180727175612</v>
+        <v>-1.98506211056085</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="BD13" s="4">
-        <v>526741.2000000001</v>
+        <v>584968.2000000001</v>
       </c>
       <c r="BE13" s="4">
-        <v>22608.23885787503</v>
+        <v>39205.64216580577</v>
       </c>
       <c r="BF13" s="4">
-        <v>8.58324722508122</v>
+        <v>13.40303807446769</v>
       </c>
     </row>
   </sheetData>
@@ -4233,9 +4233,9 @@
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4359,10 +4359,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>13.70104585233061</v>
+        <v>13.70097500561748</v>
       </c>
       <c r="D3" s="4">
-        <v>0.001458381816529189</v>
+        <v>0.001458374275385301</v>
       </c>
       <c r="E3" s="4">
         <v>0.9284286765323656</v>
@@ -4371,40 +4371,40 @@
         <v>0.004333193662648399</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9994243199508722</v>
+        <v>1.000685576389217</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003408697990423883</v>
+        <v>0.00341299970912431</v>
       </c>
       <c r="I3" s="4">
-        <v>45068.26898406901</v>
+        <v>45131.98105898243</v>
       </c>
       <c r="J3" s="4">
-        <v>260.4788137042241</v>
+        <v>260.8470471879186</v>
       </c>
       <c r="K3" s="4">
-        <v>0.1143667343042054</v>
+        <v>-1.385999438767938</v>
       </c>
       <c r="L3" s="4">
-        <v>1.672089322806292</v>
-      </c>
-      <c r="M3" s="4">
-        <v>787.196</v>
+        <v>1.669580863432305</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4415,10 +4415,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>2.882840036628364</v>
+        <v>2.88282512949779</v>
       </c>
       <c r="D4">
-        <v>0.0001619437037934368</v>
+        <v>0.000161942866384525</v>
       </c>
       <c r="E4">
         <v>0.164348706667991</v>
@@ -4427,19 +4427,19 @@
         <v>0.0003265657311123974</v>
       </c>
       <c r="G4">
-        <v>0.001293671958225894</v>
+        <v>0.001293671958341789</v>
       </c>
       <c r="H4">
-        <v>2.740833351015257E-05</v>
+        <v>2.740833351260798E-05</v>
       </c>
       <c r="I4">
-        <v>69.26810743394481</v>
+        <v>69.36603031737089</v>
       </c>
       <c r="J4">
-        <v>1.473981315707428</v>
+        <v>1.476065052450025</v>
       </c>
       <c r="K4">
-        <v>145.9064109889343</v>
+        <v>145.9064109889345</v>
       </c>
       <c r="L4">
         <v>0.5483315951927344</v>
@@ -4451,16 +4451,16 @@
         <v>0.0041</v>
       </c>
       <c r="O4">
-        <v>0.1091</v>
+        <v>0.109</v>
       </c>
       <c r="P4">
-        <v>0.0076270048</v>
+        <v>0.0075606808</v>
       </c>
       <c r="Q4">
-        <v>145.9514080700588</v>
+        <v>145.9512993669503</v>
       </c>
       <c r="R4">
-        <v>0.5485097219309453</v>
+        <v>0.5485091305799562</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -4474,10 +4474,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>13.70140446816101</v>
+        <v>13.70133361959352</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001718799455033931</v>
+        <v>0.001718790567296949</v>
       </c>
       <c r="E5" s="4">
         <v>0.9325466065987698</v>
@@ -4486,40 +4486,40 @@
         <v>0.003856530443204103</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9984543410506036</v>
+        <v>0.9997143733921263</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002851167071869993</v>
+        <v>0.002854765196064496</v>
       </c>
       <c r="I5" s="4">
-        <v>44826.88294990959</v>
+        <v>44890.25378240482</v>
       </c>
       <c r="J5" s="4">
-        <v>225.2113611056301</v>
+        <v>225.5297377247805</v>
       </c>
       <c r="K5" s="4">
-        <v>0.07524374222045438</v>
+        <v>-1.425063738750176</v>
       </c>
       <c r="L5" s="4">
-        <v>1.847658475256469</v>
-      </c>
-      <c r="M5" s="4">
-        <v>699.4166</v>
+        <v>1.844886627987925</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="4">
-        <v>699.3971</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.5431789176196203</v>
+        <v>117</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4530,10 +4530,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>2.894233252161722</v>
+        <v>2.89421828608744</v>
       </c>
       <c r="D6">
-        <v>0.0001723385360822908</v>
+        <v>0.00017233764492007</v>
       </c>
       <c r="E6">
         <v>0.08175910603621016</v>
@@ -4542,40 +4542,40 @@
         <v>0.0002533258194953242</v>
       </c>
       <c r="G6">
-        <v>0.001222639286764136</v>
+        <v>0.001222639286886141</v>
       </c>
       <c r="H6">
-        <v>2.442251657684677E-05</v>
+        <v>2.442251657928386E-05</v>
       </c>
       <c r="I6">
-        <v>131.9838503807886</v>
+        <v>132.1704332061861</v>
       </c>
       <c r="J6">
-        <v>2.667925870214171</v>
+        <v>2.671697461551896</v>
       </c>
       <c r="K6">
-        <v>144.4746150985909</v>
+        <v>144.4746150985912</v>
       </c>
       <c r="L6">
-        <v>0.4966198109484972</v>
+        <v>0.4966198109484973</v>
       </c>
       <c r="M6">
-        <v>0.1163</v>
+        <v>0.1166</v>
       </c>
       <c r="N6">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="O6">
-        <v>0.1097</v>
+        <v>0.1095</v>
       </c>
       <c r="P6">
-        <v>0.0042628134</v>
+        <v>0.0042488404</v>
       </c>
       <c r="Q6">
-        <v>144.5194156912648</v>
+        <v>144.5192669028224</v>
       </c>
       <c r="R6">
-        <v>0.4967768607109589</v>
+        <v>0.4967763202000841</v>
       </c>
       <c r="S6">
         <v>47.5</v>
@@ -4589,10 +4589,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13.70348548121096</v>
+        <v>13.70341462188276</v>
       </c>
       <c r="D7" s="4">
-        <v>0.001771577620583448</v>
+        <v>0.001771568459935945</v>
       </c>
       <c r="E7" s="4">
         <v>0.9421946537417234</v>
@@ -4601,40 +4601,40 @@
         <v>0.003584083253331734</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9974478616314266</v>
+        <v>0.9987066238130967</v>
       </c>
       <c r="H7" s="4">
-        <v>0.002207865684017097</v>
+        <v>0.002210651972836948</v>
       </c>
       <c r="I7" s="4">
-        <v>44329.86438603393</v>
+        <v>44392.53259371821</v>
       </c>
       <c r="J7" s="4">
-        <v>195.0168804580674</v>
+        <v>195.2925717676564</v>
       </c>
       <c r="K7" s="4">
-        <v>2.514640426850789</v>
+        <v>1.010673376144799</v>
       </c>
       <c r="L7" s="4">
-        <v>1.802158364614082</v>
+        <v>1.799454776365855</v>
       </c>
       <c r="M7" s="4">
-        <v>557.1646</v>
+        <v>643.7914</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="4">
-        <v>557.1452</v>
+        <v>643.7719</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="4">
-        <v>12.14344236039566</v>
+        <v>6.217573672677411</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4645,10 +4645,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>2.755638310601177</v>
+        <v>2.755624061240332</v>
       </c>
       <c r="D8">
-        <v>0.0001972308851365691</v>
+        <v>0.0001972298652588728</v>
       </c>
       <c r="E8">
         <v>0.06804359221735705</v>
@@ -4657,16 +4657,16 @@
         <v>0.0002621270491824548</v>
       </c>
       <c r="G8">
-        <v>0.00137769211062768</v>
+        <v>0.001377692110745523</v>
       </c>
       <c r="H8">
-        <v>2.667693598388037E-05</v>
+        <v>2.667693598616221E-05</v>
       </c>
       <c r="I8">
-        <v>169.8979652113942</v>
+        <v>170.1381464327101</v>
       </c>
       <c r="J8">
-        <v>3.354271162584406</v>
+        <v>3.35901302599314</v>
       </c>
       <c r="K8">
         <v>144.5202595351331</v>
@@ -4675,22 +4675,22 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="M8">
-        <v>0.1309</v>
+        <v>0.1313</v>
       </c>
       <c r="N8">
-        <v>0.0026</v>
+        <v>0.0029</v>
       </c>
       <c r="O8">
-        <v>0.1254</v>
+        <v>0.1252</v>
       </c>
       <c r="P8">
-        <v>0.0040577034</v>
+        <v>0.0039730637</v>
       </c>
       <c r="Q8">
-        <v>144.5714891971889</v>
+        <v>144.5713307313099</v>
       </c>
       <c r="R8">
-        <v>0.5466848067060551</v>
+        <v>0.5466840964617444</v>
       </c>
       <c r="S8">
         <v>70</v>
@@ -4704,10 +4704,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>13.70232996426819</v>
+        <v>13.70225911091505</v>
       </c>
       <c r="D9" s="4">
-        <v>0.001644691398066958</v>
+        <v>0.001644682893535193</v>
       </c>
       <c r="E9" s="4">
         <v>0.9463277604849375</v>
@@ -4716,40 +4716,40 @@
         <v>0.004067191805104615</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9955885374122334</v>
+        <v>0.9968449531584644</v>
       </c>
       <c r="H9" s="4">
-        <v>0.002318004343065791</v>
+        <v>0.002320929624994037</v>
       </c>
       <c r="I9" s="4">
-        <v>44050.2644204709</v>
+        <v>44112.53736349662</v>
       </c>
       <c r="J9" s="4">
-        <v>215.2527280272866</v>
+        <v>215.5570263338899</v>
       </c>
       <c r="K9" s="4">
-        <v>0.6979624794027917</v>
+        <v>-0.8032792008549894</v>
       </c>
       <c r="L9" s="4">
-        <v>1.333396989833812</v>
+        <v>1.331396634869054</v>
       </c>
       <c r="M9" s="4">
-        <v>570.2877</v>
+        <v>677.1053000000001</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O9" s="4">
-        <v>570.268</v>
+        <v>677.0855</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="4">
-        <v>3.497885056565243</v>
+        <v>-5.428826399332455</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4760,10 +4760,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>2.853939855296876</v>
+        <v>2.853925097618624</v>
       </c>
       <c r="D10">
-        <v>0.0001451909346112916</v>
+        <v>0.0001451901838312448</v>
       </c>
       <c r="E10">
         <v>0.1291711212722189</v>
@@ -4772,16 +4772,16 @@
         <v>0.0003224815709950363</v>
       </c>
       <c r="G10">
-        <v>0.001208645218730392</v>
+        <v>0.001208645218834504</v>
       </c>
       <c r="H10">
-        <v>2.582128534858592E-05</v>
+        <v>2.582128535081016E-05</v>
       </c>
       <c r="I10">
-        <v>81.18409304821357</v>
+        <v>81.29886131277448</v>
       </c>
       <c r="J10">
-        <v>1.746200174896844</v>
+        <v>1.748668741781368</v>
       </c>
       <c r="K10">
         <v>145.1899155599503</v>
@@ -4790,22 +4790,22 @@
         <v>0.3791130483964922</v>
       </c>
       <c r="M10">
-        <v>0.1146</v>
+        <v>0.1151</v>
       </c>
       <c r="N10">
-        <v>0.0053</v>
+        <v>0.0055</v>
       </c>
       <c r="O10">
-        <v>0.104</v>
+        <v>0.1039</v>
       </c>
       <c r="P10">
-        <v>0.0060902994</v>
+        <v>0.0061021755</v>
       </c>
       <c r="Q10">
-        <v>145.232598259485</v>
+        <v>145.2324932322458</v>
       </c>
       <c r="R10">
-        <v>0.3792327391359274</v>
+        <v>0.3792324722537137</v>
       </c>
       <c r="S10">
         <v>83.5</v>
@@ -4819,10 +4819,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>13.69731644497772</v>
+        <v>13.69724561754897</v>
       </c>
       <c r="D11" s="4">
-        <v>0.001369559056425418</v>
+        <v>0.001369551974574979</v>
       </c>
       <c r="E11" s="4">
         <v>0.9469937115146677</v>
@@ -4831,40 +4831,40 @@
         <v>0.003930403495974505</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9941999920343429</v>
+        <v>0.9954546554600007</v>
       </c>
       <c r="H11" s="4">
-        <v>0.00244175772607275</v>
+        <v>0.002444839182658714</v>
       </c>
       <c r="I11" s="4">
-        <v>43941.80982640664</v>
+        <v>44003.92944942747</v>
       </c>
       <c r="J11" s="4">
-        <v>211.8696100379835</v>
+        <v>212.1691257010188</v>
       </c>
       <c r="K11" s="4">
-        <v>0.7046473595699876</v>
+        <v>-0.7966043493090602</v>
       </c>
       <c r="L11" s="4">
-        <v>1.929450337261307</v>
+        <v>1.926555786283</v>
       </c>
       <c r="M11" s="4">
-        <v>545.198</v>
+        <v>619.261</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="4">
-        <v>545.1783</v>
+        <v>619.2412</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="4">
-        <v>3.289644909756741</v>
+        <v>-4.572859280836142</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4875,10 +4875,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>2.734917498207005</v>
+        <v>2.734903355941235</v>
       </c>
       <c r="D12">
-        <v>0.000175883451104777</v>
+        <v>0.0001758825416109763</v>
       </c>
       <c r="E12">
         <v>0.06643871873194153</v>
@@ -4887,40 +4887,40 @@
         <v>0.0002412752997544699</v>
       </c>
       <c r="G12">
-        <v>0.001543690821823429</v>
+        <v>0.001543690821984769</v>
       </c>
       <c r="H12">
-        <v>3.493242109459623E-05</v>
+        <v>3.493242109824723E-05</v>
       </c>
       <c r="I12">
-        <v>192.9865696268197</v>
+        <v>193.2593907281958</v>
       </c>
       <c r="J12">
-        <v>4.422984055694778</v>
+        <v>4.429236736302435</v>
       </c>
       <c r="K12">
-        <v>145.9144393217995</v>
+        <v>145.9144393217997</v>
       </c>
       <c r="L12">
-        <v>0.4876883458809652</v>
+        <v>0.4876883458809653</v>
       </c>
       <c r="M12">
-        <v>0.1462</v>
+        <v>0.147</v>
       </c>
       <c r="N12">
-        <v>0.0051</v>
+        <v>0.0045</v>
       </c>
       <c r="O12">
-        <v>0.1411</v>
+        <v>0.1409</v>
       </c>
       <c r="P12">
-        <v>0.004549425</v>
+        <v>0.0044322208</v>
       </c>
       <c r="Q12">
-        <v>145.9726402809931</v>
+        <v>145.9724705622064</v>
       </c>
       <c r="R12">
-        <v>0.4878864806713097</v>
+        <v>0.4878857195201304</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4934,10 +4934,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13.69819424581063</v>
+        <v>13.69812341384287</v>
       </c>
       <c r="D13" s="4">
-        <v>0.001565780238667443</v>
+        <v>0.001565772142177248</v>
       </c>
       <c r="E13" s="4">
         <v>0.9435030793968748</v>
@@ -4946,40 +4946,40 @@
         <v>0.003894898016102048</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9935327342892867</v>
+        <v>0.9947865556470556</v>
       </c>
       <c r="H13" s="4">
-        <v>0.00259897960194146</v>
+        <v>0.002602259469852054</v>
       </c>
       <c r="I13" s="4">
-        <v>44077.60307355473</v>
+        <v>44139.91466466598</v>
       </c>
       <c r="J13" s="4">
-        <v>215.3553534630865</v>
+        <v>215.6597968491349</v>
       </c>
       <c r="K13" s="4">
-        <v>1.121018406509577</v>
+        <v>-0.3808579399658951</v>
       </c>
       <c r="L13" s="4">
-        <v>1.506192629674534</v>
+        <v>1.503933047623859</v>
       </c>
       <c r="M13" s="4">
-        <v>526.8188</v>
+        <v>585.0459</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O13" s="4">
-        <v>526.7992</v>
-      </c>
-      <c r="P13" s="4">
-        <v>48.3631223366</v>
+        <v>585.0262</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="Q13" s="4">
-        <v>4.968560412105498</v>
-      </c>
-      <c r="R13" s="4">
-        <v>6.710180727175612</v>
+        <v>-1.98506211056085</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -1936,8 +1936,8 @@
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
     <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" customWidth="1"/>
+    <col min="50" max="50" width="22.7109375" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="20.7109375" customWidth="1"/>
@@ -2424,10 +2424,10 @@
         <v>1.035108112935641E-07</v>
       </c>
       <c r="AT3" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>116</v>
@@ -2597,22 +2597,22 @@
         <v>3.70801911850621E-08</v>
       </c>
       <c r="AT4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>0.109</v>
+        <v>0.1218</v>
       </c>
       <c r="AW4">
-        <v>0.0075606808</v>
+        <v>0.0026896708</v>
       </c>
       <c r="AX4">
-        <v>0.007566038866011442</v>
+        <v>0.002695172695222103</v>
       </c>
       <c r="AY4">
-        <v>6.936404403669724</v>
+        <v>2.208268308702792</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2621,19 +2621,19 @@
         <v>30</v>
       </c>
       <c r="BB4">
-        <v>145.9512993669503</v>
+        <v>145.9565715687178</v>
       </c>
       <c r="BC4">
-        <v>0.5485091305799562</v>
+        <v>0.5485212227191195</v>
       </c>
       <c r="BD4">
-        <v>51</v>
+        <v>63.80000000000001</v>
       </c>
       <c r="BE4">
-        <v>3.783019433005721</v>
+        <v>1.347586347611051</v>
       </c>
       <c r="BF4">
-        <v>6.941320060560956</v>
+        <v>2.212785464057555</v>
       </c>
     </row>
     <row r="5" spans="1:58" s="4" customFormat="1">
@@ -2773,10 +2773,10 @@
         <v>9.214034071936344E-08</v>
       </c>
       <c r="AT5" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV5" s="4" t="s">
         <v>116</v>
@@ -2946,22 +2946,22 @@
         <v>2.864471643850815E-08</v>
       </c>
       <c r="AT6">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV6">
-        <v>0.1095</v>
+        <v>0.1159</v>
       </c>
       <c r="AW6">
-        <v>0.0042488404</v>
+        <v>0.0023389926</v>
       </c>
       <c r="AX6">
-        <v>0.004223580025872897</v>
+        <v>0.002353196968169543</v>
       </c>
       <c r="AY6">
-        <v>3.880219543378996</v>
+        <v>2.018112683347713</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -2970,19 +2970,19 @@
         <v>47.5</v>
       </c>
       <c r="BB6">
-        <v>144.5192669028224</v>
+        <v>144.5218771154652</v>
       </c>
       <c r="BC6">
-        <v>0.4967763202000841</v>
+        <v>0.4967831862381769</v>
       </c>
       <c r="BD6">
-        <v>51.5</v>
+        <v>57.90000000000001</v>
       </c>
       <c r="BE6">
-        <v>2.111790012936448</v>
+        <v>1.176598484084771</v>
       </c>
       <c r="BF6">
-        <v>3.857150708559724</v>
+        <v>2.030368393588907</v>
       </c>
     </row>
     <row r="7" spans="1:58" s="4" customFormat="1">
@@ -3122,19 +3122,19 @@
         <v>8.56280635615745E-08</v>
       </c>
       <c r="AT7" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV7" s="4">
-        <v>643.7719</v>
+        <v>643.7896</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>117</v>
       </c>
       <c r="AX7" s="4">
-        <v>134.1990647908214</v>
+        <v>134.1991978658585</v>
       </c>
       <c r="AY7" s="4" t="s">
         <v>117</v>
@@ -3143,19 +3143,19 @@
         <v>25</v>
       </c>
       <c r="BB7" s="4">
-        <v>6.217573672677411</v>
+        <v>6.217884251111586</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BD7" s="4">
-        <v>643713.8999999999</v>
+        <v>643731.6</v>
       </c>
       <c r="BE7" s="4">
-        <v>67099.53239541067</v>
+        <v>67099.59893292925</v>
       </c>
       <c r="BF7" s="4">
-        <v>20.84574750634835</v>
+        <v>20.84519505531908</v>
       </c>
     </row>
     <row r="8" spans="1:58">
@@ -3295,22 +3295,22 @@
         <v>3.113027698680315E-08</v>
       </c>
       <c r="AT8">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>0.1252</v>
+        <v>0.1308</v>
       </c>
       <c r="AW8">
-        <v>0.0039730637</v>
+        <v>0.0025624011</v>
       </c>
       <c r="AX8">
-        <v>0.003994984004543229</v>
+        <v>0.002561699555639462</v>
       </c>
       <c r="AY8">
-        <v>3.173373562300319</v>
+        <v>1.959022247706422</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3319,19 +3319,19 @@
         <v>70</v>
       </c>
       <c r="BB8">
-        <v>144.5713307313099</v>
+        <v>144.5736154875932</v>
       </c>
       <c r="BC8">
-        <v>0.5466840964617444</v>
+        <v>0.5466913324908758</v>
       </c>
       <c r="BD8">
-        <v>67.2</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="BE8">
-        <v>1.997492002271614</v>
+        <v>1.280849777819731</v>
       </c>
       <c r="BF8">
-        <v>3.190881792766157</v>
+        <v>1.958485898806928</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1">
@@ -3471,19 +3471,19 @@
         <v>9.71600991929768E-08</v>
       </c>
       <c r="AT9" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV9" s="4">
-        <v>677.0855</v>
+        <v>677.1035000000001</v>
       </c>
       <c r="AW9" s="4" t="s">
         <v>117</v>
       </c>
       <c r="AX9" s="4">
-        <v>163.4756845041817</v>
+        <v>163.4758856607667</v>
       </c>
       <c r="AY9" s="4" t="s">
         <v>117</v>
@@ -3492,19 +3492,19 @@
         <v>25</v>
       </c>
       <c r="BB9" s="4">
-        <v>-5.428826399332455</v>
+        <v>-5.429102174865604</v>
       </c>
       <c r="BC9" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BD9" s="4">
-        <v>677027.5</v>
+        <v>677045.5</v>
       </c>
       <c r="BE9" s="4">
-        <v>81737.84225209084</v>
+        <v>81737.94283038336</v>
       </c>
       <c r="BF9" s="4">
-        <v>24.14402383512594</v>
+        <v>24.14341170305082</v>
       </c>
     </row>
     <row r="10" spans="1:58">
@@ -3644,22 +3644,22 @@
         <v>3.698014866505144E-08</v>
       </c>
       <c r="AT10">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV10">
-        <v>0.1039</v>
+        <v>0.1141</v>
       </c>
       <c r="AW10">
-        <v>0.0061021755</v>
+        <v>0.0025474073</v>
       </c>
       <c r="AX10">
-        <v>0.006154658983700317</v>
+        <v>0.002517656413905989</v>
       </c>
       <c r="AY10">
-        <v>5.873123676612127</v>
+        <v>2.232609377738826</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -3668,19 +3668,19 @@
         <v>83.5</v>
       </c>
       <c r="BB10">
-        <v>145.2324932322458</v>
+        <v>145.236673811475</v>
       </c>
       <c r="BC10">
-        <v>0.3792324722537137</v>
+        <v>0.3792365786174705</v>
       </c>
       <c r="BD10">
-        <v>45.90000000000001</v>
+        <v>56.09999999999999</v>
       </c>
       <c r="BE10">
-        <v>3.077329491850159</v>
+        <v>1.258828206952995</v>
       </c>
       <c r="BF10">
-        <v>5.923637135418977</v>
+        <v>2.206534981512699</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="4" customFormat="1">
@@ -3820,19 +3820,19 @@
         <v>9.391739876832926E-08</v>
       </c>
       <c r="AT11" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV11" s="4">
-        <v>619.2412</v>
+        <v>619.2592</v>
       </c>
       <c r="AW11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="AX11" s="4">
-        <v>117.4417698172055</v>
+        <v>117.4419798265753</v>
       </c>
       <c r="AY11" s="4" t="s">
         <v>117</v>
@@ -3841,19 +3841,19 @@
         <v>25</v>
       </c>
       <c r="BB11" s="4">
-        <v>-4.572859280836142</v>
+        <v>-4.573091574634732</v>
       </c>
       <c r="BC11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BD11" s="4">
-        <v>619183.2000000001</v>
+        <v>619201.2</v>
       </c>
       <c r="BE11" s="4">
-        <v>58720.88490860275</v>
+        <v>58720.98991328765</v>
       </c>
       <c r="BF11" s="4">
-        <v>18.96543218009485</v>
+        <v>18.96491482509672</v>
       </c>
     </row>
     <row r="12" spans="1:58">
@@ -3993,22 +3993,22 @@
         <v>2.887055531759094E-08</v>
       </c>
       <c r="AT12">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV12">
-        <v>0.1409</v>
+        <v>0.1464</v>
       </c>
       <c r="AW12">
-        <v>0.0044322208</v>
+        <v>0.0033849942</v>
       </c>
       <c r="AX12">
-        <v>0.004498523248781138</v>
+        <v>0.003341125105867086</v>
       </c>
       <c r="AY12">
-        <v>3.14564996451384</v>
+        <v>2.312154508196722</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4017,19 +4017,19 @@
         <v>100</v>
       </c>
       <c r="BB12">
-        <v>145.9724705622064</v>
+        <v>145.9747362666762</v>
       </c>
       <c r="BC12">
-        <v>0.4878857195201304</v>
+        <v>0.487891868488217</v>
       </c>
       <c r="BD12">
-        <v>82.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="BE12">
-        <v>2.249261624390569</v>
+        <v>1.670562552933543</v>
       </c>
       <c r="BF12">
-        <v>3.192706351157657</v>
+        <v>2.282189279963856</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="4" customFormat="1">
@@ -4169,19 +4169,19 @@
         <v>9.3071692415805E-08</v>
       </c>
       <c r="AT13" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV13" s="4">
-        <v>585.0262</v>
+        <v>585.0441</v>
       </c>
       <c r="AW13" s="4" t="s">
         <v>117</v>
       </c>
       <c r="AX13" s="4">
-        <v>78.41128433161153</v>
+        <v>78.41141306457126</v>
       </c>
       <c r="AY13" s="4" t="s">
         <v>117</v>
@@ -4190,19 +4190,19 @@
         <v>25</v>
       </c>
       <c r="BB13" s="4">
-        <v>-1.98506211056085</v>
+        <v>-1.985162388255983</v>
       </c>
       <c r="BC13" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BD13" s="4">
-        <v>584968.2000000001</v>
+        <v>584986.1</v>
       </c>
       <c r="BE13" s="4">
-        <v>39205.64216580577</v>
+        <v>39205.70653228563</v>
       </c>
       <c r="BF13" s="4">
-        <v>13.40303807446769</v>
+        <v>13.40264999930283</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4221,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>102</v>
@@ -4359,10 +4359,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>13.70097500561748</v>
+        <v>13700.97500561748</v>
       </c>
       <c r="D3" s="4">
-        <v>0.001458374275385301</v>
+        <v>1.458374275385301</v>
       </c>
       <c r="E3" s="4">
         <v>0.9284286765323656</v>
@@ -4415,10 +4415,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>2.88282512949779</v>
+        <v>2882.82512949779</v>
       </c>
       <c r="D4">
-        <v>0.000161942866384525</v>
+        <v>0.161942866384525</v>
       </c>
       <c r="E4">
         <v>0.164348706667991</v>
@@ -4451,16 +4451,16 @@
         <v>0.0041</v>
       </c>
       <c r="O4">
-        <v>0.109</v>
+        <v>0.1218</v>
       </c>
       <c r="P4">
-        <v>0.0075606808</v>
+        <v>0.0026896708</v>
       </c>
       <c r="Q4">
-        <v>145.9512993669503</v>
+        <v>145.9565715687178</v>
       </c>
       <c r="R4">
-        <v>0.5485091305799562</v>
+        <v>0.5485212227191195</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -4474,10 +4474,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>13.70133361959352</v>
+        <v>13701.33361959352</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001718790567296949</v>
+        <v>1.718790567296949</v>
       </c>
       <c r="E5" s="4">
         <v>0.9325466065987698</v>
@@ -4530,10 +4530,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>2.89421828608744</v>
+        <v>2894.21828608744</v>
       </c>
       <c r="D6">
-        <v>0.00017233764492007</v>
+        <v>0.17233764492007</v>
       </c>
       <c r="E6">
         <v>0.08175910603621016</v>
@@ -4566,16 +4566,16 @@
         <v>0.0042</v>
       </c>
       <c r="O6">
-        <v>0.1095</v>
+        <v>0.1159</v>
       </c>
       <c r="P6">
-        <v>0.0042488404</v>
+        <v>0.0023389926</v>
       </c>
       <c r="Q6">
-        <v>144.5192669028224</v>
+        <v>144.5218771154652</v>
       </c>
       <c r="R6">
-        <v>0.4967763202000841</v>
+        <v>0.4967831862381769</v>
       </c>
       <c r="S6">
         <v>47.5</v>
@@ -4589,10 +4589,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13.70341462188276</v>
+        <v>13703.41462188276</v>
       </c>
       <c r="D7" s="4">
-        <v>0.001771568459935945</v>
+        <v>1.771568459935945</v>
       </c>
       <c r="E7" s="4">
         <v>0.9421946537417234</v>
@@ -4625,13 +4625,13 @@
         <v>117</v>
       </c>
       <c r="O7" s="4">
-        <v>643.7719</v>
+        <v>643.7896</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Q7" s="4">
-        <v>6.217573672677411</v>
+        <v>6.217884251111586</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>117</v>
@@ -4645,10 +4645,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>2.755624061240332</v>
+        <v>2755.624061240333</v>
       </c>
       <c r="D8">
-        <v>0.0001972298652588728</v>
+        <v>0.1972298652588728</v>
       </c>
       <c r="E8">
         <v>0.06804359221735705</v>
@@ -4681,16 +4681,16 @@
         <v>0.0029</v>
       </c>
       <c r="O8">
-        <v>0.1252</v>
+        <v>0.1308</v>
       </c>
       <c r="P8">
-        <v>0.0039730637</v>
+        <v>0.0025624011</v>
       </c>
       <c r="Q8">
-        <v>144.5713307313099</v>
+        <v>144.5736154875932</v>
       </c>
       <c r="R8">
-        <v>0.5466840964617444</v>
+        <v>0.5466913324908758</v>
       </c>
       <c r="S8">
         <v>70</v>
@@ -4704,10 +4704,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>13.70225911091505</v>
+        <v>13702.25911091505</v>
       </c>
       <c r="D9" s="4">
-        <v>0.001644682893535193</v>
+        <v>1.644682893535193</v>
       </c>
       <c r="E9" s="4">
         <v>0.9463277604849375</v>
@@ -4740,13 +4740,13 @@
         <v>117</v>
       </c>
       <c r="O9" s="4">
-        <v>677.0855</v>
+        <v>677.1035000000001</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Q9" s="4">
-        <v>-5.428826399332455</v>
+        <v>-5.429102174865604</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>117</v>
@@ -4760,10 +4760,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>2.853925097618624</v>
+        <v>2853.925097618624</v>
       </c>
       <c r="D10">
-        <v>0.0001451901838312448</v>
+        <v>0.1451901838312447</v>
       </c>
       <c r="E10">
         <v>0.1291711212722189</v>
@@ -4796,16 +4796,16 @@
         <v>0.0055</v>
       </c>
       <c r="O10">
-        <v>0.1039</v>
+        <v>0.1141</v>
       </c>
       <c r="P10">
-        <v>0.0061021755</v>
+        <v>0.0025474073</v>
       </c>
       <c r="Q10">
-        <v>145.2324932322458</v>
+        <v>145.236673811475</v>
       </c>
       <c r="R10">
-        <v>0.3792324722537137</v>
+        <v>0.3792365786174705</v>
       </c>
       <c r="S10">
         <v>83.5</v>
@@ -4819,10 +4819,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>13.69724561754897</v>
+        <v>13697.24561754898</v>
       </c>
       <c r="D11" s="4">
-        <v>0.001369551974574979</v>
+        <v>1.369551974574979</v>
       </c>
       <c r="E11" s="4">
         <v>0.9469937115146677</v>
@@ -4855,13 +4855,13 @@
         <v>117</v>
       </c>
       <c r="O11" s="4">
-        <v>619.2412</v>
+        <v>619.2592</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Q11" s="4">
-        <v>-4.572859280836142</v>
+        <v>-4.573091574634732</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>117</v>
@@ -4875,10 +4875,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>2.734903355941235</v>
+        <v>2734.903355941235</v>
       </c>
       <c r="D12">
-        <v>0.0001758825416109763</v>
+        <v>0.1758825416109763</v>
       </c>
       <c r="E12">
         <v>0.06643871873194153</v>
@@ -4911,16 +4911,16 @@
         <v>0.0045</v>
       </c>
       <c r="O12">
-        <v>0.1409</v>
+        <v>0.1464</v>
       </c>
       <c r="P12">
-        <v>0.0044322208</v>
+        <v>0.0033849942</v>
       </c>
       <c r="Q12">
-        <v>145.9724705622064</v>
+        <v>145.9747362666762</v>
       </c>
       <c r="R12">
-        <v>0.4878857195201304</v>
+        <v>0.487891868488217</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4934,10 +4934,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13.69812341384287</v>
+        <v>13698.12341384287</v>
       </c>
       <c r="D13" s="4">
-        <v>0.001565772142177248</v>
+        <v>1.565772142177249</v>
       </c>
       <c r="E13" s="4">
         <v>0.9435030793968748</v>
@@ -4970,13 +4970,13 @@
         <v>117</v>
       </c>
       <c r="O13" s="4">
-        <v>585.0262</v>
+        <v>585.0441</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Q13" s="4">
-        <v>-1.98506211056085</v>
+        <v>-1.985162388255983</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>117</v>

--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -1941,7 +1941,7 @@
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="20.7109375" customWidth="1"/>
-    <col min="55" max="55" width="19.7109375" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
@@ -2606,13 +2606,13 @@
         <v>0.1218</v>
       </c>
       <c r="AW4">
-        <v>0.0026896708</v>
+        <v>0.0027272113</v>
       </c>
       <c r="AX4">
         <v>0.002695172695222103</v>
       </c>
       <c r="AY4">
-        <v>2.208268308702792</v>
+        <v>2.23908973727422</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2624,7 +2624,7 @@
         <v>145.9565715687178</v>
       </c>
       <c r="BC4">
-        <v>0.5485212227191195</v>
+        <v>0.5485212541680431</v>
       </c>
       <c r="BD4">
         <v>63.80000000000001</v>
@@ -2934,10 +2934,10 @@
         <v>0.1166</v>
       </c>
       <c r="AP6">
-        <v>0.0042</v>
+        <v>0.0041</v>
       </c>
       <c r="AQ6">
-        <v>3.602058319039451</v>
+        <v>3.516295025728988</v>
       </c>
       <c r="AR6">
         <v>9.243171727785967E-06</v>
@@ -2955,13 +2955,13 @@
         <v>0.1159</v>
       </c>
       <c r="AW6">
-        <v>0.0023389926</v>
+        <v>0.0023770292</v>
       </c>
       <c r="AX6">
         <v>0.002353196968169543</v>
       </c>
       <c r="AY6">
-        <v>2.018112683347713</v>
+        <v>2.050931147540984</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -2973,7 +2973,7 @@
         <v>144.5218771154652</v>
       </c>
       <c r="BC6">
-        <v>0.4967831862381769</v>
+        <v>0.4967832162699013</v>
       </c>
       <c r="BD6">
         <v>57.90000000000001</v>
@@ -3283,10 +3283,10 @@
         <v>0.1313</v>
       </c>
       <c r="AP8">
-        <v>0.0029</v>
+        <v>0.0028</v>
       </c>
       <c r="AQ8">
-        <v>2.208682406702208</v>
+        <v>2.132520944402132</v>
       </c>
       <c r="AR8">
         <v>8.079480474611969E-06</v>
@@ -3304,13 +3304,13 @@
         <v>0.1308</v>
       </c>
       <c r="AW8">
-        <v>0.0025624011</v>
+        <v>0.0025708419</v>
       </c>
       <c r="AX8">
         <v>0.002561699555639462</v>
       </c>
       <c r="AY8">
-        <v>1.959022247706422</v>
+        <v>1.965475458715596</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3322,7 +3322,7 @@
         <v>144.5736154875932</v>
       </c>
       <c r="BC8">
-        <v>0.5466913324908758</v>
+        <v>0.5466913390873795</v>
       </c>
       <c r="BD8">
         <v>72.80000000000001</v>
@@ -3632,10 +3632,10 @@
         <v>0.1151</v>
       </c>
       <c r="AP10">
-        <v>0.0055</v>
+        <v>0.0054</v>
       </c>
       <c r="AQ10">
-        <v>4.778453518679409</v>
+        <v>4.691572545612511</v>
       </c>
       <c r="AR10">
         <v>1.480945340168126E-05</v>
@@ -3653,13 +3653,13 @@
         <v>0.1141</v>
       </c>
       <c r="AW10">
-        <v>0.0025474073</v>
+        <v>0.0025160596</v>
       </c>
       <c r="AX10">
         <v>0.002517656413905989</v>
       </c>
       <c r="AY10">
-        <v>2.232609377738826</v>
+        <v>2.205135495179667</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -3671,7 +3671,7 @@
         <v>145.236673811475</v>
       </c>
       <c r="BC10">
-        <v>0.3792365786174705</v>
+        <v>0.379236543461545</v>
       </c>
       <c r="BD10">
         <v>56.09999999999999</v>
@@ -4002,13 +4002,13 @@
         <v>0.1464</v>
       </c>
       <c r="AW12">
-        <v>0.0033849942</v>
+        <v>0.0033822877</v>
       </c>
       <c r="AX12">
         <v>0.003341125105867086</v>
       </c>
       <c r="AY12">
-        <v>2.312154508196722</v>
+        <v>2.310305806010929</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>145.9747362666762</v>
       </c>
       <c r="BC12">
-        <v>0.487891868488217</v>
+        <v>0.487891865302871</v>
       </c>
       <c r="BD12">
         <v>88.40000000000001</v>
@@ -4235,7 +4235,7 @@
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4454,13 +4454,13 @@
         <v>0.1218</v>
       </c>
       <c r="P4">
-        <v>0.0026896708</v>
+        <v>0.0027272113</v>
       </c>
       <c r="Q4">
         <v>145.9565715687178</v>
       </c>
       <c r="R4">
-        <v>0.5485212227191195</v>
+        <v>0.5485212541680431</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -4563,19 +4563,19 @@
         <v>0.1166</v>
       </c>
       <c r="N6">
-        <v>0.0042</v>
+        <v>0.0041</v>
       </c>
       <c r="O6">
         <v>0.1159</v>
       </c>
       <c r="P6">
-        <v>0.0023389926</v>
+        <v>0.0023770292</v>
       </c>
       <c r="Q6">
         <v>144.5218771154652</v>
       </c>
       <c r="R6">
-        <v>0.4967831862381769</v>
+        <v>0.4967832162699013</v>
       </c>
       <c r="S6">
         <v>47.5</v>
@@ -4678,19 +4678,19 @@
         <v>0.1313</v>
       </c>
       <c r="N8">
-        <v>0.0029</v>
+        <v>0.0028</v>
       </c>
       <c r="O8">
         <v>0.1308</v>
       </c>
       <c r="P8">
-        <v>0.0025624011</v>
+        <v>0.0025708419</v>
       </c>
       <c r="Q8">
         <v>144.5736154875932</v>
       </c>
       <c r="R8">
-        <v>0.5466913324908758</v>
+        <v>0.5466913390873795</v>
       </c>
       <c r="S8">
         <v>70</v>
@@ -4793,19 +4793,19 @@
         <v>0.1151</v>
       </c>
       <c r="N10">
-        <v>0.0055</v>
+        <v>0.0054</v>
       </c>
       <c r="O10">
         <v>0.1141</v>
       </c>
       <c r="P10">
-        <v>0.0025474073</v>
+        <v>0.0025160596</v>
       </c>
       <c r="Q10">
         <v>145.236673811475</v>
       </c>
       <c r="R10">
-        <v>0.3792365786174705</v>
+        <v>0.379236543461545</v>
       </c>
       <c r="S10">
         <v>83.5</v>
@@ -4914,13 +4914,13 @@
         <v>0.1464</v>
       </c>
       <c r="P12">
-        <v>0.0033849942</v>
+        <v>0.0033822877</v>
       </c>
       <c r="Q12">
         <v>145.9747362666762</v>
       </c>
       <c r="R12">
-        <v>0.487891868488217</v>
+        <v>0.487891865302871</v>
       </c>
       <c r="S12">
         <v>100</v>

--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Constants" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="165">
   <si>
     <t>Lab. #</t>
   </si>
@@ -117,37 +118,7 @@
     <t>Koralle</t>
   </si>
   <si>
-    <t>007C10815.exp</t>
-  </si>
-  <si>
-    <t>010C10989.exp</t>
-  </si>
-  <si>
-    <t>013C10815.exp</t>
-  </si>
-  <si>
-    <t>016C10990.exp</t>
-  </si>
-  <si>
-    <t>019C10815.exp</t>
-  </si>
-  <si>
-    <t>022C10991.exp</t>
-  </si>
-  <si>
-    <t>025C10815.exp</t>
-  </si>
-  <si>
-    <t>028C10992.exp</t>
-  </si>
-  <si>
-    <t>031C10815.exp</t>
-  </si>
-  <si>
-    <t>034C10993.exp</t>
-  </si>
-  <si>
-    <t>037C10815.exp</t>
+    <t>10.02.2021</t>
   </si>
   <si>
     <t>gem.</t>
@@ -322,6 +293,12 @@
   </si>
   <si>
     <t>2sig/t</t>
+  </si>
+  <si>
+    <t>Unkorr. Montefehler Erfolgsrate</t>
+  </si>
+  <si>
+    <t>Korr. Montefehler Erfolgsrate</t>
   </si>
   <si>
     <t>(abso.)</t>
@@ -514,6 +491,120 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>R34_33</t>
+  </si>
+  <si>
+    <t>R35_33</t>
+  </si>
+  <si>
+    <t>R30_29</t>
+  </si>
+  <si>
+    <t>mf48</t>
+  </si>
+  <si>
+    <t>mf36</t>
+  </si>
+  <si>
+    <t>mf56</t>
+  </si>
+  <si>
+    <t>mf68</t>
+  </si>
+  <si>
+    <t>mf92</t>
+  </si>
+  <si>
+    <t>mf38</t>
+  </si>
+  <si>
+    <t>mf35</t>
+  </si>
+  <si>
+    <t>mf43</t>
+  </si>
+  <si>
+    <t>mf45</t>
+  </si>
+  <si>
+    <t>mf09</t>
+  </si>
+  <si>
+    <t>mf29</t>
+  </si>
+  <si>
+    <t>mf34</t>
+  </si>
+  <si>
+    <t>mf58</t>
+  </si>
+  <si>
+    <t>mf02</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NR85</t>
+  </si>
+  <si>
+    <t>cps</t>
+  </si>
+  <si>
+    <t>slope229Correction</t>
+  </si>
+  <si>
+    <t>lambda232</t>
+  </si>
+  <si>
+    <t>lambda234</t>
+  </si>
+  <si>
+    <t>lambda238</t>
+  </si>
+  <si>
+    <t>lambda230</t>
+  </si>
+  <si>
+    <t>trisp236</t>
+  </si>
+  <si>
+    <t>trisp233</t>
+  </si>
+  <si>
+    <t>trisp229</t>
+  </si>
+  <si>
+    <t>blank234</t>
+  </si>
+  <si>
+    <t>blank234S</t>
+  </si>
+  <si>
+    <t>blank238</t>
+  </si>
+  <si>
+    <t>blank238S</t>
+  </si>
+  <si>
+    <t>blank232</t>
+  </si>
+  <si>
+    <t>blank232S</t>
+  </si>
+  <si>
+    <t>chBlank230</t>
+  </si>
+  <si>
+    <t>chBlank230S</t>
+  </si>
+  <si>
+    <t>a230232_init</t>
+  </si>
+  <si>
+    <t>a230232_init_err</t>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,13 +640,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDB310"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,9 +687,13 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -586,18 +702,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -905,28 +1024,27 @@
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,178 +1066,174 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1">
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="4" customFormat="1">
-      <c r="A3" s="4">
+    <row r="2" spans="1:25" s="2" customFormat="1">
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="3" customFormat="1">
+      <c r="A3" s="3">
         <v>10815</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>0.009947044687815326</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>0.7011526860997377</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.00714433689233078</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.007046489093913378</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="J3" s="3">
+        <v>0.007144296897712548</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.007417903189274322</v>
+      </c>
+      <c r="L3" s="3">
         <v>2.732204386789063</v>
       </c>
-      <c r="N3" s="4">
+      <c r="M3" s="3">
         <v>0.01064431016615503</v>
       </c>
-      <c r="O3" s="4">
-        <v>2.082960841733835</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.6365650677998222</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.00756863612888841</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.1671898113278986</v>
-      </c>
-      <c r="S3" s="4">
-        <v>5.489252419759365E-05</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0.1671898113278987</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1.324584322994288</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.3409000047751028</v>
-      </c>
-      <c r="W3" s="4">
+      <c r="N3" s="3">
+        <v>2.083253286508519</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.6590415179803142</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.007567191028275208</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.1481087536733177</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5.488204341624448E-05</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.1481087536733174</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.325488815396536</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.3215822963079741</v>
+      </c>
+      <c r="V3" s="3">
         <v>0.1838227800153526</v>
       </c>
-      <c r="X3" s="4">
+      <c r="W3" s="3">
         <v>0.4667233759767803</v>
       </c>
-      <c r="Y3" s="4">
-        <v>0.2425652817721227</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0.32695342528132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="X3" s="3">
+        <v>0.2425649162228197</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.3269535019506545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>10989</v>
       </c>
@@ -1129,6 +1243,9 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
       <c r="E4">
         <v>30</v>
       </c>
@@ -1138,139 +1255,136 @@
       <c r="G4">
         <v>0.1034800000000011</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
+      <c r="H4">
+        <v>0.009972045011614569</v>
       </c>
       <c r="I4">
-        <v>0.009972045011614569</v>
+        <v>0.2646377242004547</v>
       </c>
       <c r="J4">
-        <v>0.2646377242004547</v>
+        <v>0.007130189652224251</v>
       </c>
       <c r="K4">
-        <v>0.007130189652224251</v>
+        <v>0.003500697815570997</v>
       </c>
       <c r="L4">
-        <v>0.003500697815570997</v>
+        <v>5.185689931824315</v>
       </c>
       <c r="M4">
-        <v>5.1856942063239</v>
+        <v>0.005759621605348021</v>
       </c>
       <c r="N4">
-        <v>0.005617505714359325</v>
+        <v>4.506651131411997</v>
       </c>
       <c r="O4">
-        <v>4.506651131411997</v>
+        <v>0.2743973420444351</v>
       </c>
       <c r="P4">
-        <v>0.2743973420444351</v>
+        <v>0.008672779026085535</v>
       </c>
       <c r="Q4">
-        <v>0.008672779026085535</v>
+        <v>0.04785134195379109</v>
       </c>
       <c r="R4">
-        <v>0.04785134195379109</v>
+        <v>6.290046508282891E-05</v>
       </c>
       <c r="S4">
-        <v>6.290046508282891E-05</v>
+        <v>0.0478513419537915</v>
       </c>
       <c r="T4">
-        <v>0.0478513419537915</v>
+        <v>0.003275356462361479</v>
       </c>
       <c r="U4">
-        <v>0.0032773447034385</v>
+        <v>2.119924914268915</v>
       </c>
       <c r="V4">
-        <v>2.118638886166868</v>
+        <v>0.09733120204652208</v>
       </c>
       <c r="W4">
-        <v>0.09736895715369355</v>
+        <v>0.2060866016614308</v>
       </c>
       <c r="X4">
-        <v>0.198702951628399</v>
+        <v>0.0003203543385384721</v>
       </c>
       <c r="Y4">
-        <v>0.0003205476770501719</v>
-      </c>
-      <c r="Z4">
-        <v>2.018904390208913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="4" customFormat="1">
-      <c r="A5" s="4">
+        <v>2.020137790100577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>10815</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.01002745745125579</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.8834914352253984</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="H5" s="3">
+        <v>0.0100170998366197</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.8474172615102259</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.007140668033343761</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="3">
         <v>0.006578733621411427</v>
       </c>
-      <c r="M5" s="4">
-        <v>2.732275900435217</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.01254469539256384</v>
-      </c>
-      <c r="O5" s="4">
-        <v>2.071877261004955</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.8536139860979418</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.007568340055058053</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.1847519460978394</v>
-      </c>
-      <c r="S5" s="4">
-        <v>5.489037688338532E-05</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0.18475194609784</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1.323333400550307</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.2852824024570378</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.1830110572045474</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0.413548279079566</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0.2414264833758018</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0.3636863292778187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="L5" s="3">
+        <v>2.732303424305919</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.01120578579880862</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.073822321355093</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.8201294338742942</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.007564028248501297</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.1745364945928616</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5.485910494195209E-05</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.1745364945928622</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.323289409733625</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.2736660921300703</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.1830152333401183</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.3958132555503516</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.2414261194212968</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.3636864051450315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>10990</v>
       </c>
@@ -1280,6 +1394,9 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
       <c r="E6">
         <v>47.5</v>
       </c>
@@ -1289,139 +1406,136 @@
       <c r="G6">
         <v>0.1023200000000006</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
+      <c r="H6">
+        <v>0.01000467291249881</v>
       </c>
       <c r="I6">
-        <v>0.01000467291249881</v>
+        <v>0.2852668181071359</v>
       </c>
       <c r="J6">
-        <v>0.2852668181071359</v>
+        <v>0.007126501298762527</v>
       </c>
       <c r="K6">
-        <v>0.007126501298762527</v>
+        <v>0.002583034550051453</v>
       </c>
       <c r="L6">
-        <v>0.002583034550051453</v>
+        <v>4.708247072845213</v>
       </c>
       <c r="M6">
-        <v>4.708247072845213</v>
+        <v>0.005954548962270751</v>
       </c>
       <c r="N6">
-        <v>0.005954548962270751</v>
+        <v>4.082557419361147</v>
       </c>
       <c r="O6">
-        <v>4.082557419361147</v>
+        <v>0.2854149612861608</v>
       </c>
       <c r="P6">
-        <v>0.2854149612861608</v>
+        <v>0.008672337026833031</v>
       </c>
       <c r="Q6">
-        <v>0.008672337026833031</v>
+        <v>0.04339282011123668</v>
       </c>
       <c r="R6">
-        <v>0.04339282011123668</v>
+        <v>6.289725942539605E-05</v>
       </c>
       <c r="S6">
-        <v>6.289725942539605E-05</v>
+        <v>0.04339282011123644</v>
       </c>
       <c r="T6">
-        <v>0.04339282011123644</v>
+        <v>0.002818224514931116</v>
       </c>
       <c r="U6">
-        <v>0.002813531792510626</v>
+        <v>1.876895080002627</v>
       </c>
       <c r="V6">
-        <v>1.997515402124657</v>
+        <v>0.1814969380218558</v>
       </c>
       <c r="W6">
-        <v>0.1814969380218558</v>
+        <v>0.3098441651051433</v>
       </c>
       <c r="X6">
-        <v>0.3098441651051433</v>
+        <v>0.000512323621250908</v>
       </c>
       <c r="Y6">
-        <v>0.0005110649611273431</v>
-      </c>
-      <c r="Z6">
-        <v>2.008083298503632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="4" customFormat="1">
-      <c r="A7" s="4">
+        <v>1.970959586851783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>10815</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="3">
         <v>0.009819163185528878</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
         <v>0.7005947876739393</v>
       </c>
-      <c r="K7" s="4">
+      <c r="J7" s="3">
         <v>0.007141390746544888</v>
       </c>
-      <c r="L7" s="4">
+      <c r="K7" s="3">
         <v>0.006793854199901772</v>
       </c>
-      <c r="M7" s="4">
+      <c r="L7" s="3">
         <v>2.732690887221285</v>
       </c>
-      <c r="N7" s="4">
+      <c r="M7" s="3">
         <v>0.01292793445151222</v>
       </c>
-      <c r="O7" s="4">
+      <c r="N7" s="3">
         <v>2.105568368409784</v>
       </c>
-      <c r="P7" s="4">
+      <c r="O7" s="3">
         <v>0.6878737296271061</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="3">
         <v>0.007586800849637246</v>
       </c>
-      <c r="R7" s="4">
+      <c r="Q7" s="3">
         <v>0.179763795154828</v>
       </c>
-      <c r="S7" s="4">
+      <c r="R7" s="3">
         <v>5.50242662124386E-05</v>
       </c>
-      <c r="T7" s="4">
+      <c r="S7" s="3">
         <v>0.1797637951548278</v>
       </c>
-      <c r="U7" s="4">
-        <v>1.322200220349557</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0.2209736404250356</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="T7" s="3">
+        <v>1.32219823094449</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.2209739728222805</v>
+      </c>
+      <c r="V7" s="3">
         <v>0.1811370290506207</v>
       </c>
-      <c r="X7" s="4">
+      <c r="W7" s="3">
         <v>0.3803973243849685</v>
       </c>
-      <c r="Y7" s="4">
-        <v>0.239667028579765</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0.3656704039744018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="X7" s="3">
+        <v>0.2396666663667818</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.3656704898636055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>10991</v>
       </c>
@@ -1431,6 +1545,9 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
       <c r="E8">
         <v>70</v>
       </c>
@@ -1440,139 +1557,136 @@
       <c r="G8">
         <v>0.103159999999999</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
+      <c r="H8">
+        <v>0.009976845361061415</v>
       </c>
       <c r="I8">
-        <v>0.009974392941727757</v>
+        <v>0.3297874133506366</v>
       </c>
       <c r="J8">
-        <v>0.3399342746653213</v>
+        <v>0.007131295183894645</v>
       </c>
       <c r="K8">
-        <v>0.007131295183894645</v>
+        <v>0.002895902575613672</v>
       </c>
       <c r="L8">
-        <v>0.002895902575613672</v>
+        <v>5.448072697317903</v>
       </c>
       <c r="M8">
-        <v>5.448072697317903</v>
+        <v>0.007157357494189458</v>
       </c>
       <c r="N8">
-        <v>0.007157357494189458</v>
+        <v>4.748892358965405</v>
       </c>
       <c r="O8">
-        <v>4.748892358965405</v>
+        <v>0.3484447245712958</v>
       </c>
       <c r="P8">
-        <v>0.3484447245712958</v>
+        <v>0.008675379729601508</v>
       </c>
       <c r="Q8">
-        <v>0.008675379729601508</v>
+        <v>0.04774826555039882</v>
       </c>
       <c r="R8">
-        <v>0.04774826555039882</v>
+        <v>6.291932702548944E-05</v>
       </c>
       <c r="S8">
-        <v>6.291932702548944E-05</v>
+        <v>0.04774826555039949</v>
       </c>
       <c r="T8">
-        <v>0.04774826555039949</v>
+        <v>0.003639453782854304</v>
       </c>
       <c r="U8">
-        <v>0.003654896968490784</v>
+        <v>1.822070429031099</v>
       </c>
       <c r="V8">
-        <v>1.936336394570503</v>
+        <v>0.1804577480367137</v>
       </c>
       <c r="W8">
-        <v>0.1804577480367137</v>
+        <v>0.3852339957965794</v>
       </c>
       <c r="X8">
-        <v>0.3852339957965794</v>
+        <v>0.0006632840911626782</v>
       </c>
       <c r="Y8">
-        <v>0.0006636456736421185</v>
-      </c>
-      <c r="Z8">
-        <v>1.939710498005037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="4" customFormat="1">
-      <c r="A9" s="4">
+        <v>1.940759177824897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>10815</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4">
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="3">
         <v>0.009907802217358631</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
         <v>0.8951896101869951</v>
       </c>
-      <c r="K9" s="4">
+      <c r="J9" s="3">
         <v>0.007144998928039134</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K9" s="3">
         <v>0.008766109761841652</v>
       </c>
-      <c r="M9" s="4">
+      <c r="L9" s="3">
         <v>2.732460458939089</v>
       </c>
-      <c r="N9" s="4">
+      <c r="M9" s="3">
         <v>0.01200300534548393</v>
       </c>
-      <c r="O9" s="4">
+      <c r="N9" s="3">
         <v>2.089621996132539</v>
       </c>
-      <c r="P9" s="4">
+      <c r="O9" s="3">
         <v>0.8525647439070897</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="3">
         <v>0.007573052647626605</v>
       </c>
-      <c r="R9" s="4">
+      <c r="Q9" s="3">
         <v>0.1332466977878208</v>
       </c>
-      <c r="S9" s="4">
+      <c r="R9" s="3">
         <v>5.492455557782874E-05</v>
       </c>
-      <c r="T9" s="4">
+      <c r="S9" s="3">
         <v>0.133246697787821</v>
       </c>
-      <c r="U9" s="4">
-        <v>1.319624247369094</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0.2325179417830537</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="T9" s="3">
+        <v>1.319622257679337</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.2325182917524557</v>
+      </c>
+      <c r="V9" s="3">
         <v>0.1803459092003151</v>
       </c>
-      <c r="X9" s="4">
+      <c r="W9" s="3">
         <v>0.4297868006133961</v>
       </c>
-      <c r="Y9" s="4">
-        <v>0.2382822709433621</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0.3670470559826737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="X9" s="3">
+        <v>0.2382819122323587</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.3670471312898169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>10992</v>
       </c>
@@ -1582,6 +1696,9 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
       <c r="E10">
         <v>83.5</v>
       </c>
@@ -1591,139 +1708,136 @@
       <c r="G10">
         <v>0.1031999999999993</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
+      <c r="H10">
+        <v>0.00998226392451965</v>
       </c>
       <c r="I10">
-        <v>0.009984642247515869</v>
+        <v>0.3367852707192005</v>
       </c>
       <c r="J10">
-        <v>0.3249150038569073</v>
+        <v>0.007129198117649794</v>
       </c>
       <c r="K10">
-        <v>0.007129198117649794</v>
+        <v>0.002259488923487795</v>
       </c>
       <c r="L10">
-        <v>0.002259488923487795</v>
+        <v>5.407817424515519</v>
       </c>
       <c r="M10">
-        <v>5.407817424515519</v>
+        <v>0.005087385928677475</v>
       </c>
       <c r="N10">
-        <v>0.005087385928677475</v>
+        <v>4.698652581306738</v>
       </c>
       <c r="O10">
-        <v>4.698260018102006</v>
+        <v>0.3404243708834113</v>
       </c>
       <c r="P10">
-        <v>0.3272789772884239</v>
+        <v>0.008672415110885429</v>
       </c>
       <c r="Q10">
-        <v>0.008672612489439223</v>
+        <v>0.03156690073271559</v>
       </c>
       <c r="R10">
-        <v>0.0331048189689242</v>
+        <v>6.28978257402066E-05</v>
       </c>
       <c r="S10">
-        <v>6.289925725400325E-05</v>
+        <v>0.03156690073271488</v>
       </c>
       <c r="T10">
-        <v>0.03310481896892375</v>
+        <v>0.003179041188988946</v>
       </c>
       <c r="U10">
-        <v>0.003181029449791472</v>
+        <v>2.1377126504212</v>
       </c>
       <c r="V10">
-        <v>2.136376476475425</v>
+        <v>0.1138978916414677</v>
       </c>
       <c r="W10">
-        <v>0.1138978916414677</v>
+        <v>0.2496545418348033</v>
       </c>
       <c r="X10">
-        <v>0.2496545418348033</v>
+        <v>0.0003620849407583208</v>
       </c>
       <c r="Y10">
-        <v>0.0003632314580999754</v>
-      </c>
-      <c r="Z10">
-        <v>2.136083829830561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="4" customFormat="1">
-      <c r="A11" s="4">
+        <v>2.044010697369161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>10815</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="3">
         <v>0.009841760080815906</v>
       </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
         <v>0.8798385627668116</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="3">
         <v>0.007144257730818516</v>
       </c>
-      <c r="L11" s="4">
+      <c r="K11" s="3">
         <v>0.005991626464188845</v>
       </c>
-      <c r="M11" s="4">
+      <c r="L11" s="3">
         <v>2.731460684210479</v>
       </c>
-      <c r="N11" s="4">
+      <c r="M11" s="3">
         <v>0.009998739986237109</v>
       </c>
-      <c r="O11" s="4">
+      <c r="N11" s="3">
         <v>2.112603635307891</v>
       </c>
-      <c r="P11" s="4">
+      <c r="O11" s="3">
         <v>0.9213030659910797</v>
       </c>
-      <c r="Q11" s="4">
-        <v>0.007573103237266384</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.192809171252707</v>
-      </c>
-      <c r="S11" s="4">
-        <v>5.4924922485813E-05</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0.1928091712527066</v>
-      </c>
-      <c r="U11" s="4">
-        <v>1.317301608640938</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.2453966400949428</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="P11" s="3">
+        <v>0.007567712224173581</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.1816623263845749</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5.488582345771776E-05</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.181662326384575</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1.317214722714466</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.2582171694122649</v>
+      </c>
+      <c r="V11" s="3">
         <v>0.1802190851860907</v>
       </c>
-      <c r="X11" s="4">
+      <c r="W11" s="3">
         <v>0.4150400840242146</v>
       </c>
-      <c r="Y11" s="4">
-        <v>0.2367855739726799</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0.4260307905930146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="X11" s="3">
+        <v>0.2367852110607417</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.4260308980406651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>10993</v>
       </c>
@@ -1733,6 +1847,9 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
       <c r="E12">
         <v>100</v>
       </c>
@@ -1742,136 +1859,133 @@
       <c r="G12">
         <v>0.1015200000000007</v>
       </c>
-      <c r="H12" t="s">
-        <v>42</v>
+      <c r="H12">
+        <v>0.01001695123005385</v>
       </c>
       <c r="I12">
-        <v>0.01001695123005385</v>
+        <v>0.3568233649279627</v>
       </c>
       <c r="J12">
-        <v>0.3568233649279627</v>
+        <v>0.007133268262085691</v>
       </c>
       <c r="K12">
-        <v>0.007133268262085691</v>
+        <v>0.003443382786207898</v>
       </c>
       <c r="L12">
-        <v>0.003443382786207898</v>
+        <v>4.530725630443185</v>
       </c>
       <c r="M12">
-        <v>4.530725630443185</v>
+        <v>0.006431033156213491</v>
       </c>
       <c r="N12">
-        <v>0.006431033156213491</v>
+        <v>3.925903402007213</v>
       </c>
       <c r="O12">
-        <v>3.925903402007213</v>
+        <v>0.3577868050430094</v>
       </c>
       <c r="P12">
-        <v>0.3577868050430094</v>
+        <v>0.008679933738589246</v>
       </c>
       <c r="Q12">
-        <v>0.008679933738589246</v>
+        <v>0.04255887954161763</v>
       </c>
       <c r="R12">
-        <v>0.04255887954161763</v>
+        <v>6.295235557175569E-05</v>
       </c>
       <c r="S12">
-        <v>6.295235557175569E-05</v>
+        <v>0.04255887954161741</v>
       </c>
       <c r="T12">
-        <v>0.04255887954161741</v>
+        <v>0.003396968616918185</v>
       </c>
       <c r="U12">
-        <v>0.003398957315546118</v>
+        <v>2.26423125468954</v>
       </c>
       <c r="V12">
-        <v>2.262906505247554</v>
+        <v>0.2061483249746852</v>
       </c>
       <c r="W12">
-        <v>0.2062557903627206</v>
+        <v>0.3523134073429333</v>
       </c>
       <c r="X12">
-        <v>0.36315465493538</v>
+        <v>0.0007049510064866325</v>
       </c>
       <c r="Y12">
-        <v>0.0007053640786390493</v>
-      </c>
-      <c r="Z12">
-        <v>2.296267033740035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="4" customFormat="1">
-      <c r="A13" s="4">
+        <v>2.297564997300947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>10815</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3">
         <v>1.10995</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>10.34908</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="3">
         <v>0.009956225754944125</v>
       </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
         <v>0.8089106848440023</v>
       </c>
-      <c r="K13" s="4">
-        <v>0.007145723959401584</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.006293223271456397</v>
-      </c>
-      <c r="M13" s="4">
+      <c r="J13" s="3">
+        <v>0.007145697660176736</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.006052072924899333</v>
+      </c>
+      <c r="L13" s="3">
         <v>2.731635731525279</v>
       </c>
-      <c r="N13" s="4">
+      <c r="M13" s="3">
         <v>0.01143055946331255</v>
       </c>
-      <c r="O13" s="4">
+      <c r="N13" s="3">
         <v>2.081859566530355</v>
       </c>
-      <c r="P13" s="4">
+      <c r="O13" s="3">
         <v>0.8463572318815002</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="P13" s="3">
         <v>0.007576254237845626</v>
       </c>
-      <c r="R13" s="4">
+      <c r="Q13" s="3">
         <v>0.1504506050698992</v>
       </c>
-      <c r="S13" s="4">
+      <c r="R13" s="3">
         <v>5.494777552995428E-05</v>
       </c>
-      <c r="T13" s="4">
+      <c r="S13" s="3">
         <v>0.1504506050698995</v>
       </c>
-      <c r="U13" s="4">
-        <v>1.316501864523344</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0.2613398733591065</v>
-      </c>
-      <c r="W13" s="4">
+      <c r="T13" s="3">
+        <v>1.317266026380881</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.245071663026405</v>
+      </c>
+      <c r="V13" s="3">
         <v>0.180885832906079</v>
       </c>
-      <c r="X13" s="4">
+      <c r="W13" s="3">
         <v>0.4128124328530886</v>
       </c>
-      <c r="Y13" s="4">
-        <v>0.238338541222346</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0.4768269205556759</v>
+      <c r="X13" s="3">
+        <v>0.2384620925124516</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.4561006561394234</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF13"/>
+  <dimension ref="A1:BH13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,9 +2020,9 @@
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" customWidth="1"/>
     <col min="25" max="25" width="23.7109375" customWidth="1"/>
@@ -1918,7 +2032,7 @@
     <col min="29" max="29" width="21.7109375" customWidth="1"/>
     <col min="30" max="30" width="22.7109375" customWidth="1"/>
     <col min="31" max="31" width="22.7109375" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" customWidth="1"/>
+    <col min="32" max="32" width="23.7109375" customWidth="1"/>
     <col min="33" max="33" width="19.7109375" customWidth="1"/>
     <col min="34" max="34" width="19.7109375" customWidth="1"/>
     <col min="35" max="35" width="20.7109375" customWidth="1"/>
@@ -1935,19 +2049,21 @@
     <col min="46" max="46" width="18.7109375" customWidth="1"/>
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="22.7109375" customWidth="1"/>
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
-    <col min="54" max="54" width="20.7109375" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" customWidth="1"/>
     <col min="55" max="55" width="20.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
+    <col min="59" max="59" width="32.7109375" customWidth="1"/>
+    <col min="60" max="60" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1">
+    <row r="1" spans="1:60" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,512 +2071,530 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="2" customFormat="1">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="P2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" s="3" customFormat="1">
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="T2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" s="3" customFormat="1">
+      <c r="A3" s="3">
+        <v>10815</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.083253286508519</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.01372950408278053</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.732204386789063</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.000290824309303122</v>
+      </c>
+      <c r="G3" s="3">
+        <v>376.7190730548629</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.02794465613474133</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>752.1326473605611</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.956866416390565</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10.3842699340433</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.06843665020449234</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>13.70097500561748</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.001458374275385301</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10.2228217082537</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.001088148850359553</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.9984233324302783</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.001478752354046088</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.9984233324302783</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.001478752354046088</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.9284286765323656</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.004333193662648399</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.0002266647728155078</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1.057897479834637E-06</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>224.2617063946701</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.7211859451634269</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>10.23681567300204</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.03291978691005456</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>45162.79943215626</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>255.9762304371754</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>-1.576667569721746</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1.478752354046088</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1.001368894533007</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0.003221988636892469</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>1.001368894533007</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.00322198863689247</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AR3" s="3">
+        <v>2.217242746515897E-05</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>1.035108112935641E-07</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" s="4" customFormat="1">
-      <c r="A3" s="4">
-        <v>10815</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="AY3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
-        <v>2.082960841733835</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.01325940109442673</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.732204386789063</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.000290824309303122</v>
-      </c>
-      <c r="G3" s="4">
-        <v>376.7190730548629</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.02654546839750248</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>752.027063817737</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4.78714158866439</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10.38281220180268</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.06609335553193348</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>13.70097500561748</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.001458374275385301</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>10.2228217082537</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.001088148850359553</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0.9986140005612321</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0.001669580863432305</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.9986140005612321</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.001669580863432305</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0.9284286765323656</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0.004333193662648399</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0.0002266647728155078</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>1.057897479834637E-06</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>224.1086737872328</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0.7639864796420964</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>10.22983023344805</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0.03487349175430933</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>45131.98105898243</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>260.8470471879186</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>-1.385999438767938</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>1.669580863432305</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>1.000685576389217</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0.00341299970912431</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>1.000685576389217</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>0.00341299970912431</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>2.217242746515897E-05</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>1.035108112935641E-07</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+      <c r="BB3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60">
       <c r="A4">
         <v>10989</v>
       </c>
@@ -2474,16 +2608,16 @@
         <v>0.01236613091980998</v>
       </c>
       <c r="E4">
-        <v>5.1856942063239</v>
+        <v>5.185689931824315</v>
       </c>
       <c r="F4">
-        <v>0.0002913066683694455</v>
+        <v>0.0002986761176997103</v>
       </c>
       <c r="G4">
-        <v>715.0087028621457</v>
+        <v>715.0081134898683</v>
       </c>
       <c r="H4">
-        <v>0.02503029404223766</v>
+        <v>0.02503027341009521</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -2504,16 +2638,16 @@
         <v>0.005</v>
       </c>
       <c r="O4">
-        <v>2.88282512949779</v>
+        <v>2.882822753181751</v>
       </c>
       <c r="P4">
-        <v>0.000161942866384525</v>
+        <v>0.0001660396821361448</v>
       </c>
       <c r="Q4">
-        <v>2.15098613805559</v>
+        <v>2.150984364995265</v>
       </c>
       <c r="R4">
-        <v>0.0001208317692203497</v>
+        <v>0.0001238885602139252</v>
       </c>
       <c r="S4">
         <v>1.144295803330528</v>
@@ -2522,79 +2656,79 @@
         <v>0.0005475608978145764</v>
       </c>
       <c r="U4">
-        <v>1.145906410988935</v>
+        <v>1.146342388864402</v>
       </c>
       <c r="V4">
-        <v>0.0005483315951927344</v>
+        <v>0.0005485402164567674</v>
       </c>
       <c r="W4">
         <v>0.003</v>
       </c>
       <c r="X4">
-        <v>0.164348706667991</v>
+        <v>0.1644240824112788</v>
       </c>
       <c r="Y4">
-        <v>0.0003265657311123974</v>
+        <v>0.0003388560037543948</v>
       </c>
       <c r="Z4">
-        <v>4.012377385687534E-05</v>
+        <v>4.014217594435926E-05</v>
       </c>
       <c r="AA4">
-        <v>7.972712295831519E-08</v>
+        <v>8.272764623668238E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.06097318120314129</v>
+        <v>0.06093588808241951</v>
       </c>
       <c r="AD4">
-        <v>0.001291801527102739</v>
+        <v>0.001291795073190234</v>
       </c>
       <c r="AE4">
-        <v>0.002783226913803348</v>
+        <v>0.002781524604439715</v>
       </c>
       <c r="AF4">
-        <v>5.896652768609975E-05</v>
+        <v>5.896623308603741E-05</v>
       </c>
       <c r="AG4">
-        <v>69.36603031737089</v>
+        <v>69.29182434692038</v>
       </c>
       <c r="AH4">
-        <v>1.476065052450025</v>
+        <v>1.475859469179232</v>
       </c>
       <c r="AI4">
-        <v>145.9064109889345</v>
+        <v>146.3423888644022</v>
       </c>
       <c r="AJ4">
-        <v>0.5483315951927344</v>
+        <v>0.5485402164567673</v>
       </c>
       <c r="AK4">
-        <v>0.001293930660250224</v>
+        <v>0.001293140317384798</v>
       </c>
       <c r="AL4">
-        <v>2.741381449110565E-05</v>
+        <v>2.741370494180888E-05</v>
       </c>
       <c r="AM4">
-        <v>0.001293671958341789</v>
+        <v>0.00129246825670429</v>
       </c>
       <c r="AN4">
-        <v>2.740833351260798E-05</v>
+        <v>2.739945770742083E-05</v>
       </c>
       <c r="AO4">
-        <v>0.1232</v>
+        <v>0.123</v>
       </c>
       <c r="AP4">
-        <v>0.0041</v>
+        <v>0.0026</v>
       </c>
       <c r="AQ4">
-        <v>3.327922077922078</v>
+        <v>2.113821138211382</v>
       </c>
       <c r="AR4">
-        <v>1.865366454343853E-05</v>
+        <v>1.866223511320019E-05</v>
       </c>
       <c r="AS4">
-        <v>3.70801911850621E-08</v>
+        <v>3.847538327191999E-08</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -2603,16 +2737,16 @@
         <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>0.1218</v>
+        <v>0.1217</v>
       </c>
       <c r="AW4">
-        <v>0.0027272113</v>
+        <v>0.0026</v>
       </c>
       <c r="AX4">
-        <v>0.002695172695222103</v>
+        <v>0.002693402696714139</v>
       </c>
       <c r="AY4">
-        <v>2.23908973727422</v>
+        <v>2.136400986031224</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2621,195 +2755,207 @@
         <v>30</v>
       </c>
       <c r="BB4">
-        <v>145.9565715687178</v>
+        <v>146.3926580143782</v>
       </c>
       <c r="BC4">
-        <v>0.5485212541680431</v>
+        <v>0.5487296933504046</v>
       </c>
       <c r="BD4">
-        <v>63.80000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="BE4">
-        <v>1.347586347611051</v>
+        <v>1.34670134835707</v>
       </c>
       <c r="BF4">
-        <v>2.212785464057555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" s="4" customFormat="1">
-      <c r="A5" s="4">
+        <v>2.213149298861248</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>10815</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
-        <v>2.071877261004955</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.01768583407472125</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.732275900435217</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0003427556889940289</v>
-      </c>
-      <c r="G5" s="4">
-        <v>376.7289334279081</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.02478399300500646</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="C5" s="3">
+        <v>2.073822321355093</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01700802726368827</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.732303424305919</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.0003061760691012343</v>
+      </c>
+      <c r="G5" s="3">
+        <v>376.7327284467244</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.02478424266918527</v>
+      </c>
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>748.0254750671829</v>
-      </c>
-      <c r="K5" s="4">
-        <v>6.385250074749045</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10.3275645298706</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.0881575352502656</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="3">
+        <v>748.7277148763794</v>
+      </c>
+      <c r="K5" s="3">
+        <v>6.14053636927559</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10.33725995761558</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.08477891156850678</v>
+      </c>
+      <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
-        <v>13.70133361959352</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.001718790567296949</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>10.2230892838633</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.001282455410370487</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0.9985749362612498</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0.001844886627987924</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0.9985749362612498</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.001844886627987924</v>
-      </c>
-      <c r="W5" s="4">
+      <c r="O5" s="3">
+        <v>13.70147164142907</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.001535357563423049</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10.22319226723609</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.001145589027266843</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.9980060318613073</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.001741884743836049</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.9980060318613073</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.001741884743836049</v>
+      </c>
+      <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="4">
-        <v>0.9325466065987698</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0.003856530443204103</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0.0002276701162592905</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>9.415258477687429E-07</v>
-      </c>
-      <c r="AB5" s="4">
+      <c r="X5" s="3">
+        <v>0.932525327271447</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.003691058856704685</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.0002276649211656713</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>9.011279362119851E-07</v>
+      </c>
+      <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="4">
-        <v>223.8970280920027</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0.6387388207707742</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>10.22016929754916</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0.02915634450722481</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>44890.25378240482</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>225.5297377247805</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>-1.425063738750176</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>1.844886627987925</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>0.9997143733921263</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>0.002854765196064496</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>0.9997143733921263</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>0.002854765196064496</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>2.227018760548808E-05</v>
-      </c>
-      <c r="AS5" s="4">
-        <v>9.214034071936344E-08</v>
-      </c>
-      <c r="AT5" s="4">
+      <c r="AC5" s="3">
+        <v>223.889585210931</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.6127098785329788</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>10.21982955429637</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.02796820816359686</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>44889.78583951201</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>216.0132984736633</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>-1.993968138692681</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1.741884743836049</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0.9996710701655782</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.002738053249242272</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0.9996710701655782</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0.002738053249242272</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>2.226945509919691E-05</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>8.818077247295218E-08</v>
+      </c>
+      <c r="AT5" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AV5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+      <c r="BB5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
       <c r="A6">
         <v>10990</v>
       </c>
@@ -2871,10 +3017,10 @@
         <v>0.0004965169137167292</v>
       </c>
       <c r="U6">
-        <v>1.144474615098591</v>
+        <v>1.144800323554376</v>
       </c>
       <c r="V6">
-        <v>0.0004966198109484973</v>
+        <v>0.0004967611450328032</v>
       </c>
       <c r="W6">
         <v>0.003</v>
@@ -2895,49 +3041,49 @@
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.05779578540821469</v>
+        <v>0.05789311525735742</v>
       </c>
       <c r="AD6">
-        <v>0.001154479715308004</v>
+        <v>0.001086593031925592</v>
       </c>
       <c r="AE6">
-        <v>0.002638189155927764</v>
+        <v>0.002642631946189075</v>
       </c>
       <c r="AF6">
-        <v>5.269823472683958E-05</v>
+        <v>4.959942898060042E-05</v>
       </c>
       <c r="AG6">
-        <v>132.1704332061861</v>
+        <v>132.3930122097281</v>
       </c>
       <c r="AH6">
-        <v>2.671697461551896</v>
+        <v>2.518509925169555</v>
       </c>
       <c r="AI6">
-        <v>144.4746150985912</v>
+        <v>144.8003235543764</v>
       </c>
       <c r="AJ6">
-        <v>0.4966198109484973</v>
+        <v>0.4967611450328032</v>
       </c>
       <c r="AK6">
-        <v>0.001221674011460643</v>
+        <v>0.001223731347413381</v>
       </c>
       <c r="AL6">
-        <v>2.440323496831678E-05</v>
+        <v>2.296826904004972E-05</v>
       </c>
       <c r="AM6">
-        <v>0.001222639286886141</v>
+        <v>0.00122472570753823</v>
       </c>
       <c r="AN6">
-        <v>2.442251657928386E-05</v>
+        <v>2.298693223023318E-05</v>
       </c>
       <c r="AO6">
-        <v>0.1166</v>
+        <v>0.1167</v>
       </c>
       <c r="AP6">
-        <v>0.0041</v>
+        <v>0.0022</v>
       </c>
       <c r="AQ6">
-        <v>3.516295025728988</v>
+        <v>1.885175664095973</v>
       </c>
       <c r="AR6">
         <v>9.243171727785967E-06</v>
@@ -2952,16 +3098,16 @@
         <v>0.375</v>
       </c>
       <c r="AV6">
-        <v>0.1159</v>
+        <v>0.1161</v>
       </c>
       <c r="AW6">
-        <v>0.0023770292</v>
+        <v>0.0022</v>
       </c>
       <c r="AX6">
-        <v>0.002353196968169543</v>
+        <v>0.002217121924964792</v>
       </c>
       <c r="AY6">
-        <v>2.050931147540984</v>
+        <v>1.894918173987942</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -2970,195 +3116,207 @@
         <v>47.5</v>
       </c>
       <c r="BB6">
-        <v>144.5218771154652</v>
+        <v>144.8477738741375</v>
       </c>
       <c r="BC6">
-        <v>0.4967832162699013</v>
+        <v>0.4969247448315365</v>
       </c>
       <c r="BD6">
-        <v>57.90000000000001</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="BE6">
-        <v>1.176598484084771</v>
+        <v>1.108560962482396</v>
       </c>
       <c r="BF6">
-        <v>2.030368393588907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" s="4" customFormat="1">
-      <c r="A7" s="4">
+        <v>1.909665740710415</v>
+      </c>
+      <c r="BG6">
+        <v>100</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>10815</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2.105568368409784</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.01448365166562899</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2.732690887221285</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.0003532804866624155</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>376.7861522209579</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.02559830182731184</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>760.1892296951058</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>5.229142006527293</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>10.4955026082283</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>0.0721958052343302</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>13.70341462188276</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>0.001771568459935945</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>10.22464199929914</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>0.001321835015571183</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>1.001010673376145</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>0.001799454776365855</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>1.001010673376145</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.001799454776365855</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>0.9421946537417234</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>0.003584083253331734</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <v>0.000230025571739122</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="3">
         <v>8.750111202968463E-07</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="4">
-        <v>223.7053034071008</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0.4943297527625418</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>10.21141769081764</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>0.02256454141040585</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>44392.53259371821</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>195.2925717676564</v>
-      </c>
-      <c r="AI7" s="4">
+      <c r="AC7" s="3">
+        <v>223.7049668162749</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.4943297525746868</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>10.21140232654392</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.02256454140183088</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>44392.46579995436</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>195.2923520464616</v>
+      </c>
+      <c r="AI7" s="3">
         <v>1.010673376144799</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="3">
         <v>1.799454776365855</v>
       </c>
-      <c r="AK7" s="4">
-        <v>0.9987066238130967</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>0.002210651972836948</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>0.9987066238130967</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>0.002210651972836948</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>643.7914</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR7" s="4">
+      <c r="AK7" s="3">
+        <v>0.998705121142028</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0.002210651960653811</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.998705121142028</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0.002210651960653811</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>643.7317</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>275.7147</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>42.83068551696304</v>
+      </c>
+      <c r="AR7" s="3">
         <v>2.249717611187651E-05</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="3">
         <v>8.56280635615745E-08</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV7" s="4">
-        <v>643.7896</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX7" s="4">
-        <v>134.1991978658585</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AV7" s="3">
+        <v>643.7299</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>273.6848</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>134.125389457695</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>42.51547116267241</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB7" s="4">
-        <v>6.217884251111586</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD7" s="4">
-        <v>643731.6</v>
-      </c>
-      <c r="BE7" s="4">
-        <v>67099.59893292925</v>
-      </c>
-      <c r="BF7" s="4">
-        <v>20.84519505531908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
+      <c r="BB7" s="3">
+        <v>6.216836768979327</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>12.0653717313112</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>643671.9</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>67062.69472884749</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>20.83566251275496</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>77.94</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60">
       <c r="A8">
         <v>10991</v>
       </c>
@@ -3244,22 +3402,22 @@
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.06191767674622532</v>
+        <v>0.06165412741697963</v>
       </c>
       <c r="AD8">
-        <v>0.001198934509509678</v>
+        <v>0.001123381623941941</v>
       </c>
       <c r="AE8">
-        <v>0.002826340055738992</v>
+        <v>0.002814309888183398</v>
       </c>
       <c r="AF8">
-        <v>5.472745113359834E-05</v>
+        <v>5.127870825388788E-05</v>
       </c>
       <c r="AG8">
-        <v>170.1381464327101</v>
+        <v>169.4139623753007</v>
       </c>
       <c r="AH8">
-        <v>3.35901302599314</v>
+        <v>3.155080181162407</v>
       </c>
       <c r="AI8">
         <v>144.5202595351331</v>
@@ -3268,25 +3426,25 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="AK8">
-        <v>0.001374627832089753</v>
+        <v>0.001368776801137889</v>
       </c>
       <c r="AL8">
-        <v>2.661760083797769E-05</v>
+        <v>2.494026974899011E-05</v>
       </c>
       <c r="AM8">
-        <v>0.001377692110745523</v>
+        <v>0.001371830103092576</v>
       </c>
       <c r="AN8">
-        <v>2.667693598616221E-05</v>
+        <v>2.499590349023391E-05</v>
       </c>
       <c r="AO8">
-        <v>0.1313</v>
+        <v>0.1308</v>
       </c>
       <c r="AP8">
-        <v>0.0028</v>
+        <v>0.0024</v>
       </c>
       <c r="AQ8">
-        <v>2.132520944402132</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="AR8">
         <v>8.079480474611969E-06</v>
@@ -3301,16 +3459,16 @@
         <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>0.1308</v>
+        <v>0.1302</v>
       </c>
       <c r="AW8">
-        <v>0.0025708419</v>
+        <v>0.0023</v>
       </c>
       <c r="AX8">
-        <v>0.002561699555639462</v>
+        <v>0.002402473375672381</v>
       </c>
       <c r="AY8">
-        <v>1.965475458715596</v>
+        <v>1.766513056835637</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3319,195 +3477,207 @@
         <v>70</v>
       </c>
       <c r="BB8">
-        <v>144.5736154875932</v>
+        <v>144.5733706905501</v>
       </c>
       <c r="BC8">
-        <v>0.5466913390873795</v>
+        <v>0.546690212567286</v>
       </c>
       <c r="BD8">
-        <v>72.80000000000001</v>
+        <v>72.20000000000002</v>
       </c>
       <c r="BE8">
-        <v>1.280849777819731</v>
+        <v>1.201236687836191</v>
       </c>
       <c r="BF8">
-        <v>1.958485898806928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" s="4" customFormat="1">
-      <c r="A9" s="4">
+        <v>1.845217646445761</v>
+      </c>
+      <c r="BG8">
+        <v>100</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>10815</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2.089621996132539</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.01781538041995359</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2.732460458939089</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0003279773749496935</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>376.7543805389805</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.03302670253059361</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>754.4319906333194</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>6.432021168896118</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>10.41601566572925</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.0888032772858469</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>13.70225911091505</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.001644682893535193</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>10.22377982835146</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>0.001227160839307534</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>0.999196720799145</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>0.001331396634869054</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.999196720799145</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.001331396634869054</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>0.9463277604849375</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>0.004067191805104615</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>0.0002310346203872872</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="3">
         <v>9.929563032718267E-07</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="4">
-        <v>223.2694701586305</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0.5191415766427769</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>10.19152332409547</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0.02369712026952664</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>44112.53736349662</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>215.5570263338899</v>
-      </c>
-      <c r="AI9" s="4">
+      <c r="AC9" s="3">
+        <v>223.2691335196376</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.5191415752703707</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10.19150795762308</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.02369712020688077</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>44112.47085193935</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>215.5567747829997</v>
+      </c>
+      <c r="AI9" s="3">
         <v>-0.8032792008549894</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="3">
         <v>1.331396634869054</v>
       </c>
-      <c r="AK9" s="4">
-        <v>0.9968449531584644</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>0.002320929624994037</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>0.9968449531584644</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>0.002320929624994037</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>677.1053000000001</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR9" s="4">
+      <c r="AK9" s="3">
+        <v>0.9968434501456213</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0.002320929609574182</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0.9968434501456213</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0.002320929609574181</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>677.0234</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>298.4698</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>44.08559585975906</v>
+      </c>
+      <c r="AR9" s="3">
         <v>2.25977695398533E-05</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AS9" s="3">
         <v>9.71600991929768E-08</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT9" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AU9" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV9" s="4">
-        <v>677.1035000000001</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX9" s="4">
-        <v>163.4758856607667</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
+      <c r="AV9" s="3">
+        <v>677.0214999999999</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>298.7345</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>163.3523248281124</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>44.12481730639279</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="4">
-        <v>-5.429102174865604</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD9" s="4">
-        <v>677045.5</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>81737.94283038336</v>
-      </c>
-      <c r="BF9" s="4">
-        <v>24.14341170305082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
+      <c r="BB9" s="3">
+        <v>-5.427845977547987</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>10.09327552854378</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>676963.5</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>81676.16241405619</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>24.12808527175465</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>73.34</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60">
       <c r="A10">
         <v>10992</v>
       </c>
@@ -3515,10 +3685,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>4.698260018102006</v>
+        <v>4.698652581306738</v>
       </c>
       <c r="D10">
-        <v>0.01537641733759517</v>
+        <v>0.01599535848991063</v>
       </c>
       <c r="E10">
         <v>5.407817424515519</v>
@@ -3536,16 +3706,16 @@
         <v>0.3</v>
       </c>
       <c r="J10">
-        <v>178.5138712529474</v>
+        <v>178.5287872211813</v>
       </c>
       <c r="K10">
-        <v>0.5842383721546202</v>
+        <v>0.6077555007434902</v>
       </c>
       <c r="L10">
-        <v>2.464640024026248</v>
+        <v>2.464845960360764</v>
       </c>
       <c r="M10">
-        <v>0.008066248664474269</v>
+        <v>0.008390936353803308</v>
       </c>
       <c r="N10">
         <v>0.005</v>
@@ -3563,16 +3733,16 @@
         <v>0.0001083319517397004</v>
       </c>
       <c r="S10">
-        <v>1.144273830306091</v>
+        <v>1.144247787967171</v>
       </c>
       <c r="T10">
-        <v>0.0003788097800316013</v>
+        <v>0.0003612035633638828</v>
       </c>
       <c r="U10">
-        <v>1.14518991555995</v>
+        <v>1.145571598834862</v>
       </c>
       <c r="V10">
-        <v>0.0003791130483964923</v>
+        <v>0.0003616214494263755</v>
       </c>
       <c r="W10">
         <v>0.003</v>
@@ -3593,49 +3763,49 @@
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>0.05616627403722003</v>
+        <v>0.05613087088760878</v>
       </c>
       <c r="AD10">
-        <v>0.001199923066243893</v>
+        <v>0.001199916727756003</v>
       </c>
       <c r="AE10">
-        <v>0.002563807274998985</v>
+        <v>0.00256219123665414</v>
       </c>
       <c r="AF10">
-        <v>5.477257552524392E-05</v>
+        <v>5.477228619393893E-05</v>
       </c>
       <c r="AG10">
-        <v>81.29886131277448</v>
+        <v>81.24761640113279</v>
       </c>
       <c r="AH10">
-        <v>1.748668741781368</v>
+        <v>1.748644784254916</v>
       </c>
       <c r="AI10">
-        <v>145.1899155599503</v>
+        <v>145.5715988348618</v>
       </c>
       <c r="AJ10">
-        <v>0.3791130483964922</v>
+        <v>0.3616214494263755</v>
       </c>
       <c r="AK10">
-        <v>0.001203991698221281</v>
+        <v>0.00120323278909025</v>
       </c>
       <c r="AL10">
-        <v>2.572186834922238E-05</v>
+        <v>2.572173238457872E-05</v>
       </c>
       <c r="AM10">
-        <v>0.001208645218834504</v>
+        <v>0.001207924095763026</v>
       </c>
       <c r="AN10">
-        <v>2.582128535081016E-05</v>
+        <v>2.582201932478285E-05</v>
       </c>
       <c r="AO10">
-        <v>0.1151</v>
+        <v>0.115</v>
       </c>
       <c r="AP10">
-        <v>0.0054</v>
+        <v>0.0025</v>
       </c>
       <c r="AQ10">
-        <v>4.691572545612511</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="AR10">
         <v>1.480945340168126E-05</v>
@@ -3650,16 +3820,16 @@
         <v>0.375</v>
       </c>
       <c r="AV10">
-        <v>0.1141</v>
+        <v>0.114</v>
       </c>
       <c r="AW10">
-        <v>0.0025160596</v>
+        <v>0.0025</v>
       </c>
       <c r="AX10">
-        <v>0.002517656413905989</v>
+        <v>0.00251685895097925</v>
       </c>
       <c r="AY10">
-        <v>2.205135495179667</v>
+        <v>2.192982456140351</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -3668,195 +3838,207 @@
         <v>83.5</v>
       </c>
       <c r="BB10">
-        <v>145.236673811475</v>
+        <v>145.6184389126596</v>
       </c>
       <c r="BC10">
-        <v>0.379236543461545</v>
+        <v>0.3617392660121441</v>
       </c>
       <c r="BD10">
-        <v>56.09999999999999</v>
+        <v>56</v>
       </c>
       <c r="BE10">
-        <v>1.258828206952995</v>
+        <v>1.258429475489625</v>
       </c>
       <c r="BF10">
-        <v>2.206534981512699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58" s="4" customFormat="1">
-      <c r="A11" s="4">
+        <v>2.207771009630921</v>
+      </c>
+      <c r="BG10">
+        <v>100</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>10815</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2.112603635307891</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.01946348206433061</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2.731460684210479</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.0002731116516404989</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>376.616530599625</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.02256545571591701</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>762.729225168162</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>7.027047736684282</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>10.53057088869189</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.09701847246388244</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>13.69724561754897</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>0.001369551974574979</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>10.22003906911382</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>0.001021875133012538</v>
       </c>
-      <c r="S11" s="4">
-        <v>0.9992033956506909</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0.001926555786283</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0.9992033956506909</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.001926555786283</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="S11" s="3">
+        <v>0.9984920995783205</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.001813883976860164</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.9984920995783205</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.001813883976860164</v>
+      </c>
+      <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>0.9469937115146677</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>0.003930403495974505</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>0.0002311972043775016</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
         <v>9.595610713100177E-07</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="4">
-        <v>222.8764989630502</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>0.5469314400165655</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>10.17358547033244</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>0.0249656369213831</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>44003.92944942747</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>212.1691257010188</v>
-      </c>
-      <c r="AI11" s="4">
-        <v>-0.7966043493090602</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>1.926555786283</v>
-      </c>
-      <c r="AK11" s="4">
-        <v>0.9954546554600007</v>
-      </c>
-      <c r="AL11" s="4">
-        <v>0.002444839182658715</v>
-      </c>
-      <c r="AM11" s="4">
-        <v>0.9954546554600007</v>
-      </c>
-      <c r="AN11" s="4">
-        <v>0.002444839182658714</v>
-      </c>
-      <c r="AO11" s="4">
-        <v>619.261</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR11" s="4">
+      <c r="AC11" s="3">
+        <v>222.8617985854191</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.5754674280085321</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10.17291444602538</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.02626821172925813</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>44001.02706006308</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>215.0810431240345</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>-1.507900421679476</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1.813883976860164</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0.9953889977553164</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0.00257219151323155</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0.9953889977553164</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0.002572191513231551</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>654.7945999999999</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>287.2743</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>43.87242961380561</v>
+      </c>
+      <c r="AR11" s="3">
         <v>2.262194917397206E-05</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AS11" s="3">
         <v>9.391739876832926E-08</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AT11" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AU11" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV11" s="4">
-        <v>619.2592</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX11" s="4">
-        <v>117.4419798265753</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
+      <c r="AV11" s="3">
+        <v>654.7927</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>288.4379</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>162.5699946029966</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>44.05026201422221</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB11" s="4">
-        <v>-4.573091574634732</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD11" s="4">
-        <v>619201.2</v>
-      </c>
-      <c r="BE11" s="4">
-        <v>58720.98991328765</v>
-      </c>
-      <c r="BF11" s="4">
-        <v>18.96491482509672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+      <c r="BB11" s="3">
+        <v>-9.569514961948167</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>13.89919046623661</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>654734.7</v>
+      </c>
+      <c r="BE11" s="3">
+        <v>81284.99730149831</v>
+      </c>
+      <c r="BF11" s="3">
+        <v>24.82770418836322</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>74.53999999999999</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60">
       <c r="A12">
         <v>10993</v>
       </c>
@@ -3918,79 +4100,79 @@
         <v>0.0004874012285628684</v>
       </c>
       <c r="U12">
-        <v>1.1459144393218</v>
+        <v>1.14632236677998</v>
       </c>
       <c r="V12">
-        <v>0.0004876883458809653</v>
+        <v>0.0004878619552365093</v>
       </c>
       <c r="W12">
         <v>0.003</v>
       </c>
       <c r="X12">
-        <v>0.06643871873194153</v>
+        <v>0.06649064358023965</v>
       </c>
       <c r="Y12">
-        <v>0.0002412752997544699</v>
+        <v>0.0002342554519617876</v>
       </c>
       <c r="Z12">
-        <v>1.622021967672814E-05</v>
+        <v>1.623289650828287E-05</v>
       </c>
       <c r="AA12">
-        <v>5.890448279678269E-08</v>
+        <v>5.719067079878341E-08</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
       </c>
       <c r="AC12">
-        <v>0.06867324615603854</v>
+        <v>0.06863274263877805</v>
       </c>
       <c r="AD12">
-        <v>0.001554011354629662</v>
+        <v>0.001554004009777847</v>
       </c>
       <c r="AE12">
-        <v>0.003134709772201975</v>
+        <v>0.003132860918704114</v>
       </c>
       <c r="AF12">
-        <v>7.093555135578926E-05</v>
+        <v>7.093521608725242E-05</v>
       </c>
       <c r="AG12">
-        <v>193.2593907281958</v>
+        <v>192.9945722937103</v>
       </c>
       <c r="AH12">
-        <v>4.429236736302435</v>
+        <v>4.422426686025386</v>
       </c>
       <c r="AI12">
-        <v>145.9144393217997</v>
+        <v>146.3223667799796</v>
       </c>
       <c r="AJ12">
-        <v>0.4876883458809653</v>
+        <v>0.4878619552365093</v>
       </c>
       <c r="AK12">
-        <v>0.001536158545560908</v>
+        <v>0.00153525251843029</v>
       </c>
       <c r="AL12">
-        <v>3.476197203673864E-05</v>
+        <v>3.476180757415301E-05</v>
       </c>
       <c r="AM12">
-        <v>0.001543690821984769</v>
+        <v>0.00154238374818938</v>
       </c>
       <c r="AN12">
-        <v>3.493242109824723E-05</v>
+        <v>3.492327575849185E-05</v>
       </c>
       <c r="AO12">
-        <v>0.147</v>
+        <v>0.1468</v>
       </c>
       <c r="AP12">
-        <v>0.0045</v>
+        <v>0.0033</v>
       </c>
       <c r="AQ12">
-        <v>3.061224489795918</v>
+        <v>2.247956403269755</v>
       </c>
       <c r="AR12">
-        <v>7.948687718473634E-06</v>
+        <v>7.954899975600631E-06</v>
       </c>
       <c r="AS12">
-        <v>2.887055531759094E-08</v>
+        <v>2.803084790758836E-08</v>
       </c>
       <c r="AT12">
         <v>0.75</v>
@@ -3999,16 +4181,16 @@
         <v>0.375</v>
       </c>
       <c r="AV12">
-        <v>0.1464</v>
+        <v>0.1462</v>
       </c>
       <c r="AW12">
-        <v>0.0033822877</v>
+        <v>0.0033</v>
       </c>
       <c r="AX12">
-        <v>0.003341125105867086</v>
+        <v>0.003339080337499916</v>
       </c>
       <c r="AY12">
-        <v>2.310305806010929</v>
+        <v>2.257181942544459</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4017,192 +4199,204 @@
         <v>100</v>
       </c>
       <c r="BB12">
-        <v>145.9747362666762</v>
+        <v>146.3827496745318</v>
       </c>
       <c r="BC12">
-        <v>0.487891865302871</v>
+        <v>0.488065185226477</v>
       </c>
       <c r="BD12">
-        <v>88.40000000000001</v>
+        <v>88.19999999999999</v>
       </c>
       <c r="BE12">
-        <v>1.670562552933543</v>
+        <v>1.669540168749958</v>
       </c>
       <c r="BF12">
-        <v>2.282189279963856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" s="4" customFormat="1">
-      <c r="A13" s="4">
+        <v>2.283912679548506</v>
+      </c>
+      <c r="BG12">
+        <v>100</v>
+      </c>
+      <c r="BH12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>10815</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2.081859566530355</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.01761996899894651</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.731635731525279</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.0003122412466130899</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>376.640666298437</v>
       </c>
-      <c r="H13" s="4">
-        <v>0.02370283806126167</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="3">
+        <v>0.02279456778920815</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>751.6294621244477</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>6.361470309642285</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>10.37732274017136</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.0878292214871238</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>13.69812341384287</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.001565772142177248</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>10.22069402651685</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>0.001168282508264243</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>0.9996191420600341</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>0.00150393304762386</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.9996191420600341</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.00150393304762386</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>0</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>0.9435030793968748</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>0.003894898016102048</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <v>0.0002303450082358258</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="3">
         <v>9.508928324539598E-07</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="4">
-        <v>222.7411888959962</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>0.5821115409793647</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>10.16740900696113</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>0.02657149382269462</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>44139.91466466598</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>215.6597968491349</v>
-      </c>
-      <c r="AI13" s="4">
+      <c r="AC13" s="3">
+        <v>222.8704787399711</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.5461923886429574</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>10.17331066677832</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.02493190163591626</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>44165.5356228208</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>212.0287158986084</v>
+      </c>
+      <c r="AI13" s="3">
         <v>-0.3808579399658951</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="3">
         <v>1.503933047623859</v>
       </c>
-      <c r="AK13" s="4">
-        <v>0.9947865556470556</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>0.002602259469852054</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>0.9947865556470556</v>
-      </c>
-      <c r="AN13" s="4">
-        <v>0.002602259469852054</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>585.0459</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR13" s="4">
+      <c r="AK13" s="3">
+        <v>0.9953639782567014</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0.002442006958670545</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.9953639782567014</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0.002442006958670546</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>599.4473</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>207.3377</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>34.58814477936593</v>
+      </c>
+      <c r="AR13" s="3">
         <v>2.253712004666341E-05</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AS13" s="3">
         <v>9.3071692415805E-08</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT13" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AU13" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV13" s="4">
-        <v>585.0441</v>
-      </c>
-      <c r="AW13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX13" s="4">
-        <v>78.41141306457126</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
+      <c r="AV13" s="3">
+        <v>599.4455</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>203.2107</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>86.29947674072298</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>33.89977904580149</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB13" s="4">
-        <v>-1.985162388255983</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD13" s="4">
-        <v>584986.1</v>
-      </c>
-      <c r="BE13" s="4">
-        <v>39205.70653228563</v>
-      </c>
-      <c r="BF13" s="4">
-        <v>13.40264999930283</v>
+      <c r="BB13" s="3">
+        <v>-2.067504518416635</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>8.249813944508537</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>599387.5</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>43149.73837036149</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>14.3965509359438</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>88.66</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>89.31999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4231,10 +4425,10 @@
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
@@ -4247,164 +4441,164 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1">
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1">
+      <c r="C2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1">
-      <c r="A3" s="4">
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1">
+      <c r="A3" s="3">
         <v>10815</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>13700.97500561748</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.458374275385301</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.9284286765323656</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.004333193662648399</v>
       </c>
-      <c r="G3" s="4">
-        <v>1.000685576389217</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.00341299970912431</v>
-      </c>
-      <c r="I3" s="4">
-        <v>45131.98105898243</v>
-      </c>
-      <c r="J3" s="4">
-        <v>260.8470471879186</v>
-      </c>
-      <c r="K3" s="4">
-        <v>-1.385999438767938</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1.669580863432305</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>117</v>
+      <c r="G3" s="3">
+        <v>1.001368894533007</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.00322198863689247</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45162.79943215626</v>
+      </c>
+      <c r="J3" s="3">
+        <v>255.9762304371754</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-1.576667569721746</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.478752354046088</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4415,111 +4609,111 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>2882.82512949779</v>
+        <v>2882.822753181751</v>
       </c>
       <c r="D4">
-        <v>0.161942866384525</v>
+        <v>0.1660396821361448</v>
       </c>
       <c r="E4">
-        <v>0.164348706667991</v>
+        <v>0.1644240824112788</v>
       </c>
       <c r="F4">
-        <v>0.0003265657311123974</v>
+        <v>0.0003388560037543948</v>
       </c>
       <c r="G4">
-        <v>0.001293671958341789</v>
+        <v>0.00129246825670429</v>
       </c>
       <c r="H4">
-        <v>2.740833351260798E-05</v>
+        <v>2.739945770742083E-05</v>
       </c>
       <c r="I4">
-        <v>69.36603031737089</v>
+        <v>69.29182434692038</v>
       </c>
       <c r="J4">
-        <v>1.476065052450025</v>
+        <v>1.475859469179232</v>
       </c>
       <c r="K4">
-        <v>145.9064109889345</v>
+        <v>146.3423888644022</v>
       </c>
       <c r="L4">
-        <v>0.5483315951927344</v>
+        <v>0.5485402164567673</v>
       </c>
       <c r="M4">
-        <v>0.1232</v>
+        <v>0.123</v>
       </c>
       <c r="N4">
-        <v>0.0041</v>
+        <v>0.0026</v>
       </c>
       <c r="O4">
-        <v>0.1218</v>
+        <v>0.1217</v>
       </c>
       <c r="P4">
-        <v>0.0027272113</v>
+        <v>0.0026</v>
       </c>
       <c r="Q4">
-        <v>145.9565715687178</v>
+        <v>146.3926580143782</v>
       </c>
       <c r="R4">
-        <v>0.5485212541680431</v>
+        <v>0.5487296933504046</v>
       </c>
       <c r="S4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:19" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>10815</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
-        <v>13701.33361959352</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.718790567296949</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.9325466065987698</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.003856530443204103</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.9997143733921263</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.002854765196064496</v>
-      </c>
-      <c r="I5" s="4">
-        <v>44890.25378240482</v>
-      </c>
-      <c r="J5" s="4">
-        <v>225.5297377247805</v>
-      </c>
-      <c r="K5" s="4">
-        <v>-1.425063738750176</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.844886627987925</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>117</v>
+      <c r="C5" s="3">
+        <v>13701.47164142907</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.535357563423049</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.932525327271447</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.003691058856704685</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.9996710701655782</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.002738053249242272</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44889.78583951201</v>
+      </c>
+      <c r="J5" s="3">
+        <v>216.0132984736633</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-1.993968138692681</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.741884743836049</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4542,99 +4736,99 @@
         <v>0.0002533258194953242</v>
       </c>
       <c r="G6">
-        <v>0.001222639286886141</v>
+        <v>0.00122472570753823</v>
       </c>
       <c r="H6">
-        <v>2.442251657928386E-05</v>
+        <v>2.298693223023318E-05</v>
       </c>
       <c r="I6">
-        <v>132.1704332061861</v>
+        <v>132.3930122097281</v>
       </c>
       <c r="J6">
-        <v>2.671697461551896</v>
+        <v>2.518509925169555</v>
       </c>
       <c r="K6">
-        <v>144.4746150985912</v>
+        <v>144.8003235543764</v>
       </c>
       <c r="L6">
-        <v>0.4966198109484973</v>
+        <v>0.4967611450328032</v>
       </c>
       <c r="M6">
-        <v>0.1166</v>
+        <v>0.1167</v>
       </c>
       <c r="N6">
-        <v>0.0041</v>
+        <v>0.0022</v>
       </c>
       <c r="O6">
-        <v>0.1159</v>
+        <v>0.1161</v>
       </c>
       <c r="P6">
-        <v>0.0023770292</v>
+        <v>0.0022</v>
       </c>
       <c r="Q6">
-        <v>144.5218771154652</v>
+        <v>144.8477738741375</v>
       </c>
       <c r="R6">
-        <v>0.4967832162699013</v>
+        <v>0.4969247448315365</v>
       </c>
       <c r="S6">
         <v>47.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:19" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>10815</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>13703.41462188276</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1.771568459935945</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.9421946537417234</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.003584083253331734</v>
       </c>
-      <c r="G7" s="4">
-        <v>0.9987066238130967</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.002210651972836948</v>
-      </c>
-      <c r="I7" s="4">
-        <v>44392.53259371821</v>
-      </c>
-      <c r="J7" s="4">
-        <v>195.2925717676564</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="G7" s="3">
+        <v>0.998705121142028</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.002210651960653811</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44392.46579995436</v>
+      </c>
+      <c r="J7" s="3">
+        <v>195.2923520464616</v>
+      </c>
+      <c r="K7" s="3">
         <v>1.010673376144799</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>1.799454776365855</v>
       </c>
-      <c r="M7" s="4">
-        <v>643.7914</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="4">
-        <v>643.7896</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>6.217884251111586</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>117</v>
+      <c r="M7" s="3">
+        <v>643.7317</v>
+      </c>
+      <c r="N7" s="3">
+        <v>275.7147</v>
+      </c>
+      <c r="O7" s="3">
+        <v>643.7299</v>
+      </c>
+      <c r="P7" s="3">
+        <v>273.6848</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>6.216836768979327</v>
+      </c>
+      <c r="R7" s="3">
+        <v>12.0653717313112</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4657,16 +4851,16 @@
         <v>0.0002621270491824548</v>
       </c>
       <c r="G8">
-        <v>0.001377692110745523</v>
+        <v>0.001371830103092576</v>
       </c>
       <c r="H8">
-        <v>2.667693598616221E-05</v>
+        <v>2.499590349023391E-05</v>
       </c>
       <c r="I8">
-        <v>170.1381464327101</v>
+        <v>169.4139623753007</v>
       </c>
       <c r="J8">
-        <v>3.35901302599314</v>
+        <v>3.155080181162407</v>
       </c>
       <c r="K8">
         <v>144.5202595351331</v>
@@ -4675,81 +4869,81 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="M8">
-        <v>0.1313</v>
+        <v>0.1308</v>
       </c>
       <c r="N8">
-        <v>0.0028</v>
+        <v>0.0024</v>
       </c>
       <c r="O8">
-        <v>0.1308</v>
+        <v>0.1302</v>
       </c>
       <c r="P8">
-        <v>0.0025708419</v>
+        <v>0.0023</v>
       </c>
       <c r="Q8">
-        <v>144.5736154875932</v>
+        <v>144.5733706905501</v>
       </c>
       <c r="R8">
-        <v>0.5466913390873795</v>
+        <v>0.546690212567286</v>
       </c>
       <c r="S8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:19" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>10815</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>13702.25911091505</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.644682893535193</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.9463277604849375</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.004067191805104615</v>
       </c>
-      <c r="G9" s="4">
-        <v>0.9968449531584644</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.002320929624994037</v>
-      </c>
-      <c r="I9" s="4">
-        <v>44112.53736349662</v>
-      </c>
-      <c r="J9" s="4">
-        <v>215.5570263338899</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="G9" s="3">
+        <v>0.9968434501456213</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.002320929609574181</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44112.47085193935</v>
+      </c>
+      <c r="J9" s="3">
+        <v>215.5567747829997</v>
+      </c>
+      <c r="K9" s="3">
         <v>-0.8032792008549894</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>1.331396634869054</v>
       </c>
-      <c r="M9" s="4">
-        <v>677.1053000000001</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="4">
-        <v>677.1035000000001</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>-5.429102174865604</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>117</v>
+      <c r="M9" s="3">
+        <v>677.0234</v>
+      </c>
+      <c r="N9" s="3">
+        <v>298.4698</v>
+      </c>
+      <c r="O9" s="3">
+        <v>677.0214999999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>298.7345</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-5.427845977547987</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10.09327552854378</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4772,99 +4966,99 @@
         <v>0.0003224815709950363</v>
       </c>
       <c r="G10">
-        <v>0.001208645218834504</v>
+        <v>0.001207924095763026</v>
       </c>
       <c r="H10">
-        <v>2.582128535081016E-05</v>
+        <v>2.582201932478285E-05</v>
       </c>
       <c r="I10">
-        <v>81.29886131277448</v>
+        <v>81.24761640113279</v>
       </c>
       <c r="J10">
-        <v>1.748668741781368</v>
+        <v>1.748644784254916</v>
       </c>
       <c r="K10">
-        <v>145.1899155599503</v>
+        <v>145.5715988348618</v>
       </c>
       <c r="L10">
-        <v>0.3791130483964922</v>
+        <v>0.3616214494263755</v>
       </c>
       <c r="M10">
-        <v>0.1151</v>
+        <v>0.115</v>
       </c>
       <c r="N10">
-        <v>0.0054</v>
+        <v>0.0025</v>
       </c>
       <c r="O10">
-        <v>0.1141</v>
+        <v>0.114</v>
       </c>
       <c r="P10">
-        <v>0.0025160596</v>
+        <v>0.0025</v>
       </c>
       <c r="Q10">
-        <v>145.236673811475</v>
+        <v>145.6184389126596</v>
       </c>
       <c r="R10">
-        <v>0.379236543461545</v>
+        <v>0.3617392660121441</v>
       </c>
       <c r="S10">
         <v>83.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:19" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>10815</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>13697.24561754898</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.369551974574979</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.9469937115146677</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.003930403495974505</v>
       </c>
-      <c r="G11" s="4">
-        <v>0.9954546554600007</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.002444839182658714</v>
-      </c>
-      <c r="I11" s="4">
-        <v>44003.92944942747</v>
-      </c>
-      <c r="J11" s="4">
-        <v>212.1691257010188</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-0.7966043493090602</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.926555786283</v>
-      </c>
-      <c r="M11" s="4">
-        <v>619.261</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" s="4">
-        <v>619.2592</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>-4.573091574634732</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>117</v>
+      <c r="G11" s="3">
+        <v>0.9953889977553164</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.002572191513231551</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44001.02706006308</v>
+      </c>
+      <c r="J11" s="3">
+        <v>215.0810431240345</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1.507900421679476</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.813883976860164</v>
+      </c>
+      <c r="M11" s="3">
+        <v>654.7945999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <v>287.2743</v>
+      </c>
+      <c r="O11" s="3">
+        <v>654.7927</v>
+      </c>
+      <c r="P11" s="3">
+        <v>288.4379</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-9.569514961948167</v>
+      </c>
+      <c r="R11" s="3">
+        <v>13.89919046623661</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4881,105 +5075,426 @@
         <v>0.1758825416109763</v>
       </c>
       <c r="E12">
-        <v>0.06643871873194153</v>
+        <v>0.06649064358023965</v>
       </c>
       <c r="F12">
-        <v>0.0002412752997544699</v>
+        <v>0.0002342554519617876</v>
       </c>
       <c r="G12">
-        <v>0.001543690821984769</v>
+        <v>0.00154238374818938</v>
       </c>
       <c r="H12">
-        <v>3.493242109824723E-05</v>
+        <v>3.492327575849185E-05</v>
       </c>
       <c r="I12">
-        <v>193.2593907281958</v>
+        <v>192.9945722937103</v>
       </c>
       <c r="J12">
-        <v>4.429236736302435</v>
+        <v>4.422426686025386</v>
       </c>
       <c r="K12">
-        <v>145.9144393217997</v>
+        <v>146.3223667799796</v>
       </c>
       <c r="L12">
-        <v>0.4876883458809653</v>
+        <v>0.4878619552365093</v>
       </c>
       <c r="M12">
-        <v>0.147</v>
+        <v>0.1468</v>
       </c>
       <c r="N12">
-        <v>0.0045</v>
+        <v>0.0033</v>
       </c>
       <c r="O12">
-        <v>0.1464</v>
+        <v>0.1462</v>
       </c>
       <c r="P12">
-        <v>0.0033822877</v>
+        <v>0.0033</v>
       </c>
       <c r="Q12">
-        <v>145.9747362666762</v>
+        <v>146.3827496745318</v>
       </c>
       <c r="R12">
-        <v>0.487891865302871</v>
+        <v>0.488065185226477</v>
       </c>
       <c r="S12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:19" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>10815</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>13698.12341384287</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.565772142177249</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.9435030793968748</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.003894898016102048</v>
       </c>
-      <c r="G13" s="4">
-        <v>0.9947865556470556</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.002602259469852054</v>
-      </c>
-      <c r="I13" s="4">
-        <v>44139.91466466598</v>
-      </c>
-      <c r="J13" s="4">
-        <v>215.6597968491349</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="G13" s="3">
+        <v>0.9953639782567014</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.002442006958670546</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44165.5356228208</v>
+      </c>
+      <c r="J13" s="3">
+        <v>212.0287158986084</v>
+      </c>
+      <c r="K13" s="3">
         <v>-0.3808579399658951</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1.503933047623859</v>
       </c>
-      <c r="M13" s="4">
-        <v>585.0459</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="4">
-        <v>585.0441</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>-1.985162388255983</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>117</v>
+      <c r="M13" s="3">
+        <v>599.4473</v>
+      </c>
+      <c r="N13" s="3">
+        <v>207.3377</v>
+      </c>
+      <c r="O13" s="3">
+        <v>599.4455</v>
+      </c>
+      <c r="P13" s="3">
+        <v>203.2107</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-2.067504518416635</v>
+      </c>
+      <c r="R13" s="3">
+        <v>8.249813944508537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="5">
+        <v>0.002324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.005066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.336402435064349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.008202776684838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.334493224630051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.665506775369946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.025840620457897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.673784240557133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.673784240557127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-0.337307116990441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.336402435064353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-0.34318587041139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-1.025840620457897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.337307116990439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.682654750046506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6.02214129E+23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="5">
+        <v>137.881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="5">
+        <v>62500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.4053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4.94752E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.82206E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.55125E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="5">
+        <v>9.1705E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3.86778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.038556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.018067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/data/CPR_100221_20210210-114741/Results.xlsx
+++ b/data/CPR_100221_20210210-114741/Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="181">
   <si>
     <t>Lab. #</t>
   </si>
@@ -489,13 +489,19 @@
     </r>
   </si>
   <si>
-    <t>R34_33</t>
-  </si>
-  <si>
-    <t>R35_33</t>
-  </si>
-  <si>
-    <t>R30_29</t>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Yield_U</t>
+  </si>
+  <si>
+    <t>Yield_Th</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Tail shift</t>
   </si>
   <si>
     <t>mf48</t>
@@ -540,6 +546,18 @@
     <t>mf02</t>
   </si>
   <si>
+    <t>l230</t>
+  </si>
+  <si>
+    <t>l232</t>
+  </si>
+  <si>
+    <t>l234</t>
+  </si>
+  <si>
+    <t>l238</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -549,28 +567,37 @@
     <t>cps</t>
   </si>
   <si>
-    <t>slope229Correction</t>
-  </si>
-  <si>
-    <t>lambda232</t>
-  </si>
-  <si>
-    <t>lambda234</t>
-  </si>
-  <si>
-    <t>lambda238</t>
-  </si>
-  <si>
-    <t>lambda230</t>
-  </si>
-  <si>
-    <t>trisp236</t>
-  </si>
-  <si>
-    <t>trisp233</t>
-  </si>
-  <si>
-    <t>trisp229</t>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>R3433</t>
+  </si>
+  <si>
+    <t>R3533</t>
+  </si>
+  <si>
+    <t>R3029</t>
+  </si>
+  <si>
+    <t>th229SubU238</t>
+  </si>
+  <si>
+    <t>th230SubU238</t>
+  </si>
+  <si>
+    <t>tri229</t>
+  </si>
+  <si>
+    <t>tri233</t>
+  </si>
+  <si>
+    <t>tri236</t>
+  </si>
+  <si>
+    <t>blank232</t>
+  </si>
+  <si>
+    <t>blank232S</t>
   </si>
   <si>
     <t>blank234</t>
@@ -585,22 +612,31 @@
     <t>blank238S</t>
   </si>
   <si>
-    <t>blank232</t>
-  </si>
-  <si>
-    <t>blank232S</t>
-  </si>
-  <si>
-    <t>chBlank230</t>
-  </si>
-  <si>
-    <t>chBlank230S</t>
+    <t>ch_blank230</t>
+  </si>
+  <si>
+    <t>ch_blank230S</t>
   </si>
   <si>
     <t>a230232_init</t>
   </si>
   <si>
     <t>a230232_init_err</t>
+  </si>
+  <si>
+    <t>standardBezeich</t>
+  </si>
+  <si>
+    <t>standardEinwaage</t>
+  </si>
+  <si>
+    <t>standardTriSp13</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>stalag</t>
   </si>
   <si>
     <t>Mean method</t>
@@ -3281,10 +3317,10 @@
         <v>643.7317</v>
       </c>
       <c r="AP7" s="3">
-        <v>273.8155</v>
+        <v>270.1318</v>
       </c>
       <c r="AQ7" s="3">
-        <v>42.53565577087473</v>
+        <v>41.96341426094132</v>
       </c>
       <c r="AR7" s="3">
         <v>2.249717611187651E-05</v>
@@ -3302,13 +3338,13 @@
         <v>643.7299</v>
       </c>
       <c r="AW7" s="3">
-        <v>355.6723</v>
+        <v>344.5467</v>
       </c>
       <c r="AX7" s="3">
         <v>134.125389457695</v>
       </c>
       <c r="AY7" s="3">
-        <v>55.25179116272213</v>
+        <v>53.52348865572346</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>25</v>
@@ -3317,7 +3353,7 @@
         <v>6.216836768979327</v>
       </c>
       <c r="BC7" s="3">
-        <v>12.70651791065451</v>
+        <v>12.61180836448982</v>
       </c>
       <c r="BD7" s="3">
         <v>643671.9</v>
@@ -3329,10 +3365,10 @@
         <v>20.83566251275496</v>
       </c>
       <c r="BG7" s="3">
-        <v>78.06</v>
+        <v>78.96000000000001</v>
       </c>
       <c r="BH7" s="3">
-        <v>77.40000000000001</v>
+        <v>78.34</v>
       </c>
     </row>
     <row r="8" spans="1:60" s="4" customFormat="1">
@@ -3642,10 +3678,10 @@
         <v>677.0234</v>
       </c>
       <c r="AP9" s="3">
-        <v>302.3145</v>
+        <v>298.3195</v>
       </c>
       <c r="AQ9" s="3">
-        <v>44.6534787423891</v>
+        <v>44.06339574082669</v>
       </c>
       <c r="AR9" s="3">
         <v>2.25977695398533E-05</v>
@@ -3663,13 +3699,13 @@
         <v>677.0214999999999</v>
       </c>
       <c r="AW9" s="3">
-        <v>400.355</v>
+        <v>400.3249</v>
       </c>
       <c r="AX9" s="3">
         <v>163.3523248281124</v>
       </c>
       <c r="AY9" s="3">
-        <v>59.13475421386175</v>
+        <v>59.13030826938288</v>
       </c>
       <c r="AZ9" s="3" t="s">
         <v>25</v>
@@ -3678,7 +3714,7 @@
         <v>-5.427845977547987</v>
       </c>
       <c r="BC9" s="3">
-        <v>10.88774112509683</v>
+        <v>10.88748143802084</v>
       </c>
       <c r="BD9" s="3">
         <v>676963.5</v>
@@ -3690,10 +3726,10 @@
         <v>24.12808527175465</v>
       </c>
       <c r="BG9" s="3">
-        <v>72.92</v>
+        <v>73.86</v>
       </c>
       <c r="BH9" s="3">
-        <v>73.94</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="10" spans="1:60" s="4" customFormat="1">
@@ -4003,10 +4039,10 @@
         <v>654.7945999999999</v>
       </c>
       <c r="AP11" s="3">
-        <v>287.1927</v>
+        <v>288.6347</v>
       </c>
       <c r="AQ11" s="3">
-        <v>43.85996769063154</v>
+        <v>44.08018942123226</v>
       </c>
       <c r="AR11" s="3">
         <v>2.262194917397206E-05</v>
@@ -4024,13 +4060,13 @@
         <v>654.7927</v>
       </c>
       <c r="AW11" s="3">
-        <v>388.3095</v>
+        <v>388.7997</v>
       </c>
       <c r="AX11" s="3">
         <v>162.5699946029966</v>
       </c>
       <c r="AY11" s="3">
-        <v>59.3026617431746</v>
+        <v>59.37752513123618</v>
       </c>
       <c r="AZ11" s="3" t="s">
         <v>25</v>
@@ -4039,7 +4075,7 @@
         <v>-9.569514961948167</v>
       </c>
       <c r="BC11" s="3">
-        <v>15.57176953748089</v>
+        <v>15.58068770008644</v>
       </c>
       <c r="BD11" s="3">
         <v>654734.7</v>
@@ -4051,10 +4087,10 @@
         <v>24.82770418836322</v>
       </c>
       <c r="BG11" s="3">
-        <v>74.72</v>
+        <v>74.16</v>
       </c>
       <c r="BH11" s="3">
-        <v>73.62</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="12" spans="1:60" s="4" customFormat="1">
@@ -4364,10 +4400,10 @@
         <v>599.4473</v>
       </c>
       <c r="AP13" s="3">
-        <v>206.4301</v>
+        <v>212.0804</v>
       </c>
       <c r="AQ13" s="3">
-        <v>34.43673864241277</v>
+        <v>35.37932358691081</v>
       </c>
       <c r="AR13" s="3">
         <v>2.253712004666341E-05</v>
@@ -4385,13 +4421,13 @@
         <v>599.4455</v>
       </c>
       <c r="AW13" s="3">
-        <v>228.1306</v>
+        <v>230.8497</v>
       </c>
       <c r="AX13" s="3">
         <v>86.29947674072298</v>
       </c>
       <c r="AY13" s="3">
-        <v>38.05693761985034</v>
+        <v>38.51054015752892</v>
       </c>
       <c r="AZ13" s="3" t="s">
         <v>25</v>
@@ -4400,7 +4436,7 @@
         <v>-2.067504518416635</v>
       </c>
       <c r="BC13" s="3">
-        <v>8.271962021784168</v>
+        <v>8.274529688906103</v>
       </c>
       <c r="BD13" s="3">
         <v>599387.5</v>
@@ -4412,10 +4448,10 @@
         <v>14.3965509359438</v>
       </c>
       <c r="BG13" s="3">
-        <v>88.98</v>
+        <v>88.28</v>
       </c>
       <c r="BH13" s="3">
-        <v>89.18000000000001</v>
+        <v>88.86</v>
       </c>
     </row>
   </sheetData>
@@ -4835,19 +4871,19 @@
         <v>643.7317</v>
       </c>
       <c r="N7" s="3">
-        <v>273.8155</v>
+        <v>270.1318</v>
       </c>
       <c r="O7" s="3">
         <v>643.7299</v>
       </c>
       <c r="P7" s="3">
-        <v>355.6723</v>
+        <v>344.5467</v>
       </c>
       <c r="Q7" s="3">
         <v>6.216836768979327</v>
       </c>
       <c r="R7" s="3">
-        <v>12.70651791065451</v>
+        <v>12.61180836448982</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="4" customFormat="1">
@@ -4950,19 +4986,19 @@
         <v>677.0234</v>
       </c>
       <c r="N9" s="3">
-        <v>302.3145</v>
+        <v>298.3195</v>
       </c>
       <c r="O9" s="3">
         <v>677.0214999999999</v>
       </c>
       <c r="P9" s="3">
-        <v>400.355</v>
+        <v>400.3249</v>
       </c>
       <c r="Q9" s="3">
         <v>-5.427845977547987</v>
       </c>
       <c r="R9" s="3">
-        <v>10.88774112509683</v>
+        <v>10.88748143802084</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="4" customFormat="1">
@@ -5065,19 +5101,19 @@
         <v>654.7945999999999</v>
       </c>
       <c r="N11" s="3">
-        <v>287.1927</v>
+        <v>288.6347</v>
       </c>
       <c r="O11" s="3">
         <v>654.7927</v>
       </c>
       <c r="P11" s="3">
-        <v>388.3095</v>
+        <v>388.7997</v>
       </c>
       <c r="Q11" s="3">
         <v>-9.569514961948167</v>
       </c>
       <c r="R11" s="3">
-        <v>15.57176953748089</v>
+        <v>15.58068770008644</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1">
@@ -5180,19 +5216,19 @@
         <v>599.4473</v>
       </c>
       <c r="N13" s="3">
-        <v>206.4301</v>
+        <v>212.0804</v>
       </c>
       <c r="O13" s="3">
         <v>599.4455</v>
       </c>
       <c r="P13" s="3">
-        <v>228.1306</v>
+        <v>230.8497</v>
       </c>
       <c r="Q13" s="3">
         <v>-2.067504518416635</v>
       </c>
       <c r="R13" s="3">
-        <v>8.271962021784168</v>
+        <v>8.274529688906103</v>
       </c>
     </row>
   </sheetData>
@@ -5202,13 +5238,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5216,8 +5252,8 @@
       <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="6">
-        <v>0.002324</v>
+      <c r="B1" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5225,7 +5261,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="6">
-        <v>0.005066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5233,7 +5269,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="6">
-        <v>5E-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5241,15 +5277,15 @@
         <v>130</v>
       </c>
       <c r="B4" s="6">
-        <v>1.336402435064349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.008202776684838</v>
+      <c r="B5" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5257,7 +5293,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="6">
-        <v>0.334493224630051</v>
+        <v>1.336402435064349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5265,7 +5301,7 @@
         <v>133</v>
       </c>
       <c r="B7" s="6">
-        <v>0.665506775369946</v>
+        <v>1.008202776684838</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5273,7 +5309,7 @@
         <v>134</v>
       </c>
       <c r="B8" s="6">
-        <v>1.025840620457897</v>
+        <v>0.334493224630051</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5281,7 +5317,7 @@
         <v>135</v>
       </c>
       <c r="B9" s="6">
-        <v>1.673784240557133</v>
+        <v>0.665506775369946</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5289,7 +5325,7 @@
         <v>136</v>
       </c>
       <c r="B10" s="6">
-        <v>0.673784240557127</v>
+        <v>1.025840620457897</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5297,7 +5333,7 @@
         <v>137</v>
       </c>
       <c r="B11" s="6">
-        <v>-0.337307116990441</v>
+        <v>1.673784240557133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5305,7 +5341,7 @@
         <v>138</v>
       </c>
       <c r="B12" s="6">
-        <v>0.336402435064353</v>
+        <v>0.673784240557127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5313,7 +5349,7 @@
         <v>139</v>
       </c>
       <c r="B13" s="6">
-        <v>-0.34318587041139</v>
+        <v>-0.337307116990441</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5321,7 +5357,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="6">
-        <v>-1.025840620457897</v>
+        <v>0.336402435064353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5329,7 +5365,7 @@
         <v>141</v>
       </c>
       <c r="B15" s="6">
-        <v>0.337307116990439</v>
+        <v>-0.34318587041139</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5337,7 +5373,7 @@
         <v>142</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>-1.025840620457897</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5345,7 +5381,7 @@
         <v>143</v>
       </c>
       <c r="B17" s="6">
-        <v>0.682654750046506</v>
+        <v>0.337307116990439</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5353,7 +5389,7 @@
         <v>144</v>
       </c>
       <c r="B18" s="6">
-        <v>6.02214129E+23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5361,7 +5397,7 @@
         <v>145</v>
       </c>
       <c r="B19" s="6">
-        <v>137.881</v>
+        <v>0.682654750046506</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5369,7 +5405,7 @@
         <v>146</v>
       </c>
       <c r="B20" s="6">
-        <v>62500000</v>
+        <v>9.1705E-06</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5377,7 +5413,7 @@
         <v>147</v>
       </c>
       <c r="B21" s="6">
-        <v>3.4053</v>
+        <v>4.94752E-11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5385,7 +5421,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="6">
-        <v>4.94752E-11</v>
+        <v>2.82206E-06</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5393,7 +5429,7 @@
         <v>149</v>
       </c>
       <c r="B23" s="6">
-        <v>2.82206E-06</v>
+        <v>1.55125E-10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5401,7 +5437,7 @@
         <v>150</v>
       </c>
       <c r="B24" s="6">
-        <v>1.55125E-10</v>
+        <v>6.02214129E+23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5409,7 +5445,7 @@
         <v>151</v>
       </c>
       <c r="B25" s="6">
-        <v>9.1705E-06</v>
+        <v>137.881</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5417,7 +5453,7 @@
         <v>152</v>
       </c>
       <c r="B26" s="6">
-        <v>3.86778</v>
+        <v>62500000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5425,7 +5461,7 @@
         <v>153</v>
       </c>
       <c r="B27" s="6">
-        <v>0.038556</v>
+        <v>3.4053</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5433,7 +5469,7 @@
         <v>154</v>
       </c>
       <c r="B28" s="6">
-        <v>0.018067</v>
+        <v>0.002324</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5441,7 +5477,7 @@
         <v>155</v>
       </c>
       <c r="B29" s="6">
-        <v>0.3</v>
+        <v>0.005066</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5449,7 +5485,7 @@
         <v>156</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5457,7 +5493,7 @@
         <v>157</v>
       </c>
       <c r="B31" s="6">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5473,7 +5509,7 @@
         <v>159</v>
       </c>
       <c r="B33" s="6">
-        <v>0.003</v>
+        <v>0.018067</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5481,7 +5517,7 @@
         <v>160</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>0.038556</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5489,7 +5525,7 @@
         <v>161</v>
       </c>
       <c r="B35" s="6">
-        <v>0.05</v>
+        <v>3.86778</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5497,7 +5533,7 @@
         <v>162</v>
       </c>
       <c r="B36" s="6">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5505,7 +5541,7 @@
         <v>163</v>
       </c>
       <c r="B37" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5513,7 +5549,95 @@
         <v>164</v>
       </c>
       <c r="B38" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="6">
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1.10995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="6">
+        <v>10.34908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5535,18 +5659,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
